--- a/template.xlsx
+++ b/template.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandrlupij/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandrlupij/------------------/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D7A1F46-3556-074C-AD1B-8CB087B86BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51873E72-585D-6A48-A2CA-50585A76A879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Штурманский журнал" sheetId="1" r:id="rId1"/>
     <sheet name="Топливо" sheetId="3" r:id="rId2"/>
-    <sheet name="Расход Ц172" sheetId="2" r:id="rId3"/>
+    <sheet name="Рассчёт УС" sheetId="4" r:id="rId3"/>
+    <sheet name="Расход Ц172" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
   <si>
     <t>ШПАРГАЛКА ИЗ РЛЭ</t>
   </si>
@@ -315,6 +316,33 @@
   <si>
     <t>!! ВЫСТАВИ РЕЖИМЫ ПОЛЁТА НА СТРАНИЦЕ ТОПЛИВО !!</t>
   </si>
+  <si>
+    <t>Рассчёт угла сноса</t>
+  </si>
+  <si>
+    <t>Направление ветра</t>
+  </si>
+  <si>
+    <t>градусы</t>
+  </si>
+  <si>
+    <t>Скорость ветра</t>
+  </si>
+  <si>
+    <t>узлы</t>
+  </si>
+  <si>
+    <t>ЗПУ</t>
+  </si>
+  <si>
+    <t>Истинная скорость</t>
+  </si>
+  <si>
+    <t>Угол сноса</t>
+  </si>
+  <si>
+    <t>Гардусы</t>
+  </si>
 </sst>
 </file>
 
@@ -324,7 +352,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -336,6 +364,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -343,16 +372,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -402,8 +434,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,8 +546,14 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="71">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -1361,11 +1431,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1556,7 +1752,142 @@
     <xf numFmtId="165" fontId="1" fillId="13" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="7" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="7" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="7" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="7" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="7" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1566,56 +1897,69 @@
     <xf numFmtId="2" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1626,196 +1970,35 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1825,47 +2008,44 @@
     <xf numFmtId="1" fontId="8" fillId="7" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="7" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="7" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="7" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="7" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="7" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="14" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2085,9 +2265,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BD109"/>
+  <dimension ref="A1:BD108"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -2137,447 +2317,447 @@
   <sheetData>
     <row r="1" spans="1:56" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
+      <c r="B1" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="156"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="160"/>
-      <c r="AH1" s="160"/>
-      <c r="AI1" s="160"/>
-      <c r="AJ1" s="160"/>
-      <c r="AK1" s="160"/>
-      <c r="AL1" s="160"/>
-      <c r="AM1" s="160"/>
-      <c r="AN1" s="160"/>
-      <c r="AO1" s="160"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
       <c r="AP1" s="39"/>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="65"/>
+      <c r="AQ1" s="139"/>
+      <c r="AR1" s="116"/>
+      <c r="AS1" s="116"/>
+      <c r="AT1" s="116"/>
+      <c r="AU1" s="116"/>
+      <c r="AV1" s="116"/>
+      <c r="AW1" s="116"/>
+      <c r="AX1" s="116"/>
+      <c r="AY1" s="116"/>
+      <c r="AZ1" s="116"/>
+      <c r="BA1" s="116"/>
+      <c r="BB1" s="116"/>
       <c r="BC1" s="1"/>
       <c r="BD1" s="2"/>
     </row>
     <row r="2" spans="1:56" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="74" t="s">
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="76" t="s">
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="160"/>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="155"/>
-      <c r="AJ2" s="159"/>
-      <c r="AK2" s="159"/>
-      <c r="AL2" s="159"/>
-      <c r="AM2" s="155"/>
-      <c r="AN2" s="155"/>
-      <c r="AO2" s="155"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
       <c r="AP2" s="39"/>
       <c r="AQ2" s="42"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="65"/>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="65"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="116"/>
+      <c r="AT2" s="116"/>
+      <c r="AU2" s="116"/>
+      <c r="AV2" s="116"/>
+      <c r="AW2" s="119"/>
+      <c r="AX2" s="116"/>
+      <c r="AY2" s="116"/>
+      <c r="AZ2" s="115"/>
+      <c r="BA2" s="116"/>
+      <c r="BB2" s="116"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="2"/>
     </row>
     <row r="3" spans="1:56" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="78" t="s">
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="81" t="s">
+      <c r="H3" s="124"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="112" t="s">
+      <c r="K3" s="124"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="160"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="160"/>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="156"/>
-      <c r="AJ3" s="157"/>
-      <c r="AK3" s="157"/>
-      <c r="AL3" s="157"/>
-      <c r="AM3" s="155"/>
-      <c r="AN3" s="155"/>
-      <c r="AO3" s="155"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
       <c r="AP3" s="39"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="65"/>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="65"/>
-      <c r="AY3" s="65"/>
-      <c r="AZ3" s="72"/>
-      <c r="BA3" s="65"/>
-      <c r="BB3" s="65"/>
+      <c r="AQ3" s="115"/>
+      <c r="AR3" s="115"/>
+      <c r="AS3" s="116"/>
+      <c r="AT3" s="117"/>
+      <c r="AU3" s="116"/>
+      <c r="AV3" s="116"/>
+      <c r="AW3" s="118"/>
+      <c r="AX3" s="116"/>
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="115"/>
+      <c r="BA3" s="116"/>
+      <c r="BB3" s="116"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="2"/>
     </row>
     <row r="4" spans="1:56" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="86" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="85" t="s">
+      <c r="H4" s="124"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="160"/>
-      <c r="Z4" s="160"/>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
-      <c r="AC4" s="160"/>
-      <c r="AD4" s="160"/>
-      <c r="AE4" s="160"/>
-      <c r="AF4" s="160"/>
-      <c r="AG4" s="160"/>
-      <c r="AH4" s="155"/>
-      <c r="AI4" s="155"/>
-      <c r="AJ4" s="159"/>
-      <c r="AK4" s="159"/>
-      <c r="AL4" s="159"/>
-      <c r="AM4" s="155"/>
-      <c r="AN4" s="155"/>
-      <c r="AO4" s="155"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="68"/>
       <c r="AP4" s="39"/>
-      <c r="AQ4" s="65"/>
-      <c r="AR4" s="65"/>
-      <c r="AS4" s="65"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="65"/>
-      <c r="AV4" s="65"/>
-      <c r="AW4" s="64"/>
-      <c r="AX4" s="65"/>
-      <c r="AY4" s="65"/>
-      <c r="AZ4" s="65"/>
-      <c r="BA4" s="73"/>
-      <c r="BB4" s="73"/>
+      <c r="AQ4" s="116"/>
+      <c r="AR4" s="116"/>
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="115"/>
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="116"/>
+      <c r="AW4" s="119"/>
+      <c r="AX4" s="116"/>
+      <c r="AY4" s="116"/>
+      <c r="AZ4" s="116"/>
+      <c r="BA4" s="147"/>
+      <c r="BB4" s="147"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="2"/>
     </row>
     <row r="5" spans="1:56" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="78" t="s">
+      <c r="B5" s="128"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="81" t="s">
+      <c r="H5" s="124"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
-      <c r="X5" s="160"/>
-      <c r="Y5" s="160"/>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="160"/>
-      <c r="AD5" s="160"/>
-      <c r="AE5" s="160"/>
-      <c r="AF5" s="160"/>
-      <c r="AG5" s="160"/>
-      <c r="AH5" s="156"/>
-      <c r="AI5" s="156"/>
-      <c r="AJ5" s="157"/>
-      <c r="AK5" s="157"/>
-      <c r="AL5" s="157"/>
-      <c r="AM5" s="155"/>
-      <c r="AN5" s="155"/>
-      <c r="AO5" s="155"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="70"/>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="70"/>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="68"/>
+      <c r="AO5" s="68"/>
       <c r="AP5" s="39"/>
-      <c r="AQ5" s="65"/>
-      <c r="AR5" s="65"/>
-      <c r="AS5" s="65"/>
-      <c r="AT5" s="66"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="67"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="65"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="117"/>
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="118"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116"/>
+      <c r="BB5" s="116"/>
       <c r="BC5" s="1"/>
       <c r="BD5" s="2"/>
     </row>
     <row r="6" spans="1:56" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="86" t="s">
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="85" t="s">
+      <c r="H6" s="124"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="82" t="s">
+      <c r="K6" s="124"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="160"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="160"/>
-      <c r="X6" s="160"/>
-      <c r="Y6" s="160"/>
-      <c r="Z6" s="160"/>
-      <c r="AA6" s="160"/>
-      <c r="AB6" s="160"/>
-      <c r="AC6" s="160"/>
-      <c r="AD6" s="160"/>
-      <c r="AE6" s="160"/>
-      <c r="AF6" s="160"/>
-      <c r="AG6" s="160"/>
-      <c r="AH6" s="155"/>
-      <c r="AI6" s="155"/>
-      <c r="AJ6" s="159"/>
-      <c r="AK6" s="159"/>
-      <c r="AL6" s="159"/>
-      <c r="AM6" s="156"/>
-      <c r="AN6" s="156"/>
-      <c r="AO6" s="156"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="69"/>
+      <c r="AN6" s="69"/>
+      <c r="AO6" s="69"/>
       <c r="AP6" s="39"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="65"/>
-      <c r="AT6" s="72"/>
-      <c r="AU6" s="65"/>
-      <c r="AV6" s="65"/>
-      <c r="AW6" s="64"/>
-      <c r="AX6" s="65"/>
-      <c r="AY6" s="65"/>
-      <c r="AZ6" s="66"/>
-      <c r="BA6" s="65"/>
-      <c r="BB6" s="65"/>
+      <c r="AQ6" s="117"/>
+      <c r="AR6" s="117"/>
+      <c r="AS6" s="116"/>
+      <c r="AT6" s="115"/>
+      <c r="AU6" s="116"/>
+      <c r="AV6" s="116"/>
+      <c r="AW6" s="119"/>
+      <c r="AX6" s="116"/>
+      <c r="AY6" s="116"/>
+      <c r="AZ6" s="117"/>
+      <c r="BA6" s="116"/>
+      <c r="BB6" s="116"/>
       <c r="BC6" s="1"/>
       <c r="BD6" s="2"/>
     </row>
     <row r="7" spans="1:56" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="78" t="s">
+      <c r="B7" s="128"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="81" t="s">
+      <c r="H7" s="124"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="160"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
-      <c r="U7" s="160"/>
-      <c r="V7" s="160"/>
-      <c r="W7" s="160"/>
-      <c r="X7" s="160"/>
-      <c r="Y7" s="160"/>
-      <c r="Z7" s="160"/>
-      <c r="AA7" s="160"/>
-      <c r="AB7" s="160"/>
-      <c r="AC7" s="160"/>
-      <c r="AD7" s="160"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="160"/>
-      <c r="AG7" s="160"/>
-      <c r="AH7" s="156"/>
-      <c r="AI7" s="156"/>
-      <c r="AJ7" s="157"/>
-      <c r="AK7" s="157"/>
-      <c r="AL7" s="157"/>
-      <c r="AM7" s="156"/>
-      <c r="AN7" s="156"/>
-      <c r="AO7" s="156"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="69"/>
+      <c r="AO7" s="69"/>
       <c r="AP7" s="39"/>
-      <c r="AQ7" s="65"/>
-      <c r="AR7" s="65"/>
-      <c r="AS7" s="65"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="65"/>
-      <c r="AV7" s="65"/>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="65"/>
-      <c r="AY7" s="65"/>
-      <c r="AZ7" s="65"/>
-      <c r="BA7" s="65"/>
-      <c r="BB7" s="65"/>
+      <c r="AQ7" s="116"/>
+      <c r="AR7" s="116"/>
+      <c r="AS7" s="116"/>
+      <c r="AT7" s="117"/>
+      <c r="AU7" s="116"/>
+      <c r="AV7" s="116"/>
+      <c r="AW7" s="118"/>
+      <c r="AX7" s="116"/>
+      <c r="AY7" s="116"/>
+      <c r="AZ7" s="116"/>
+      <c r="BA7" s="116"/>
+      <c r="BB7" s="116"/>
       <c r="BC7" s="1"/>
       <c r="BD7" s="2"/>
     </row>
@@ -2586,64 +2766,64 @@
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="85" t="s">
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="79"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="86" t="s">
+      <c r="K8" s="124"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="160"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="160"/>
-      <c r="T8" s="160"/>
-      <c r="U8" s="160"/>
-      <c r="V8" s="160"/>
-      <c r="W8" s="160"/>
-      <c r="X8" s="160"/>
-      <c r="Y8" s="160"/>
-      <c r="Z8" s="160"/>
-      <c r="AA8" s="160"/>
-      <c r="AB8" s="160"/>
-      <c r="AC8" s="160"/>
-      <c r="AD8" s="160"/>
-      <c r="AE8" s="160"/>
-      <c r="AF8" s="160"/>
-      <c r="AG8" s="160"/>
-      <c r="AH8" s="155"/>
-      <c r="AI8" s="155"/>
-      <c r="AJ8" s="159"/>
-      <c r="AK8" s="159"/>
-      <c r="AL8" s="159"/>
-      <c r="AM8" s="155"/>
-      <c r="AN8" s="155"/>
-      <c r="AO8" s="155"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="68"/>
+      <c r="AO8" s="68"/>
       <c r="AP8" s="39"/>
       <c r="AQ8" s="42"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="65"/>
-      <c r="AT8" s="65"/>
-      <c r="AU8" s="65"/>
-      <c r="AV8" s="65"/>
-      <c r="AW8" s="64"/>
-      <c r="AX8" s="65"/>
-      <c r="AY8" s="65"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="65"/>
-      <c r="BB8" s="65"/>
+      <c r="AR8" s="115"/>
+      <c r="AS8" s="116"/>
+      <c r="AT8" s="116"/>
+      <c r="AU8" s="116"/>
+      <c r="AV8" s="116"/>
+      <c r="AW8" s="119"/>
+      <c r="AX8" s="116"/>
+      <c r="AY8" s="116"/>
+      <c r="AZ8" s="115"/>
+      <c r="BA8" s="116"/>
+      <c r="BB8" s="116"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="2"/>
     </row>
@@ -2652,64 +2832,64 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="123" t="s">
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="82" t="s">
+      <c r="K9" s="101"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="160"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="160"/>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="160"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="160"/>
-      <c r="AF9" s="160"/>
-      <c r="AG9" s="160"/>
-      <c r="AH9" s="156"/>
-      <c r="AI9" s="156"/>
-      <c r="AJ9" s="157"/>
-      <c r="AK9" s="157"/>
-      <c r="AL9" s="157"/>
-      <c r="AM9" s="156"/>
-      <c r="AN9" s="156"/>
-      <c r="AO9" s="156"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="69"/>
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="70"/>
+      <c r="AL9" s="70"/>
+      <c r="AM9" s="69"/>
+      <c r="AN9" s="69"/>
+      <c r="AO9" s="69"/>
       <c r="AP9" s="39"/>
       <c r="AQ9" s="43"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="65"/>
-      <c r="AV9" s="65"/>
-      <c r="AW9" s="67"/>
-      <c r="AX9" s="65"/>
-      <c r="AY9" s="65"/>
-      <c r="AZ9" s="66"/>
-      <c r="BA9" s="65"/>
-      <c r="BB9" s="65"/>
+      <c r="AR9" s="117"/>
+      <c r="AS9" s="116"/>
+      <c r="AT9" s="116"/>
+      <c r="AU9" s="116"/>
+      <c r="AV9" s="116"/>
+      <c r="AW9" s="118"/>
+      <c r="AX9" s="116"/>
+      <c r="AY9" s="116"/>
+      <c r="AZ9" s="117"/>
+      <c r="BA9" s="116"/>
+      <c r="BB9" s="116"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="2"/>
     </row>
@@ -2730,31 +2910,31 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="160"/>
-      <c r="R10" s="160"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="160"/>
-      <c r="U10" s="160"/>
-      <c r="V10" s="160"/>
-      <c r="W10" s="160"/>
-      <c r="X10" s="160"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="160"/>
-      <c r="AA10" s="160"/>
-      <c r="AB10" s="160"/>
-      <c r="AC10" s="160"/>
-      <c r="AD10" s="160"/>
-      <c r="AE10" s="160"/>
-      <c r="AF10" s="160"/>
-      <c r="AG10" s="160"/>
-      <c r="AH10" s="137"/>
-      <c r="AI10" s="137"/>
-      <c r="AJ10" s="140"/>
-      <c r="AK10" s="137"/>
-      <c r="AL10" s="137"/>
-      <c r="AM10" s="137"/>
-      <c r="AN10" s="137"/>
-      <c r="AO10" s="137"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="73"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="39"/>
       <c r="AP10" s="39"/>
       <c r="AQ10" s="39"/>
       <c r="AR10" s="39"/>
@@ -2777,66 +2957,66 @@
         <v>19</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="129" t="s">
+      <c r="H11" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="130"/>
-      <c r="J11" s="107">
+      <c r="I11" s="112"/>
+      <c r="J11" s="120">
         <f>Топливо!D9</f>
         <v>8.8333333333333321</v>
       </c>
-      <c r="K11" s="117" t="s">
+      <c r="K11" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="103"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="107"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="160"/>
-      <c r="R11" s="160"/>
-      <c r="S11" s="160"/>
-      <c r="T11" s="160"/>
-      <c r="U11" s="160"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="160"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="160"/>
-      <c r="AA11" s="160"/>
-      <c r="AB11" s="160"/>
-      <c r="AC11" s="160"/>
-      <c r="AD11" s="160"/>
-      <c r="AE11" s="160"/>
-      <c r="AF11" s="160"/>
-      <c r="AG11" s="160"/>
-      <c r="AH11" s="155"/>
-      <c r="AI11" s="155"/>
-      <c r="AJ11" s="159"/>
-      <c r="AK11" s="155"/>
-      <c r="AL11" s="155"/>
-      <c r="AM11" s="155"/>
-      <c r="AN11" s="155"/>
-      <c r="AO11" s="155"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="68"/>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="68"/>
+      <c r="AO11" s="68"/>
       <c r="AP11" s="39"/>
       <c r="AQ11" s="42"/>
       <c r="AR11" s="42"/>
       <c r="AS11" s="42"/>
       <c r="AT11" s="42"/>
-      <c r="AU11" s="72"/>
-      <c r="AV11" s="65"/>
-      <c r="AW11" s="64"/>
-      <c r="AX11" s="72"/>
-      <c r="AY11" s="65"/>
-      <c r="AZ11" s="65"/>
-      <c r="BA11" s="72"/>
-      <c r="BB11" s="65"/>
+      <c r="AU11" s="115"/>
+      <c r="AV11" s="116"/>
+      <c r="AW11" s="119"/>
+      <c r="AX11" s="115"/>
+      <c r="AY11" s="116"/>
+      <c r="AZ11" s="116"/>
+      <c r="BA11" s="115"/>
+      <c r="BB11" s="116"/>
       <c r="BC11" s="1"/>
       <c r="BD11" s="2"/>
     </row>
@@ -2846,202 +3026,202 @@
         <v>23</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
       <c r="F12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="126" t="s">
+      <c r="H12" s="113"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="83"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="127" t="s">
+      <c r="L12" s="101"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="128"/>
+      <c r="O12" s="110"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="160"/>
-      <c r="S12" s="160"/>
-      <c r="T12" s="160"/>
-      <c r="U12" s="160"/>
-      <c r="V12" s="160"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="160"/>
-      <c r="AA12" s="160"/>
-      <c r="AB12" s="160"/>
-      <c r="AC12" s="160"/>
-      <c r="AD12" s="160"/>
-      <c r="AE12" s="160"/>
-      <c r="AF12" s="160"/>
-      <c r="AG12" s="160"/>
-      <c r="AH12" s="155"/>
-      <c r="AI12" s="155"/>
-      <c r="AJ12" s="159"/>
-      <c r="AK12" s="155"/>
-      <c r="AL12" s="155"/>
-      <c r="AM12" s="155"/>
-      <c r="AN12" s="158"/>
-      <c r="AO12" s="158"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="68"/>
+      <c r="AL12" s="68"/>
+      <c r="AM12" s="68"/>
+      <c r="AN12" s="71"/>
+      <c r="AO12" s="71"/>
       <c r="AP12" s="39"/>
       <c r="AQ12" s="42"/>
       <c r="AR12" s="42"/>
       <c r="AS12" s="42"/>
       <c r="AT12" s="42"/>
-      <c r="AU12" s="65"/>
-      <c r="AV12" s="65"/>
-      <c r="AW12" s="65"/>
-      <c r="AX12" s="72"/>
-      <c r="AY12" s="65"/>
-      <c r="AZ12" s="65"/>
-      <c r="BA12" s="116"/>
-      <c r="BB12" s="65"/>
+      <c r="AU12" s="116"/>
+      <c r="AV12" s="116"/>
+      <c r="AW12" s="116"/>
+      <c r="AX12" s="115"/>
+      <c r="AY12" s="116"/>
+      <c r="AZ12" s="116"/>
+      <c r="BA12" s="140"/>
+      <c r="BB12" s="116"/>
       <c r="BC12" s="1"/>
       <c r="BD12" s="2"/>
     </row>
     <row r="13" spans="1:56" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="183" t="s">
+      <c r="B13" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="184"/>
-      <c r="J13" s="102" t="s">
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="107"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="160"/>
-      <c r="S13" s="160"/>
-      <c r="T13" s="160"/>
-      <c r="U13" s="160"/>
-      <c r="V13" s="160"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="160"/>
-      <c r="AA13" s="160"/>
-      <c r="AB13" s="160"/>
-      <c r="AC13" s="160"/>
-      <c r="AD13" s="160"/>
-      <c r="AE13" s="160"/>
-      <c r="AF13" s="160"/>
-      <c r="AG13" s="160"/>
-      <c r="AH13" s="160"/>
-      <c r="AI13" s="160"/>
-      <c r="AJ13" s="160"/>
-      <c r="AK13" s="160"/>
-      <c r="AL13" s="160"/>
-      <c r="AM13" s="160"/>
-      <c r="AN13" s="160"/>
-      <c r="AO13" s="160"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="73"/>
+      <c r="AH13" s="73"/>
+      <c r="AI13" s="73"/>
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="73"/>
+      <c r="AL13" s="73"/>
+      <c r="AM13" s="73"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="73"/>
       <c r="AP13" s="39"/>
       <c r="AQ13" s="41"/>
-      <c r="AR13" s="87"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="65"/>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="87"/>
-      <c r="AX13" s="65"/>
-      <c r="AY13" s="65"/>
-      <c r="AZ13" s="65"/>
-      <c r="BA13" s="65"/>
-      <c r="BB13" s="65"/>
+      <c r="AR13" s="139"/>
+      <c r="AS13" s="116"/>
+      <c r="AT13" s="116"/>
+      <c r="AU13" s="116"/>
+      <c r="AV13" s="116"/>
+      <c r="AW13" s="139"/>
+      <c r="AX13" s="116"/>
+      <c r="AY13" s="116"/>
+      <c r="AZ13" s="116"/>
+      <c r="BA13" s="116"/>
+      <c r="BB13" s="116"/>
       <c r="BC13" s="1"/>
       <c r="BD13" s="2"/>
     </row>
     <row r="14" spans="1:56" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="185"/>
-      <c r="C14" s="185"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="105" t="s">
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="80"/>
-      <c r="L14" s="78" t="s">
+      <c r="K14" s="125"/>
+      <c r="L14" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="80"/>
-      <c r="N14" s="78" t="s">
+      <c r="M14" s="125"/>
+      <c r="N14" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="106"/>
+      <c r="O14" s="138"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="160"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
-      <c r="AA14" s="160"/>
-      <c r="AB14" s="160"/>
-      <c r="AC14" s="160"/>
-      <c r="AD14" s="160"/>
-      <c r="AE14" s="160"/>
-      <c r="AF14" s="160"/>
-      <c r="AG14" s="160"/>
-      <c r="AH14" s="159"/>
-      <c r="AI14" s="159"/>
-      <c r="AJ14" s="156"/>
-      <c r="AK14" s="156"/>
-      <c r="AL14" s="156"/>
-      <c r="AM14" s="156"/>
-      <c r="AN14" s="156"/>
-      <c r="AO14" s="156"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="69"/>
+      <c r="AL14" s="69"/>
+      <c r="AM14" s="69"/>
+      <c r="AN14" s="69"/>
+      <c r="AO14" s="69"/>
       <c r="AP14" s="39"/>
       <c r="AQ14" s="45"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="65"/>
-      <c r="AT14" s="64"/>
-      <c r="AU14" s="65"/>
-      <c r="AV14" s="65"/>
-      <c r="AW14" s="66"/>
-      <c r="AX14" s="65"/>
-      <c r="AY14" s="66"/>
-      <c r="AZ14" s="65"/>
-      <c r="BA14" s="66"/>
-      <c r="BB14" s="65"/>
+      <c r="AR14" s="119"/>
+      <c r="AS14" s="116"/>
+      <c r="AT14" s="119"/>
+      <c r="AU14" s="116"/>
+      <c r="AV14" s="116"/>
+      <c r="AW14" s="117"/>
+      <c r="AX14" s="116"/>
+      <c r="AY14" s="117"/>
+      <c r="AZ14" s="116"/>
+      <c r="BA14" s="117"/>
+      <c r="BB14" s="116"/>
       <c r="BC14" s="1"/>
       <c r="BD14" s="2"/>
     </row>
     <row r="15" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="185"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="186"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
       <c r="J15" s="11" t="s">
         <v>31</v>
       </c>
@@ -3061,38 +3241,38 @@
         <v>32</v>
       </c>
       <c r="P15" s="1"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="160"/>
-      <c r="S15" s="160"/>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="160"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="160"/>
-      <c r="Z15" s="160"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="160"/>
-      <c r="AC15" s="160"/>
-      <c r="AD15" s="160"/>
-      <c r="AE15" s="160"/>
-      <c r="AF15" s="160"/>
-      <c r="AG15" s="160"/>
-      <c r="AH15" s="159"/>
-      <c r="AI15" s="159"/>
-      <c r="AJ15" s="141"/>
-      <c r="AK15" s="141"/>
-      <c r="AL15" s="141"/>
-      <c r="AM15" s="141"/>
-      <c r="AN15" s="141"/>
-      <c r="AO15" s="141"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="73"/>
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="73"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="72"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="46"/>
       <c r="AP15" s="39"/>
       <c r="AQ15" s="45"/>
-      <c r="AR15" s="64"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="64"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
+      <c r="AR15" s="119"/>
+      <c r="AS15" s="116"/>
+      <c r="AT15" s="119"/>
+      <c r="AU15" s="116"/>
+      <c r="AV15" s="116"/>
       <c r="AW15" s="46"/>
       <c r="AX15" s="46"/>
       <c r="AY15" s="46"/>
@@ -3104,14 +3284,14 @@
     </row>
     <row r="16" spans="1:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="B16" s="185"/>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="186"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
       <c r="J16" s="14">
         <f>L16+N16+1663</f>
         <v>1663</v>
@@ -3131,38 +3311,38 @@
       </c>
       <c r="O16" s="17"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="160"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="160"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="160"/>
-      <c r="AB16" s="160"/>
-      <c r="AC16" s="160"/>
-      <c r="AD16" s="160"/>
-      <c r="AE16" s="160"/>
-      <c r="AF16" s="160"/>
-      <c r="AG16" s="160"/>
-      <c r="AH16" s="159"/>
-      <c r="AI16" s="159"/>
-      <c r="AJ16" s="142"/>
-      <c r="AK16" s="142"/>
-      <c r="AL16" s="142"/>
-      <c r="AM16" s="139"/>
-      <c r="AN16" s="142"/>
-      <c r="AO16" s="139"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="73"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="47"/>
+      <c r="AL16" s="47"/>
+      <c r="AM16" s="43"/>
+      <c r="AN16" s="47"/>
+      <c r="AO16" s="43"/>
       <c r="AP16" s="39"/>
       <c r="AQ16" s="45"/>
-      <c r="AR16" s="64"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="64"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="65"/>
+      <c r="AR16" s="119"/>
+      <c r="AS16" s="116"/>
+      <c r="AT16" s="119"/>
+      <c r="AU16" s="116"/>
+      <c r="AV16" s="116"/>
       <c r="AW16" s="47"/>
       <c r="AX16" s="47"/>
       <c r="AY16" s="47"/>
@@ -3174,14 +3354,14 @@
     </row>
     <row r="17" spans="1:56" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="185"/>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="186"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
       <c r="J17" s="18">
         <f>L17+N17+1663</f>
         <v>1663</v>
@@ -3201,38 +3381,38 @@
         <v>0</v>
       </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="160"/>
-      <c r="S17" s="160"/>
-      <c r="T17" s="160"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="160"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="160"/>
-      <c r="AA17" s="160"/>
-      <c r="AB17" s="160"/>
-      <c r="AC17" s="160"/>
-      <c r="AD17" s="160"/>
-      <c r="AE17" s="160"/>
-      <c r="AF17" s="160"/>
-      <c r="AG17" s="160"/>
-      <c r="AH17" s="159"/>
-      <c r="AI17" s="159"/>
-      <c r="AJ17" s="143"/>
-      <c r="AK17" s="143"/>
-      <c r="AL17" s="141"/>
-      <c r="AM17" s="144"/>
-      <c r="AN17" s="141"/>
-      <c r="AO17" s="144"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="73"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="46"/>
+      <c r="AO17" s="48"/>
       <c r="AP17" s="39"/>
       <c r="AQ17" s="45"/>
-      <c r="AR17" s="64"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="64"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
+      <c r="AR17" s="119"/>
+      <c r="AS17" s="116"/>
+      <c r="AT17" s="119"/>
+      <c r="AU17" s="116"/>
+      <c r="AV17" s="116"/>
       <c r="AW17" s="44"/>
       <c r="AX17" s="44"/>
       <c r="AY17" s="46"/>
@@ -3244,256 +3424,256 @@
     </row>
     <row r="18" spans="1:56" ht="3.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="160"/>
-      <c r="R18" s="160"/>
-      <c r="S18" s="160"/>
-      <c r="T18" s="160"/>
-      <c r="U18" s="160"/>
-      <c r="V18" s="160"/>
-      <c r="W18" s="160"/>
-      <c r="X18" s="160"/>
-      <c r="Y18" s="160"/>
-      <c r="Z18" s="160"/>
-      <c r="AA18" s="160"/>
-      <c r="AB18" s="160"/>
-      <c r="AC18" s="160"/>
-      <c r="AD18" s="160"/>
-      <c r="AE18" s="160"/>
-      <c r="AF18" s="160"/>
-      <c r="AG18" s="160"/>
-      <c r="AH18" s="161"/>
-      <c r="AI18" s="161"/>
-      <c r="AJ18" s="161"/>
-      <c r="AK18" s="161"/>
-      <c r="AL18" s="161"/>
-      <c r="AM18" s="161"/>
-      <c r="AN18" s="161"/>
-      <c r="AO18" s="161"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="74"/>
+      <c r="AI18" s="74"/>
+      <c r="AJ18" s="74"/>
+      <c r="AK18" s="74"/>
+      <c r="AL18" s="74"/>
+      <c r="AM18" s="74"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="74"/>
       <c r="AP18" s="39"/>
-      <c r="AQ18" s="91"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="73"/>
-      <c r="AX18" s="73"/>
-      <c r="AY18" s="73"/>
-      <c r="AZ18" s="73"/>
-      <c r="BA18" s="73"/>
-      <c r="BB18" s="73"/>
+      <c r="AQ18" s="146"/>
+      <c r="AR18" s="147"/>
+      <c r="AS18" s="147"/>
+      <c r="AT18" s="147"/>
+      <c r="AU18" s="147"/>
+      <c r="AV18" s="147"/>
+      <c r="AW18" s="147"/>
+      <c r="AX18" s="147"/>
+      <c r="AY18" s="147"/>
+      <c r="AZ18" s="147"/>
+      <c r="BA18" s="147"/>
+      <c r="BB18" s="147"/>
       <c r="BC18" s="1"/>
       <c r="BD18" s="2"/>
     </row>
     <row r="19" spans="1:56" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="160"/>
-      <c r="R19" s="160"/>
-      <c r="S19" s="160"/>
-      <c r="T19" s="160"/>
-      <c r="U19" s="160"/>
-      <c r="V19" s="160"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="160"/>
-      <c r="Y19" s="160"/>
-      <c r="Z19" s="160"/>
-      <c r="AA19" s="160"/>
-      <c r="AB19" s="160"/>
-      <c r="AC19" s="160"/>
-      <c r="AD19" s="160"/>
-      <c r="AE19" s="160"/>
-      <c r="AF19" s="160"/>
-      <c r="AG19" s="160"/>
-      <c r="AH19" s="160"/>
-      <c r="AI19" s="160"/>
-      <c r="AJ19" s="160"/>
-      <c r="AK19" s="160"/>
-      <c r="AL19" s="160"/>
-      <c r="AM19" s="160"/>
-      <c r="AN19" s="160"/>
-      <c r="AO19" s="160"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="73"/>
+      <c r="AB19" s="73"/>
+      <c r="AC19" s="73"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="73"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="73"/>
+      <c r="AK19" s="73"/>
+      <c r="AL19" s="73"/>
+      <c r="AM19" s="73"/>
+      <c r="AN19" s="73"/>
+      <c r="AO19" s="73"/>
       <c r="AP19" s="39"/>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="73"/>
-      <c r="AS19" s="73"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="73"/>
-      <c r="AV19" s="73"/>
-      <c r="AW19" s="73"/>
-      <c r="AX19" s="73"/>
-      <c r="AY19" s="73"/>
-      <c r="AZ19" s="73"/>
-      <c r="BA19" s="73"/>
-      <c r="BB19" s="73"/>
+      <c r="AQ19" s="139"/>
+      <c r="AR19" s="147"/>
+      <c r="AS19" s="147"/>
+      <c r="AT19" s="147"/>
+      <c r="AU19" s="147"/>
+      <c r="AV19" s="147"/>
+      <c r="AW19" s="147"/>
+      <c r="AX19" s="147"/>
+      <c r="AY19" s="147"/>
+      <c r="AZ19" s="147"/>
+      <c r="BA19" s="147"/>
+      <c r="BB19" s="147"/>
       <c r="BC19" s="1"/>
       <c r="BD19" s="2"/>
     </row>
     <row r="20" spans="1:56" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="160"/>
-      <c r="S20" s="160"/>
-      <c r="T20" s="160"/>
-      <c r="U20" s="160"/>
-      <c r="V20" s="160"/>
-      <c r="W20" s="160"/>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="160"/>
-      <c r="Z20" s="160"/>
-      <c r="AA20" s="160"/>
-      <c r="AB20" s="160"/>
-      <c r="AC20" s="160"/>
-      <c r="AD20" s="160"/>
-      <c r="AE20" s="160"/>
-      <c r="AF20" s="160"/>
-      <c r="AG20" s="160"/>
-      <c r="AH20" s="161"/>
-      <c r="AI20" s="161"/>
-      <c r="AJ20" s="161"/>
-      <c r="AK20" s="161"/>
-      <c r="AL20" s="161"/>
-      <c r="AM20" s="161"/>
-      <c r="AN20" s="161"/>
-      <c r="AO20" s="161"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="73"/>
+      <c r="AH20" s="74"/>
+      <c r="AI20" s="74"/>
+      <c r="AJ20" s="74"/>
+      <c r="AK20" s="74"/>
+      <c r="AL20" s="74"/>
+      <c r="AM20" s="74"/>
+      <c r="AN20" s="74"/>
+      <c r="AO20" s="74"/>
       <c r="AP20" s="39"/>
-      <c r="AQ20" s="91"/>
-      <c r="AR20" s="73"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="73"/>
-      <c r="AX20" s="73"/>
-      <c r="AY20" s="73"/>
-      <c r="AZ20" s="73"/>
-      <c r="BA20" s="73"/>
-      <c r="BB20" s="73"/>
+      <c r="AQ20" s="146"/>
+      <c r="AR20" s="147"/>
+      <c r="AS20" s="147"/>
+      <c r="AT20" s="147"/>
+      <c r="AU20" s="147"/>
+      <c r="AV20" s="147"/>
+      <c r="AW20" s="147"/>
+      <c r="AX20" s="147"/>
+      <c r="AY20" s="147"/>
+      <c r="AZ20" s="147"/>
+      <c r="BA20" s="147"/>
+      <c r="BB20" s="147"/>
       <c r="BC20" s="1"/>
       <c r="BD20" s="2"/>
     </row>
     <row r="21" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="95" t="s">
+      <c r="E21" s="98"/>
+      <c r="F21" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="96"/>
-      <c r="H21" s="97" t="s">
+      <c r="G21" s="143"/>
+      <c r="H21" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="96"/>
-      <c r="J21" s="97" t="s">
+      <c r="I21" s="143"/>
+      <c r="J21" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="101"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="97" t="s">
+      <c r="K21" s="142"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="N21" s="101"/>
-      <c r="O21" s="96"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="143"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="160"/>
-      <c r="R21" s="160"/>
-      <c r="S21" s="160"/>
-      <c r="T21" s="160"/>
-      <c r="U21" s="160"/>
-      <c r="V21" s="160"/>
-      <c r="W21" s="160"/>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="160"/>
-      <c r="AA21" s="160"/>
-      <c r="AB21" s="160"/>
-      <c r="AC21" s="160"/>
-      <c r="AD21" s="160"/>
-      <c r="AE21" s="160"/>
-      <c r="AF21" s="160"/>
-      <c r="AG21" s="160"/>
-      <c r="AH21" s="155"/>
-      <c r="AI21" s="155"/>
-      <c r="AJ21" s="155"/>
-      <c r="AK21" s="155"/>
-      <c r="AL21" s="155"/>
-      <c r="AM21" s="155"/>
-      <c r="AN21" s="155"/>
-      <c r="AO21" s="155"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="73"/>
+      <c r="AB21" s="73"/>
+      <c r="AC21" s="73"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="73"/>
+      <c r="AF21" s="73"/>
+      <c r="AG21" s="73"/>
+      <c r="AH21" s="68"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="68"/>
+      <c r="AK21" s="68"/>
+      <c r="AL21" s="68"/>
+      <c r="AM21" s="68"/>
+      <c r="AN21" s="68"/>
+      <c r="AO21" s="68"/>
       <c r="AP21" s="39"/>
-      <c r="AQ21" s="72"/>
-      <c r="AR21" s="72"/>
-      <c r="AS21" s="72"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="72"/>
-      <c r="AV21" s="65"/>
-      <c r="AW21" s="72"/>
-      <c r="AX21" s="65"/>
-      <c r="AY21" s="65"/>
-      <c r="AZ21" s="72"/>
-      <c r="BA21" s="65"/>
-      <c r="BB21" s="65"/>
+      <c r="AQ21" s="115"/>
+      <c r="AR21" s="115"/>
+      <c r="AS21" s="115"/>
+      <c r="AT21" s="116"/>
+      <c r="AU21" s="115"/>
+      <c r="AV21" s="116"/>
+      <c r="AW21" s="115"/>
+      <c r="AX21" s="116"/>
+      <c r="AY21" s="116"/>
+      <c r="AZ21" s="115"/>
+      <c r="BA21" s="116"/>
+      <c r="BB21" s="116"/>
       <c r="BC21" s="1"/>
       <c r="BD21" s="2"/>
     </row>
     <row r="22" spans="1:56" ht="45" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="152"/>
       <c r="D22" s="59" t="s">
         <v>59</v>
       </c>
@@ -3531,34 +3711,34 @@
         <v>49</v>
       </c>
       <c r="P22" s="1"/>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="160"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="160"/>
-      <c r="V22" s="160"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="160"/>
-      <c r="AB22" s="160"/>
-      <c r="AC22" s="160"/>
-      <c r="AD22" s="160"/>
-      <c r="AE22" s="160"/>
-      <c r="AF22" s="160"/>
-      <c r="AG22" s="160"/>
-      <c r="AH22" s="138"/>
-      <c r="AI22" s="138"/>
-      <c r="AJ22" s="138"/>
-      <c r="AK22" s="138"/>
-      <c r="AL22" s="138"/>
-      <c r="AM22" s="138"/>
-      <c r="AN22" s="138"/>
-      <c r="AO22" s="145"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="73"/>
+      <c r="AH22" s="42"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="42"/>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="42"/>
+      <c r="AM22" s="42"/>
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="49"/>
       <c r="AP22" s="39"/>
-      <c r="AQ22" s="65"/>
-      <c r="AR22" s="65"/>
+      <c r="AQ22" s="116"/>
+      <c r="AR22" s="116"/>
       <c r="AS22" s="42"/>
       <c r="AT22" s="42"/>
       <c r="AU22" s="42"/>
@@ -3612,31 +3792,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P23" s="1"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="160"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="160"/>
-      <c r="V23" s="160"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="160"/>
-      <c r="AA23" s="160"/>
-      <c r="AB23" s="160"/>
-      <c r="AC23" s="160"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="160"/>
-      <c r="AF23" s="160"/>
-      <c r="AG23" s="160"/>
-      <c r="AH23" s="146"/>
-      <c r="AI23" s="147"/>
-      <c r="AJ23" s="148"/>
-      <c r="AK23" s="148"/>
-      <c r="AL23" s="148"/>
-      <c r="AM23" s="139"/>
-      <c r="AN23" s="142"/>
-      <c r="AO23" s="146"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="52"/>
+      <c r="AJ23" s="53"/>
+      <c r="AK23" s="53"/>
+      <c r="AL23" s="53"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="47"/>
+      <c r="AO23" s="51"/>
       <c r="AP23" s="39"/>
       <c r="AQ23" s="50"/>
       <c r="AR23" s="43"/>
@@ -3693,31 +3873,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P24" s="1"/>
-      <c r="Q24" s="160"/>
-      <c r="R24" s="160"/>
-      <c r="S24" s="160"/>
-      <c r="T24" s="160"/>
-      <c r="U24" s="160"/>
-      <c r="V24" s="160"/>
-      <c r="W24" s="160"/>
-      <c r="X24" s="160"/>
-      <c r="Y24" s="160"/>
-      <c r="Z24" s="160"/>
-      <c r="AA24" s="160"/>
-      <c r="AB24" s="160"/>
-      <c r="AC24" s="160"/>
-      <c r="AD24" s="160"/>
-      <c r="AE24" s="160"/>
-      <c r="AF24" s="160"/>
-      <c r="AG24" s="160"/>
-      <c r="AH24" s="150"/>
-      <c r="AI24" s="151"/>
-      <c r="AJ24" s="152"/>
-      <c r="AK24" s="152"/>
-      <c r="AL24" s="152"/>
-      <c r="AM24" s="138"/>
-      <c r="AN24" s="143"/>
-      <c r="AO24" s="150"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="73"/>
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+      <c r="AG24" s="73"/>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="57"/>
+      <c r="AK24" s="57"/>
+      <c r="AL24" s="57"/>
+      <c r="AM24" s="42"/>
+      <c r="AN24" s="44"/>
+      <c r="AO24" s="55"/>
       <c r="AP24" s="39"/>
       <c r="AQ24" s="54"/>
       <c r="AR24" s="42"/>
@@ -3774,31 +3954,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P25" s="1"/>
-      <c r="Q25" s="160"/>
-      <c r="R25" s="160"/>
-      <c r="S25" s="160"/>
-      <c r="T25" s="160"/>
-      <c r="U25" s="160"/>
-      <c r="V25" s="160"/>
-      <c r="W25" s="160"/>
-      <c r="X25" s="160"/>
-      <c r="Y25" s="160"/>
-      <c r="Z25" s="160"/>
-      <c r="AA25" s="160"/>
-      <c r="AB25" s="160"/>
-      <c r="AC25" s="160"/>
-      <c r="AD25" s="160"/>
-      <c r="AE25" s="160"/>
-      <c r="AF25" s="160"/>
-      <c r="AG25" s="160"/>
-      <c r="AH25" s="146"/>
-      <c r="AI25" s="147"/>
-      <c r="AJ25" s="148"/>
-      <c r="AK25" s="148"/>
-      <c r="AL25" s="148"/>
-      <c r="AM25" s="139"/>
-      <c r="AN25" s="142"/>
-      <c r="AO25" s="146"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="73"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="73"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="53"/>
+      <c r="AK25" s="53"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="47"/>
+      <c r="AO25" s="51"/>
       <c r="AP25" s="39"/>
       <c r="AQ25" s="50"/>
       <c r="AR25" s="43"/>
@@ -3855,31 +4035,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P26" s="1"/>
-      <c r="Q26" s="160"/>
-      <c r="R26" s="160"/>
-      <c r="S26" s="160"/>
-      <c r="T26" s="160"/>
-      <c r="U26" s="160"/>
-      <c r="V26" s="160"/>
-      <c r="W26" s="160"/>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="160"/>
-      <c r="Z26" s="160"/>
-      <c r="AA26" s="160"/>
-      <c r="AB26" s="160"/>
-      <c r="AC26" s="160"/>
-      <c r="AD26" s="160"/>
-      <c r="AE26" s="160"/>
-      <c r="AF26" s="160"/>
-      <c r="AG26" s="160"/>
-      <c r="AH26" s="150"/>
-      <c r="AI26" s="154"/>
-      <c r="AJ26" s="152"/>
-      <c r="AK26" s="152"/>
-      <c r="AL26" s="152"/>
-      <c r="AM26" s="138"/>
-      <c r="AN26" s="143"/>
-      <c r="AO26" s="150"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="73"/>
+      <c r="AC26" s="73"/>
+      <c r="AD26" s="73"/>
+      <c r="AE26" s="73"/>
+      <c r="AF26" s="73"/>
+      <c r="AG26" s="73"/>
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="58"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="42"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="55"/>
       <c r="AP26" s="39"/>
       <c r="AQ26" s="54"/>
       <c r="AR26" s="42"/>
@@ -3936,31 +4116,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P27" s="1"/>
-      <c r="Q27" s="160"/>
-      <c r="R27" s="160"/>
-      <c r="S27" s="160"/>
-      <c r="T27" s="160"/>
-      <c r="U27" s="160"/>
-      <c r="V27" s="160"/>
-      <c r="W27" s="160"/>
-      <c r="X27" s="160"/>
-      <c r="Y27" s="160"/>
-      <c r="Z27" s="160"/>
-      <c r="AA27" s="160"/>
-      <c r="AB27" s="160"/>
-      <c r="AC27" s="160"/>
-      <c r="AD27" s="160"/>
-      <c r="AE27" s="160"/>
-      <c r="AF27" s="160"/>
-      <c r="AG27" s="160"/>
-      <c r="AH27" s="146"/>
-      <c r="AI27" s="147"/>
-      <c r="AJ27" s="148"/>
-      <c r="AK27" s="148"/>
-      <c r="AL27" s="148"/>
-      <c r="AM27" s="139"/>
-      <c r="AN27" s="142"/>
-      <c r="AO27" s="146"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="73"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+      <c r="AG27" s="73"/>
+      <c r="AH27" s="51"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="53"/>
+      <c r="AK27" s="53"/>
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="43"/>
+      <c r="AN27" s="47"/>
+      <c r="AO27" s="51"/>
       <c r="AP27" s="39"/>
       <c r="AQ27" s="50"/>
       <c r="AR27" s="43"/>
@@ -4017,31 +4197,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P28" s="1"/>
-      <c r="Q28" s="160"/>
-      <c r="R28" s="160"/>
-      <c r="S28" s="160"/>
-      <c r="T28" s="160"/>
-      <c r="U28" s="160"/>
-      <c r="V28" s="160"/>
-      <c r="W28" s="160"/>
-      <c r="X28" s="160"/>
-      <c r="Y28" s="160"/>
-      <c r="Z28" s="160"/>
-      <c r="AA28" s="160"/>
-      <c r="AB28" s="160"/>
-      <c r="AC28" s="160"/>
-      <c r="AD28" s="160"/>
-      <c r="AE28" s="160"/>
-      <c r="AF28" s="160"/>
-      <c r="AG28" s="160"/>
-      <c r="AH28" s="150"/>
-      <c r="AI28" s="154"/>
-      <c r="AJ28" s="152"/>
-      <c r="AK28" s="152"/>
-      <c r="AL28" s="152"/>
-      <c r="AM28" s="138"/>
-      <c r="AN28" s="143"/>
-      <c r="AO28" s="150"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="73"/>
+      <c r="AC28" s="73"/>
+      <c r="AD28" s="73"/>
+      <c r="AE28" s="73"/>
+      <c r="AF28" s="73"/>
+      <c r="AG28" s="73"/>
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="58"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="42"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="55"/>
       <c r="AP28" s="39"/>
       <c r="AQ28" s="54"/>
       <c r="AR28" s="42"/>
@@ -4098,31 +4278,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P29" s="1"/>
-      <c r="Q29" s="160"/>
-      <c r="R29" s="160"/>
-      <c r="S29" s="160"/>
-      <c r="T29" s="160"/>
-      <c r="U29" s="160"/>
-      <c r="V29" s="160"/>
-      <c r="W29" s="160"/>
-      <c r="X29" s="160"/>
-      <c r="Y29" s="160"/>
-      <c r="Z29" s="160"/>
-      <c r="AA29" s="160"/>
-      <c r="AB29" s="160"/>
-      <c r="AC29" s="160"/>
-      <c r="AD29" s="160"/>
-      <c r="AE29" s="160"/>
-      <c r="AF29" s="160"/>
-      <c r="AG29" s="160"/>
-      <c r="AH29" s="146"/>
-      <c r="AI29" s="147"/>
-      <c r="AJ29" s="148"/>
-      <c r="AK29" s="148"/>
-      <c r="AL29" s="148"/>
-      <c r="AM29" s="139"/>
-      <c r="AN29" s="142"/>
-      <c r="AO29" s="146"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="73"/>
+      <c r="AC29" s="73"/>
+      <c r="AD29" s="73"/>
+      <c r="AE29" s="73"/>
+      <c r="AF29" s="73"/>
+      <c r="AG29" s="73"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="53"/>
+      <c r="AK29" s="53"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="47"/>
+      <c r="AO29" s="51"/>
       <c r="AP29" s="39"/>
       <c r="AQ29" s="50"/>
       <c r="AR29" s="43"/>
@@ -4179,31 +4359,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P30" s="1"/>
-      <c r="Q30" s="160"/>
-      <c r="R30" s="160"/>
-      <c r="S30" s="160"/>
-      <c r="T30" s="160"/>
-      <c r="U30" s="160"/>
-      <c r="V30" s="160"/>
-      <c r="W30" s="160"/>
-      <c r="X30" s="160"/>
-      <c r="Y30" s="160"/>
-      <c r="Z30" s="160"/>
-      <c r="AA30" s="160"/>
-      <c r="AB30" s="160"/>
-      <c r="AC30" s="160"/>
-      <c r="AD30" s="160"/>
-      <c r="AE30" s="160"/>
-      <c r="AF30" s="160"/>
-      <c r="AG30" s="160"/>
-      <c r="AH30" s="150"/>
-      <c r="AI30" s="154"/>
-      <c r="AJ30" s="152"/>
-      <c r="AK30" s="152"/>
-      <c r="AL30" s="152"/>
-      <c r="AM30" s="138"/>
-      <c r="AN30" s="143"/>
-      <c r="AO30" s="150"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="73"/>
+      <c r="AE30" s="73"/>
+      <c r="AF30" s="73"/>
+      <c r="AG30" s="73"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="58"/>
+      <c r="AJ30" s="57"/>
+      <c r="AK30" s="57"/>
+      <c r="AL30" s="57"/>
+      <c r="AM30" s="42"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="55"/>
       <c r="AP30" s="39"/>
       <c r="AQ30" s="54"/>
       <c r="AR30" s="42"/>
@@ -4260,31 +4440,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P31" s="1"/>
-      <c r="Q31" s="160"/>
-      <c r="R31" s="160"/>
-      <c r="S31" s="160"/>
-      <c r="T31" s="160"/>
-      <c r="U31" s="160"/>
-      <c r="V31" s="160"/>
-      <c r="W31" s="160"/>
-      <c r="X31" s="160"/>
-      <c r="Y31" s="160"/>
-      <c r="Z31" s="160"/>
-      <c r="AA31" s="160"/>
-      <c r="AB31" s="160"/>
-      <c r="AC31" s="160"/>
-      <c r="AD31" s="160"/>
-      <c r="AE31" s="160"/>
-      <c r="AF31" s="160"/>
-      <c r="AG31" s="160"/>
-      <c r="AH31" s="146"/>
-      <c r="AI31" s="147"/>
-      <c r="AJ31" s="148"/>
-      <c r="AK31" s="148"/>
-      <c r="AL31" s="148"/>
-      <c r="AM31" s="139"/>
-      <c r="AN31" s="142"/>
-      <c r="AO31" s="146"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="73"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="73"/>
+      <c r="AD31" s="73"/>
+      <c r="AE31" s="73"/>
+      <c r="AF31" s="73"/>
+      <c r="AG31" s="73"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="43"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="51"/>
       <c r="AP31" s="39"/>
       <c r="AQ31" s="50"/>
       <c r="AR31" s="43"/>
@@ -4341,31 +4521,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P32" s="1"/>
-      <c r="Q32" s="160"/>
-      <c r="R32" s="160"/>
-      <c r="S32" s="160"/>
-      <c r="T32" s="160"/>
-      <c r="U32" s="160"/>
-      <c r="V32" s="160"/>
-      <c r="W32" s="160"/>
-      <c r="X32" s="160"/>
-      <c r="Y32" s="160"/>
-      <c r="Z32" s="160"/>
-      <c r="AA32" s="160"/>
-      <c r="AB32" s="160"/>
-      <c r="AC32" s="160"/>
-      <c r="AD32" s="160"/>
-      <c r="AE32" s="160"/>
-      <c r="AF32" s="160"/>
-      <c r="AG32" s="160"/>
-      <c r="AH32" s="150"/>
-      <c r="AI32" s="154"/>
-      <c r="AJ32" s="152"/>
-      <c r="AK32" s="152"/>
-      <c r="AL32" s="152"/>
-      <c r="AM32" s="138"/>
-      <c r="AN32" s="143"/>
-      <c r="AO32" s="150"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="73"/>
+      <c r="AD32" s="73"/>
+      <c r="AE32" s="73"/>
+      <c r="AF32" s="73"/>
+      <c r="AG32" s="73"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="58"/>
+      <c r="AJ32" s="57"/>
+      <c r="AK32" s="57"/>
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="42"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="55"/>
       <c r="AP32" s="39"/>
       <c r="AQ32" s="54"/>
       <c r="AR32" s="42"/>
@@ -4422,31 +4602,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P33" s="1"/>
-      <c r="Q33" s="160"/>
-      <c r="R33" s="160"/>
-      <c r="S33" s="160"/>
-      <c r="T33" s="160"/>
-      <c r="U33" s="160"/>
-      <c r="V33" s="160"/>
-      <c r="W33" s="160"/>
-      <c r="X33" s="160"/>
-      <c r="Y33" s="160"/>
-      <c r="Z33" s="160"/>
-      <c r="AA33" s="160"/>
-      <c r="AB33" s="160"/>
-      <c r="AC33" s="160"/>
-      <c r="AD33" s="160"/>
-      <c r="AE33" s="160"/>
-      <c r="AF33" s="160"/>
-      <c r="AG33" s="160"/>
-      <c r="AH33" s="146"/>
-      <c r="AI33" s="147"/>
-      <c r="AJ33" s="148"/>
-      <c r="AK33" s="148"/>
-      <c r="AL33" s="148"/>
-      <c r="AM33" s="139"/>
-      <c r="AN33" s="142"/>
-      <c r="AO33" s="146"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="73"/>
+      <c r="AC33" s="73"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="73"/>
+      <c r="AF33" s="73"/>
+      <c r="AG33" s="73"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="53"/>
+      <c r="AK33" s="53"/>
+      <c r="AL33" s="53"/>
+      <c r="AM33" s="43"/>
+      <c r="AN33" s="47"/>
+      <c r="AO33" s="51"/>
       <c r="AP33" s="39"/>
       <c r="AQ33" s="50"/>
       <c r="AR33" s="43"/>
@@ -4503,31 +4683,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P34" s="1"/>
-      <c r="Q34" s="160"/>
-      <c r="R34" s="160"/>
-      <c r="S34" s="160"/>
-      <c r="T34" s="160"/>
-      <c r="U34" s="160"/>
-      <c r="V34" s="160"/>
-      <c r="W34" s="160"/>
-      <c r="X34" s="160"/>
-      <c r="Y34" s="160"/>
-      <c r="Z34" s="160"/>
-      <c r="AA34" s="160"/>
-      <c r="AB34" s="160"/>
-      <c r="AC34" s="160"/>
-      <c r="AD34" s="160"/>
-      <c r="AE34" s="160"/>
-      <c r="AF34" s="160"/>
-      <c r="AG34" s="160"/>
-      <c r="AH34" s="150"/>
-      <c r="AI34" s="154"/>
-      <c r="AJ34" s="152"/>
-      <c r="AK34" s="152"/>
-      <c r="AL34" s="152"/>
-      <c r="AM34" s="138"/>
-      <c r="AN34" s="143"/>
-      <c r="AO34" s="150"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="73"/>
+      <c r="AF34" s="73"/>
+      <c r="AG34" s="73"/>
+      <c r="AH34" s="55"/>
+      <c r="AI34" s="58"/>
+      <c r="AJ34" s="57"/>
+      <c r="AK34" s="57"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="42"/>
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="55"/>
       <c r="AP34" s="39"/>
       <c r="AQ34" s="54"/>
       <c r="AR34" s="42"/>
@@ -4584,31 +4764,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P35" s="1"/>
-      <c r="Q35" s="160"/>
-      <c r="R35" s="160"/>
-      <c r="S35" s="160"/>
-      <c r="T35" s="160"/>
-      <c r="U35" s="160"/>
-      <c r="V35" s="160"/>
-      <c r="W35" s="160"/>
-      <c r="X35" s="160"/>
-      <c r="Y35" s="160"/>
-      <c r="Z35" s="160"/>
-      <c r="AA35" s="160"/>
-      <c r="AB35" s="160"/>
-      <c r="AC35" s="160"/>
-      <c r="AD35" s="160"/>
-      <c r="AE35" s="160"/>
-      <c r="AF35" s="160"/>
-      <c r="AG35" s="160"/>
-      <c r="AH35" s="146"/>
-      <c r="AI35" s="147"/>
-      <c r="AJ35" s="148"/>
-      <c r="AK35" s="148"/>
-      <c r="AL35" s="148"/>
-      <c r="AM35" s="139"/>
-      <c r="AN35" s="142"/>
-      <c r="AO35" s="146"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="73"/>
+      <c r="AB35" s="73"/>
+      <c r="AC35" s="73"/>
+      <c r="AD35" s="73"/>
+      <c r="AE35" s="73"/>
+      <c r="AF35" s="73"/>
+      <c r="AG35" s="73"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="53"/>
+      <c r="AK35" s="53"/>
+      <c r="AL35" s="53"/>
+      <c r="AM35" s="43"/>
+      <c r="AN35" s="47"/>
+      <c r="AO35" s="51"/>
       <c r="AP35" s="39"/>
       <c r="AQ35" s="50"/>
       <c r="AR35" s="43"/>
@@ -4665,31 +4845,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P36" s="1"/>
-      <c r="Q36" s="160"/>
-      <c r="R36" s="160"/>
-      <c r="S36" s="160"/>
-      <c r="T36" s="160"/>
-      <c r="U36" s="160"/>
-      <c r="V36" s="160"/>
-      <c r="W36" s="160"/>
-      <c r="X36" s="160"/>
-      <c r="Y36" s="160"/>
-      <c r="Z36" s="160"/>
-      <c r="AA36" s="160"/>
-      <c r="AB36" s="160"/>
-      <c r="AC36" s="160"/>
-      <c r="AD36" s="160"/>
-      <c r="AE36" s="160"/>
-      <c r="AF36" s="160"/>
-      <c r="AG36" s="160"/>
-      <c r="AH36" s="150"/>
-      <c r="AI36" s="154"/>
-      <c r="AJ36" s="152"/>
-      <c r="AK36" s="152"/>
-      <c r="AL36" s="152"/>
-      <c r="AM36" s="138"/>
-      <c r="AN36" s="143"/>
-      <c r="AO36" s="150"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="73"/>
+      <c r="W36" s="73"/>
+      <c r="X36" s="73"/>
+      <c r="Y36" s="73"/>
+      <c r="Z36" s="73"/>
+      <c r="AA36" s="73"/>
+      <c r="AB36" s="73"/>
+      <c r="AC36" s="73"/>
+      <c r="AD36" s="73"/>
+      <c r="AE36" s="73"/>
+      <c r="AF36" s="73"/>
+      <c r="AG36" s="73"/>
+      <c r="AH36" s="55"/>
+      <c r="AI36" s="58"/>
+      <c r="AJ36" s="57"/>
+      <c r="AK36" s="57"/>
+      <c r="AL36" s="57"/>
+      <c r="AM36" s="42"/>
+      <c r="AN36" s="44"/>
+      <c r="AO36" s="55"/>
       <c r="AP36" s="39"/>
       <c r="AQ36" s="54"/>
       <c r="AR36" s="42"/>
@@ -4746,31 +4926,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P37" s="1"/>
-      <c r="Q37" s="160"/>
-      <c r="R37" s="160"/>
-      <c r="S37" s="160"/>
-      <c r="T37" s="160"/>
-      <c r="U37" s="160"/>
-      <c r="V37" s="160"/>
-      <c r="W37" s="160"/>
-      <c r="X37" s="160"/>
-      <c r="Y37" s="160"/>
-      <c r="Z37" s="160"/>
-      <c r="AA37" s="160"/>
-      <c r="AB37" s="160"/>
-      <c r="AC37" s="160"/>
-      <c r="AD37" s="160"/>
-      <c r="AE37" s="160"/>
-      <c r="AF37" s="160"/>
-      <c r="AG37" s="160"/>
-      <c r="AH37" s="146"/>
-      <c r="AI37" s="147"/>
-      <c r="AJ37" s="148"/>
-      <c r="AK37" s="148"/>
-      <c r="AL37" s="148"/>
-      <c r="AM37" s="139"/>
-      <c r="AN37" s="142"/>
-      <c r="AO37" s="146"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="73"/>
+      <c r="AC37" s="73"/>
+      <c r="AD37" s="73"/>
+      <c r="AE37" s="73"/>
+      <c r="AF37" s="73"/>
+      <c r="AG37" s="73"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="52"/>
+      <c r="AJ37" s="53"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="53"/>
+      <c r="AM37" s="43"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="51"/>
       <c r="AP37" s="39"/>
       <c r="AQ37" s="50"/>
       <c r="AR37" s="43"/>
@@ -4827,31 +5007,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P38" s="1"/>
-      <c r="Q38" s="160"/>
-      <c r="R38" s="160"/>
-      <c r="S38" s="160"/>
-      <c r="T38" s="160"/>
-      <c r="U38" s="160"/>
-      <c r="V38" s="160"/>
-      <c r="W38" s="160"/>
-      <c r="X38" s="160"/>
-      <c r="Y38" s="160"/>
-      <c r="Z38" s="160"/>
-      <c r="AA38" s="160"/>
-      <c r="AB38" s="160"/>
-      <c r="AC38" s="160"/>
-      <c r="AD38" s="160"/>
-      <c r="AE38" s="160"/>
-      <c r="AF38" s="160"/>
-      <c r="AG38" s="160"/>
-      <c r="AH38" s="150"/>
-      <c r="AI38" s="154"/>
-      <c r="AJ38" s="152"/>
-      <c r="AK38" s="152"/>
-      <c r="AL38" s="152"/>
-      <c r="AM38" s="138"/>
-      <c r="AN38" s="143"/>
-      <c r="AO38" s="150"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="73"/>
+      <c r="Y38" s="73"/>
+      <c r="Z38" s="73"/>
+      <c r="AA38" s="73"/>
+      <c r="AB38" s="73"/>
+      <c r="AC38" s="73"/>
+      <c r="AD38" s="73"/>
+      <c r="AE38" s="73"/>
+      <c r="AF38" s="73"/>
+      <c r="AG38" s="73"/>
+      <c r="AH38" s="55"/>
+      <c r="AI38" s="58"/>
+      <c r="AJ38" s="57"/>
+      <c r="AK38" s="57"/>
+      <c r="AL38" s="57"/>
+      <c r="AM38" s="42"/>
+      <c r="AN38" s="44"/>
+      <c r="AO38" s="55"/>
       <c r="AP38" s="39"/>
       <c r="AQ38" s="54"/>
       <c r="AR38" s="42"/>
@@ -4908,31 +5088,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P39" s="1"/>
-      <c r="Q39" s="160"/>
-      <c r="R39" s="160"/>
-      <c r="S39" s="160"/>
-      <c r="T39" s="160"/>
-      <c r="U39" s="160"/>
-      <c r="V39" s="160"/>
-      <c r="W39" s="160"/>
-      <c r="X39" s="160"/>
-      <c r="Y39" s="160"/>
-      <c r="Z39" s="160"/>
-      <c r="AA39" s="160"/>
-      <c r="AB39" s="160"/>
-      <c r="AC39" s="160"/>
-      <c r="AD39" s="160"/>
-      <c r="AE39" s="160"/>
-      <c r="AF39" s="160"/>
-      <c r="AG39" s="160"/>
-      <c r="AH39" s="146"/>
-      <c r="AI39" s="147"/>
-      <c r="AJ39" s="148"/>
-      <c r="AK39" s="148"/>
-      <c r="AL39" s="148"/>
-      <c r="AM39" s="139"/>
-      <c r="AN39" s="142"/>
-      <c r="AO39" s="146"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="73"/>
+      <c r="Y39" s="73"/>
+      <c r="Z39" s="73"/>
+      <c r="AA39" s="73"/>
+      <c r="AB39" s="73"/>
+      <c r="AC39" s="73"/>
+      <c r="AD39" s="73"/>
+      <c r="AE39" s="73"/>
+      <c r="AF39" s="73"/>
+      <c r="AG39" s="73"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="52"/>
+      <c r="AJ39" s="53"/>
+      <c r="AK39" s="53"/>
+      <c r="AL39" s="53"/>
+      <c r="AM39" s="43"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="51"/>
       <c r="AP39" s="39"/>
       <c r="AQ39" s="50"/>
       <c r="AR39" s="43"/>
@@ -4989,31 +5169,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P40" s="1"/>
-      <c r="Q40" s="160"/>
-      <c r="R40" s="160"/>
-      <c r="S40" s="160"/>
-      <c r="T40" s="160"/>
-      <c r="U40" s="160"/>
-      <c r="V40" s="160"/>
-      <c r="W40" s="160"/>
-      <c r="X40" s="160"/>
-      <c r="Y40" s="160"/>
-      <c r="Z40" s="160"/>
-      <c r="AA40" s="160"/>
-      <c r="AB40" s="160"/>
-      <c r="AC40" s="160"/>
-      <c r="AD40" s="160"/>
-      <c r="AE40" s="160"/>
-      <c r="AF40" s="160"/>
-      <c r="AG40" s="160"/>
-      <c r="AH40" s="150"/>
-      <c r="AI40" s="154"/>
-      <c r="AJ40" s="152"/>
-      <c r="AK40" s="152"/>
-      <c r="AL40" s="152"/>
-      <c r="AM40" s="138"/>
-      <c r="AN40" s="143"/>
-      <c r="AO40" s="150"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="73"/>
+      <c r="Z40" s="73"/>
+      <c r="AA40" s="73"/>
+      <c r="AB40" s="73"/>
+      <c r="AC40" s="73"/>
+      <c r="AD40" s="73"/>
+      <c r="AE40" s="73"/>
+      <c r="AF40" s="73"/>
+      <c r="AG40" s="73"/>
+      <c r="AH40" s="55"/>
+      <c r="AI40" s="58"/>
+      <c r="AJ40" s="57"/>
+      <c r="AK40" s="57"/>
+      <c r="AL40" s="57"/>
+      <c r="AM40" s="42"/>
+      <c r="AN40" s="44"/>
+      <c r="AO40" s="55"/>
       <c r="AP40" s="39"/>
       <c r="AQ40" s="54"/>
       <c r="AR40" s="42"/>
@@ -5070,31 +5250,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P41" s="1"/>
-      <c r="Q41" s="160"/>
-      <c r="R41" s="160"/>
-      <c r="S41" s="160"/>
-      <c r="T41" s="160"/>
-      <c r="U41" s="160"/>
-      <c r="V41" s="160"/>
-      <c r="W41" s="160"/>
-      <c r="X41" s="160"/>
-      <c r="Y41" s="160"/>
-      <c r="Z41" s="160"/>
-      <c r="AA41" s="160"/>
-      <c r="AB41" s="160"/>
-      <c r="AC41" s="160"/>
-      <c r="AD41" s="160"/>
-      <c r="AE41" s="160"/>
-      <c r="AF41" s="160"/>
-      <c r="AG41" s="160"/>
-      <c r="AH41" s="146"/>
-      <c r="AI41" s="147"/>
-      <c r="AJ41" s="148"/>
-      <c r="AK41" s="148"/>
-      <c r="AL41" s="148"/>
-      <c r="AM41" s="139"/>
-      <c r="AN41" s="142"/>
-      <c r="AO41" s="146"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="73"/>
+      <c r="AA41" s="73"/>
+      <c r="AB41" s="73"/>
+      <c r="AC41" s="73"/>
+      <c r="AD41" s="73"/>
+      <c r="AE41" s="73"/>
+      <c r="AF41" s="73"/>
+      <c r="AG41" s="73"/>
+      <c r="AH41" s="51"/>
+      <c r="AI41" s="52"/>
+      <c r="AJ41" s="53"/>
+      <c r="AK41" s="53"/>
+      <c r="AL41" s="53"/>
+      <c r="AM41" s="43"/>
+      <c r="AN41" s="47"/>
+      <c r="AO41" s="51"/>
       <c r="AP41" s="39"/>
       <c r="AQ41" s="50"/>
       <c r="AR41" s="43"/>
@@ -5151,31 +5331,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P42" s="1"/>
-      <c r="Q42" s="160"/>
-      <c r="R42" s="160"/>
-      <c r="S42" s="160"/>
-      <c r="T42" s="160"/>
-      <c r="U42" s="160"/>
-      <c r="V42" s="160"/>
-      <c r="W42" s="160"/>
-      <c r="X42" s="160"/>
-      <c r="Y42" s="160"/>
-      <c r="Z42" s="160"/>
-      <c r="AA42" s="160"/>
-      <c r="AB42" s="160"/>
-      <c r="AC42" s="160"/>
-      <c r="AD42" s="160"/>
-      <c r="AE42" s="160"/>
-      <c r="AF42" s="160"/>
-      <c r="AG42" s="160"/>
-      <c r="AH42" s="150"/>
-      <c r="AI42" s="154"/>
-      <c r="AJ42" s="152"/>
-      <c r="AK42" s="152"/>
-      <c r="AL42" s="152"/>
-      <c r="AM42" s="138"/>
-      <c r="AN42" s="143"/>
-      <c r="AO42" s="150"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="73"/>
+      <c r="W42" s="73"/>
+      <c r="X42" s="73"/>
+      <c r="Y42" s="73"/>
+      <c r="Z42" s="73"/>
+      <c r="AA42" s="73"/>
+      <c r="AB42" s="73"/>
+      <c r="AC42" s="73"/>
+      <c r="AD42" s="73"/>
+      <c r="AE42" s="73"/>
+      <c r="AF42" s="73"/>
+      <c r="AG42" s="73"/>
+      <c r="AH42" s="55"/>
+      <c r="AI42" s="58"/>
+      <c r="AJ42" s="57"/>
+      <c r="AK42" s="57"/>
+      <c r="AL42" s="57"/>
+      <c r="AM42" s="42"/>
+      <c r="AN42" s="44"/>
+      <c r="AO42" s="55"/>
       <c r="AP42" s="39"/>
       <c r="AQ42" s="54"/>
       <c r="AR42" s="42"/>
@@ -5232,31 +5412,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P43" s="1"/>
-      <c r="Q43" s="160"/>
-      <c r="R43" s="160"/>
-      <c r="S43" s="160"/>
-      <c r="T43" s="160"/>
-      <c r="U43" s="160"/>
-      <c r="V43" s="160"/>
-      <c r="W43" s="160"/>
-      <c r="X43" s="160"/>
-      <c r="Y43" s="160"/>
-      <c r="Z43" s="160"/>
-      <c r="AA43" s="160"/>
-      <c r="AB43" s="160"/>
-      <c r="AC43" s="160"/>
-      <c r="AD43" s="160"/>
-      <c r="AE43" s="160"/>
-      <c r="AF43" s="160"/>
-      <c r="AG43" s="160"/>
-      <c r="AH43" s="146"/>
-      <c r="AI43" s="147"/>
-      <c r="AJ43" s="148"/>
-      <c r="AK43" s="148"/>
-      <c r="AL43" s="148"/>
-      <c r="AM43" s="139"/>
-      <c r="AN43" s="142"/>
-      <c r="AO43" s="146"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="73"/>
+      <c r="W43" s="73"/>
+      <c r="X43" s="73"/>
+      <c r="Y43" s="73"/>
+      <c r="Z43" s="73"/>
+      <c r="AA43" s="73"/>
+      <c r="AB43" s="73"/>
+      <c r="AC43" s="73"/>
+      <c r="AD43" s="73"/>
+      <c r="AE43" s="73"/>
+      <c r="AF43" s="73"/>
+      <c r="AG43" s="73"/>
+      <c r="AH43" s="51"/>
+      <c r="AI43" s="52"/>
+      <c r="AJ43" s="53"/>
+      <c r="AK43" s="53"/>
+      <c r="AL43" s="53"/>
+      <c r="AM43" s="43"/>
+      <c r="AN43" s="47"/>
+      <c r="AO43" s="51"/>
       <c r="AP43" s="39"/>
       <c r="AQ43" s="50"/>
       <c r="AR43" s="43"/>
@@ -5313,31 +5493,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P44" s="1"/>
-      <c r="Q44" s="160"/>
-      <c r="R44" s="160"/>
-      <c r="S44" s="160"/>
-      <c r="T44" s="160"/>
-      <c r="U44" s="160"/>
-      <c r="V44" s="160"/>
-      <c r="W44" s="160"/>
-      <c r="X44" s="160"/>
-      <c r="Y44" s="160"/>
-      <c r="Z44" s="160"/>
-      <c r="AA44" s="160"/>
-      <c r="AB44" s="160"/>
-      <c r="AC44" s="160"/>
-      <c r="AD44" s="160"/>
-      <c r="AE44" s="160"/>
-      <c r="AF44" s="160"/>
-      <c r="AG44" s="160"/>
-      <c r="AH44" s="150"/>
-      <c r="AI44" s="154"/>
-      <c r="AJ44" s="152"/>
-      <c r="AK44" s="152"/>
-      <c r="AL44" s="152"/>
-      <c r="AM44" s="138"/>
-      <c r="AN44" s="143"/>
-      <c r="AO44" s="150"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="73"/>
+      <c r="W44" s="73"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="73"/>
+      <c r="AA44" s="73"/>
+      <c r="AB44" s="73"/>
+      <c r="AC44" s="73"/>
+      <c r="AD44" s="73"/>
+      <c r="AE44" s="73"/>
+      <c r="AF44" s="73"/>
+      <c r="AG44" s="73"/>
+      <c r="AH44" s="55"/>
+      <c r="AI44" s="58"/>
+      <c r="AJ44" s="57"/>
+      <c r="AK44" s="57"/>
+      <c r="AL44" s="57"/>
+      <c r="AM44" s="42"/>
+      <c r="AN44" s="44"/>
+      <c r="AO44" s="55"/>
       <c r="AP44" s="39"/>
       <c r="AQ44" s="54"/>
       <c r="AR44" s="42"/>
@@ -5394,31 +5574,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P45" s="1"/>
-      <c r="Q45" s="160"/>
-      <c r="R45" s="160"/>
-      <c r="S45" s="160"/>
-      <c r="T45" s="160"/>
-      <c r="U45" s="160"/>
-      <c r="V45" s="160"/>
-      <c r="W45" s="160"/>
-      <c r="X45" s="160"/>
-      <c r="Y45" s="160"/>
-      <c r="Z45" s="160"/>
-      <c r="AA45" s="160"/>
-      <c r="AB45" s="160"/>
-      <c r="AC45" s="160"/>
-      <c r="AD45" s="160"/>
-      <c r="AE45" s="160"/>
-      <c r="AF45" s="160"/>
-      <c r="AG45" s="160"/>
-      <c r="AH45" s="146"/>
-      <c r="AI45" s="147"/>
-      <c r="AJ45" s="148"/>
-      <c r="AK45" s="148"/>
-      <c r="AL45" s="148"/>
-      <c r="AM45" s="139"/>
-      <c r="AN45" s="142"/>
-      <c r="AO45" s="146"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
+      <c r="Z45" s="73"/>
+      <c r="AA45" s="73"/>
+      <c r="AB45" s="73"/>
+      <c r="AC45" s="73"/>
+      <c r="AD45" s="73"/>
+      <c r="AE45" s="73"/>
+      <c r="AF45" s="73"/>
+      <c r="AG45" s="73"/>
+      <c r="AH45" s="51"/>
+      <c r="AI45" s="52"/>
+      <c r="AJ45" s="53"/>
+      <c r="AK45" s="53"/>
+      <c r="AL45" s="53"/>
+      <c r="AM45" s="43"/>
+      <c r="AN45" s="47"/>
+      <c r="AO45" s="51"/>
       <c r="AP45" s="39"/>
       <c r="AQ45" s="50"/>
       <c r="AR45" s="43"/>
@@ -5475,31 +5655,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P46" s="1"/>
-      <c r="Q46" s="160"/>
-      <c r="R46" s="160"/>
-      <c r="S46" s="160"/>
-      <c r="T46" s="160"/>
-      <c r="U46" s="160"/>
-      <c r="V46" s="160"/>
-      <c r="W46" s="160"/>
-      <c r="X46" s="160"/>
-      <c r="Y46" s="160"/>
-      <c r="Z46" s="160"/>
-      <c r="AA46" s="160"/>
-      <c r="AB46" s="160"/>
-      <c r="AC46" s="160"/>
-      <c r="AD46" s="160"/>
-      <c r="AE46" s="160"/>
-      <c r="AF46" s="160"/>
-      <c r="AG46" s="160"/>
-      <c r="AH46" s="150"/>
-      <c r="AI46" s="154"/>
-      <c r="AJ46" s="152"/>
-      <c r="AK46" s="152"/>
-      <c r="AL46" s="152"/>
-      <c r="AM46" s="138"/>
-      <c r="AN46" s="143"/>
-      <c r="AO46" s="150"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="73"/>
+      <c r="X46" s="73"/>
+      <c r="Y46" s="73"/>
+      <c r="Z46" s="73"/>
+      <c r="AA46" s="73"/>
+      <c r="AB46" s="73"/>
+      <c r="AC46" s="73"/>
+      <c r="AD46" s="73"/>
+      <c r="AE46" s="73"/>
+      <c r="AF46" s="73"/>
+      <c r="AG46" s="73"/>
+      <c r="AH46" s="55"/>
+      <c r="AI46" s="58"/>
+      <c r="AJ46" s="57"/>
+      <c r="AK46" s="57"/>
+      <c r="AL46" s="57"/>
+      <c r="AM46" s="42"/>
+      <c r="AN46" s="44"/>
+      <c r="AO46" s="55"/>
       <c r="AP46" s="39"/>
       <c r="AQ46" s="54"/>
       <c r="AR46" s="42"/>
@@ -5556,31 +5736,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P47" s="1"/>
-      <c r="Q47" s="160"/>
-      <c r="R47" s="160"/>
-      <c r="S47" s="160"/>
-      <c r="T47" s="160"/>
-      <c r="U47" s="160"/>
-      <c r="V47" s="160"/>
-      <c r="W47" s="160"/>
-      <c r="X47" s="160"/>
-      <c r="Y47" s="160"/>
-      <c r="Z47" s="160"/>
-      <c r="AA47" s="160"/>
-      <c r="AB47" s="160"/>
-      <c r="AC47" s="160"/>
-      <c r="AD47" s="160"/>
-      <c r="AE47" s="160"/>
-      <c r="AF47" s="160"/>
-      <c r="AG47" s="160"/>
-      <c r="AH47" s="146"/>
-      <c r="AI47" s="147"/>
-      <c r="AJ47" s="148"/>
-      <c r="AK47" s="148"/>
-      <c r="AL47" s="148"/>
-      <c r="AM47" s="139"/>
-      <c r="AN47" s="142"/>
-      <c r="AO47" s="146"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73"/>
+      <c r="X47" s="73"/>
+      <c r="Y47" s="73"/>
+      <c r="Z47" s="73"/>
+      <c r="AA47" s="73"/>
+      <c r="AB47" s="73"/>
+      <c r="AC47" s="73"/>
+      <c r="AD47" s="73"/>
+      <c r="AE47" s="73"/>
+      <c r="AF47" s="73"/>
+      <c r="AG47" s="73"/>
+      <c r="AH47" s="51"/>
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="53"/>
+      <c r="AK47" s="53"/>
+      <c r="AL47" s="53"/>
+      <c r="AM47" s="43"/>
+      <c r="AN47" s="47"/>
+      <c r="AO47" s="51"/>
       <c r="AP47" s="39"/>
       <c r="AQ47" s="50"/>
       <c r="AR47" s="43"/>
@@ -5637,31 +5817,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P48" s="1"/>
-      <c r="Q48" s="160"/>
-      <c r="R48" s="160"/>
-      <c r="S48" s="160"/>
-      <c r="T48" s="160"/>
-      <c r="U48" s="160"/>
-      <c r="V48" s="160"/>
-      <c r="W48" s="160"/>
-      <c r="X48" s="160"/>
-      <c r="Y48" s="160"/>
-      <c r="Z48" s="160"/>
-      <c r="AA48" s="160"/>
-      <c r="AB48" s="160"/>
-      <c r="AC48" s="160"/>
-      <c r="AD48" s="160"/>
-      <c r="AE48" s="160"/>
-      <c r="AF48" s="160"/>
-      <c r="AG48" s="160"/>
-      <c r="AH48" s="150"/>
-      <c r="AI48" s="154"/>
-      <c r="AJ48" s="152"/>
-      <c r="AK48" s="152"/>
-      <c r="AL48" s="152"/>
-      <c r="AM48" s="138"/>
-      <c r="AN48" s="143"/>
-      <c r="AO48" s="150"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
+      <c r="U48" s="73"/>
+      <c r="V48" s="73"/>
+      <c r="W48" s="73"/>
+      <c r="X48" s="73"/>
+      <c r="Y48" s="73"/>
+      <c r="Z48" s="73"/>
+      <c r="AA48" s="73"/>
+      <c r="AB48" s="73"/>
+      <c r="AC48" s="73"/>
+      <c r="AD48" s="73"/>
+      <c r="AE48" s="73"/>
+      <c r="AF48" s="73"/>
+      <c r="AG48" s="73"/>
+      <c r="AH48" s="55"/>
+      <c r="AI48" s="58"/>
+      <c r="AJ48" s="57"/>
+      <c r="AK48" s="57"/>
+      <c r="AL48" s="57"/>
+      <c r="AM48" s="42"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="55"/>
       <c r="AP48" s="39"/>
       <c r="AQ48" s="54"/>
       <c r="AR48" s="42"/>
@@ -5718,31 +5898,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P49" s="1"/>
-      <c r="Q49" s="149"/>
-      <c r="R49" s="139"/>
-      <c r="S49" s="139"/>
-      <c r="T49" s="139"/>
-      <c r="U49" s="146"/>
-      <c r="V49" s="147"/>
-      <c r="W49" s="148"/>
-      <c r="X49" s="148"/>
-      <c r="Y49" s="148"/>
-      <c r="Z49" s="139"/>
-      <c r="AA49" s="142"/>
-      <c r="AB49" s="146"/>
-      <c r="AC49" s="137"/>
-      <c r="AD49" s="149"/>
-      <c r="AE49" s="139"/>
-      <c r="AF49" s="139"/>
-      <c r="AG49" s="139"/>
-      <c r="AH49" s="146"/>
-      <c r="AI49" s="147"/>
-      <c r="AJ49" s="148"/>
-      <c r="AK49" s="148"/>
-      <c r="AL49" s="148"/>
-      <c r="AM49" s="139"/>
-      <c r="AN49" s="142"/>
-      <c r="AO49" s="146"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="53"/>
+      <c r="Z49" s="43"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="51"/>
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="50"/>
+      <c r="AE49" s="43"/>
+      <c r="AF49" s="43"/>
+      <c r="AG49" s="43"/>
+      <c r="AH49" s="51"/>
+      <c r="AI49" s="52"/>
+      <c r="AJ49" s="53"/>
+      <c r="AK49" s="53"/>
+      <c r="AL49" s="53"/>
+      <c r="AM49" s="43"/>
+      <c r="AN49" s="47"/>
+      <c r="AO49" s="51"/>
       <c r="AP49" s="39"/>
       <c r="AQ49" s="50"/>
       <c r="AR49" s="43"/>
@@ -5799,31 +5979,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P50" s="1"/>
-      <c r="Q50" s="153"/>
-      <c r="R50" s="138"/>
-      <c r="S50" s="138"/>
-      <c r="T50" s="138"/>
-      <c r="U50" s="150"/>
-      <c r="V50" s="154"/>
-      <c r="W50" s="152"/>
-      <c r="X50" s="152"/>
-      <c r="Y50" s="152"/>
-      <c r="Z50" s="138"/>
-      <c r="AA50" s="143"/>
-      <c r="AB50" s="150"/>
-      <c r="AC50" s="137"/>
-      <c r="AD50" s="153"/>
-      <c r="AE50" s="138"/>
-      <c r="AF50" s="138"/>
-      <c r="AG50" s="138"/>
-      <c r="AH50" s="150"/>
-      <c r="AI50" s="154"/>
-      <c r="AJ50" s="152"/>
-      <c r="AK50" s="152"/>
-      <c r="AL50" s="152"/>
-      <c r="AM50" s="138"/>
-      <c r="AN50" s="143"/>
-      <c r="AO50" s="150"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="58"/>
+      <c r="W50" s="57"/>
+      <c r="X50" s="57"/>
+      <c r="Y50" s="57"/>
+      <c r="Z50" s="42"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="55"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="54"/>
+      <c r="AE50" s="42"/>
+      <c r="AF50" s="42"/>
+      <c r="AG50" s="42"/>
+      <c r="AH50" s="55"/>
+      <c r="AI50" s="58"/>
+      <c r="AJ50" s="57"/>
+      <c r="AK50" s="57"/>
+      <c r="AL50" s="57"/>
+      <c r="AM50" s="42"/>
+      <c r="AN50" s="44"/>
+      <c r="AO50" s="55"/>
       <c r="AP50" s="39"/>
       <c r="AQ50" s="54"/>
       <c r="AR50" s="42"/>
@@ -5880,31 +6060,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P51" s="1"/>
-      <c r="Q51" s="139"/>
-      <c r="R51" s="139"/>
-      <c r="S51" s="139"/>
-      <c r="T51" s="139"/>
-      <c r="U51" s="146"/>
-      <c r="V51" s="147"/>
-      <c r="W51" s="148"/>
-      <c r="X51" s="148"/>
-      <c r="Y51" s="148"/>
-      <c r="Z51" s="139"/>
-      <c r="AA51" s="142"/>
-      <c r="AB51" s="146"/>
-      <c r="AC51" s="137"/>
-      <c r="AD51" s="139"/>
-      <c r="AE51" s="139"/>
-      <c r="AF51" s="139"/>
-      <c r="AG51" s="139"/>
-      <c r="AH51" s="146"/>
-      <c r="AI51" s="147"/>
-      <c r="AJ51" s="148"/>
-      <c r="AK51" s="148"/>
-      <c r="AL51" s="148"/>
-      <c r="AM51" s="139"/>
-      <c r="AN51" s="142"/>
-      <c r="AO51" s="146"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="53"/>
+      <c r="X51" s="53"/>
+      <c r="Y51" s="53"/>
+      <c r="Z51" s="43"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="51"/>
+      <c r="AC51" s="39"/>
+      <c r="AD51" s="43"/>
+      <c r="AE51" s="43"/>
+      <c r="AF51" s="43"/>
+      <c r="AG51" s="43"/>
+      <c r="AH51" s="51"/>
+      <c r="AI51" s="52"/>
+      <c r="AJ51" s="53"/>
+      <c r="AK51" s="53"/>
+      <c r="AL51" s="53"/>
+      <c r="AM51" s="43"/>
+      <c r="AN51" s="47"/>
+      <c r="AO51" s="51"/>
       <c r="AP51" s="39"/>
       <c r="AQ51" s="43"/>
       <c r="AR51" s="43"/>
@@ -5961,31 +6141,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P52" s="1"/>
-      <c r="Q52" s="138"/>
-      <c r="R52" s="138"/>
-      <c r="S52" s="138"/>
-      <c r="T52" s="138"/>
-      <c r="U52" s="150"/>
-      <c r="V52" s="154"/>
-      <c r="W52" s="152"/>
-      <c r="X52" s="152"/>
-      <c r="Y52" s="152"/>
-      <c r="Z52" s="138"/>
-      <c r="AA52" s="143"/>
-      <c r="AB52" s="150"/>
-      <c r="AC52" s="137"/>
-      <c r="AD52" s="138"/>
-      <c r="AE52" s="138"/>
-      <c r="AF52" s="138"/>
-      <c r="AG52" s="138"/>
-      <c r="AH52" s="150"/>
-      <c r="AI52" s="154"/>
-      <c r="AJ52" s="152"/>
-      <c r="AK52" s="152"/>
-      <c r="AL52" s="152"/>
-      <c r="AM52" s="138"/>
-      <c r="AN52" s="143"/>
-      <c r="AO52" s="150"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="58"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="57"/>
+      <c r="Y52" s="57"/>
+      <c r="Z52" s="42"/>
+      <c r="AA52" s="44"/>
+      <c r="AB52" s="55"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="42"/>
+      <c r="AE52" s="42"/>
+      <c r="AF52" s="42"/>
+      <c r="AG52" s="42"/>
+      <c r="AH52" s="55"/>
+      <c r="AI52" s="58"/>
+      <c r="AJ52" s="57"/>
+      <c r="AK52" s="57"/>
+      <c r="AL52" s="57"/>
+      <c r="AM52" s="42"/>
+      <c r="AN52" s="44"/>
+      <c r="AO52" s="55"/>
       <c r="AP52" s="39"/>
       <c r="AQ52" s="42"/>
       <c r="AR52" s="42"/>
@@ -6042,31 +6222,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P53" s="1"/>
-      <c r="Q53" s="139"/>
-      <c r="R53" s="139"/>
-      <c r="S53" s="139"/>
-      <c r="T53" s="139"/>
-      <c r="U53" s="146"/>
-      <c r="V53" s="147"/>
-      <c r="W53" s="148"/>
-      <c r="X53" s="148"/>
-      <c r="Y53" s="148"/>
-      <c r="Z53" s="139"/>
-      <c r="AA53" s="142"/>
-      <c r="AB53" s="146"/>
-      <c r="AC53" s="137"/>
-      <c r="AD53" s="139"/>
-      <c r="AE53" s="139"/>
-      <c r="AF53" s="139"/>
-      <c r="AG53" s="139"/>
-      <c r="AH53" s="146"/>
-      <c r="AI53" s="147"/>
-      <c r="AJ53" s="148"/>
-      <c r="AK53" s="148"/>
-      <c r="AL53" s="148"/>
-      <c r="AM53" s="139"/>
-      <c r="AN53" s="142"/>
-      <c r="AO53" s="146"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="51"/>
+      <c r="V53" s="52"/>
+      <c r="W53" s="53"/>
+      <c r="X53" s="53"/>
+      <c r="Y53" s="53"/>
+      <c r="Z53" s="43"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="51"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="43"/>
+      <c r="AE53" s="43"/>
+      <c r="AF53" s="43"/>
+      <c r="AG53" s="43"/>
+      <c r="AH53" s="51"/>
+      <c r="AI53" s="52"/>
+      <c r="AJ53" s="53"/>
+      <c r="AK53" s="53"/>
+      <c r="AL53" s="53"/>
+      <c r="AM53" s="43"/>
+      <c r="AN53" s="47"/>
+      <c r="AO53" s="51"/>
       <c r="AP53" s="39"/>
       <c r="AQ53" s="43"/>
       <c r="AR53" s="43"/>
@@ -6123,31 +6303,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P54" s="1"/>
-      <c r="Q54" s="138"/>
-      <c r="R54" s="138"/>
-      <c r="S54" s="138"/>
-      <c r="T54" s="138"/>
-      <c r="U54" s="150"/>
-      <c r="V54" s="154"/>
-      <c r="W54" s="152"/>
-      <c r="X54" s="152"/>
-      <c r="Y54" s="152"/>
-      <c r="Z54" s="138"/>
-      <c r="AA54" s="143"/>
-      <c r="AB54" s="150"/>
-      <c r="AC54" s="137"/>
-      <c r="AD54" s="138"/>
-      <c r="AE54" s="138"/>
-      <c r="AF54" s="138"/>
-      <c r="AG54" s="138"/>
-      <c r="AH54" s="150"/>
-      <c r="AI54" s="154"/>
-      <c r="AJ54" s="152"/>
-      <c r="AK54" s="152"/>
-      <c r="AL54" s="152"/>
-      <c r="AM54" s="138"/>
-      <c r="AN54" s="143"/>
-      <c r="AO54" s="150"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="55"/>
+      <c r="V54" s="58"/>
+      <c r="W54" s="57"/>
+      <c r="X54" s="57"/>
+      <c r="Y54" s="57"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="44"/>
+      <c r="AB54" s="55"/>
+      <c r="AC54" s="39"/>
+      <c r="AD54" s="42"/>
+      <c r="AE54" s="42"/>
+      <c r="AF54" s="42"/>
+      <c r="AG54" s="42"/>
+      <c r="AH54" s="55"/>
+      <c r="AI54" s="58"/>
+      <c r="AJ54" s="57"/>
+      <c r="AK54" s="57"/>
+      <c r="AL54" s="57"/>
+      <c r="AM54" s="42"/>
+      <c r="AN54" s="44"/>
+      <c r="AO54" s="55"/>
       <c r="AP54" s="39"/>
       <c r="AQ54" s="42"/>
       <c r="AR54" s="42"/>
@@ -6204,31 +6384,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P55" s="1"/>
-      <c r="Q55" s="139"/>
-      <c r="R55" s="139"/>
-      <c r="S55" s="139"/>
-      <c r="T55" s="139"/>
-      <c r="U55" s="146"/>
-      <c r="V55" s="147"/>
-      <c r="W55" s="148"/>
-      <c r="X55" s="148"/>
-      <c r="Y55" s="148"/>
-      <c r="Z55" s="139"/>
-      <c r="AA55" s="142"/>
-      <c r="AB55" s="146"/>
-      <c r="AC55" s="137"/>
-      <c r="AD55" s="139"/>
-      <c r="AE55" s="139"/>
-      <c r="AF55" s="139"/>
-      <c r="AG55" s="139"/>
-      <c r="AH55" s="146"/>
-      <c r="AI55" s="147"/>
-      <c r="AJ55" s="148"/>
-      <c r="AK55" s="148"/>
-      <c r="AL55" s="148"/>
-      <c r="AM55" s="139"/>
-      <c r="AN55" s="142"/>
-      <c r="AO55" s="146"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="51"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="53"/>
+      <c r="X55" s="53"/>
+      <c r="Y55" s="53"/>
+      <c r="Z55" s="43"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="51"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="43"/>
+      <c r="AE55" s="43"/>
+      <c r="AF55" s="43"/>
+      <c r="AG55" s="43"/>
+      <c r="AH55" s="51"/>
+      <c r="AI55" s="52"/>
+      <c r="AJ55" s="53"/>
+      <c r="AK55" s="53"/>
+      <c r="AL55" s="53"/>
+      <c r="AM55" s="43"/>
+      <c r="AN55" s="47"/>
+      <c r="AO55" s="51"/>
       <c r="AP55" s="39"/>
       <c r="AQ55" s="43"/>
       <c r="AR55" s="43"/>
@@ -6285,31 +6465,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P56" s="1"/>
-      <c r="Q56" s="138"/>
-      <c r="R56" s="138"/>
-      <c r="S56" s="138"/>
-      <c r="T56" s="138"/>
-      <c r="U56" s="150"/>
-      <c r="V56" s="154"/>
-      <c r="W56" s="152"/>
-      <c r="X56" s="152"/>
-      <c r="Y56" s="152"/>
-      <c r="Z56" s="138"/>
-      <c r="AA56" s="143"/>
-      <c r="AB56" s="150"/>
-      <c r="AC56" s="137"/>
-      <c r="AD56" s="138"/>
-      <c r="AE56" s="138"/>
-      <c r="AF56" s="138"/>
-      <c r="AG56" s="138"/>
-      <c r="AH56" s="150"/>
-      <c r="AI56" s="154"/>
-      <c r="AJ56" s="152"/>
-      <c r="AK56" s="152"/>
-      <c r="AL56" s="152"/>
-      <c r="AM56" s="138"/>
-      <c r="AN56" s="143"/>
-      <c r="AO56" s="150"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="58"/>
+      <c r="W56" s="57"/>
+      <c r="X56" s="57"/>
+      <c r="Y56" s="57"/>
+      <c r="Z56" s="42"/>
+      <c r="AA56" s="44"/>
+      <c r="AB56" s="55"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="42"/>
+      <c r="AE56" s="42"/>
+      <c r="AF56" s="42"/>
+      <c r="AG56" s="42"/>
+      <c r="AH56" s="55"/>
+      <c r="AI56" s="58"/>
+      <c r="AJ56" s="57"/>
+      <c r="AK56" s="57"/>
+      <c r="AL56" s="57"/>
+      <c r="AM56" s="42"/>
+      <c r="AN56" s="44"/>
+      <c r="AO56" s="55"/>
       <c r="AP56" s="39"/>
       <c r="AQ56" s="42"/>
       <c r="AR56" s="42"/>
@@ -6366,31 +6546,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P57" s="1"/>
-      <c r="Q57" s="139"/>
-      <c r="R57" s="139"/>
-      <c r="S57" s="139"/>
-      <c r="T57" s="139"/>
-      <c r="U57" s="146"/>
-      <c r="V57" s="147"/>
-      <c r="W57" s="148"/>
-      <c r="X57" s="148"/>
-      <c r="Y57" s="148"/>
-      <c r="Z57" s="139"/>
-      <c r="AA57" s="142"/>
-      <c r="AB57" s="146"/>
-      <c r="AC57" s="137"/>
-      <c r="AD57" s="139"/>
-      <c r="AE57" s="139"/>
-      <c r="AF57" s="139"/>
-      <c r="AG57" s="139"/>
-      <c r="AH57" s="146"/>
-      <c r="AI57" s="147"/>
-      <c r="AJ57" s="148"/>
-      <c r="AK57" s="148"/>
-      <c r="AL57" s="148"/>
-      <c r="AM57" s="139"/>
-      <c r="AN57" s="142"/>
-      <c r="AO57" s="146"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="51"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="53"/>
+      <c r="X57" s="53"/>
+      <c r="Y57" s="53"/>
+      <c r="Z57" s="43"/>
+      <c r="AA57" s="47"/>
+      <c r="AB57" s="51"/>
+      <c r="AC57" s="39"/>
+      <c r="AD57" s="43"/>
+      <c r="AE57" s="43"/>
+      <c r="AF57" s="43"/>
+      <c r="AG57" s="43"/>
+      <c r="AH57" s="51"/>
+      <c r="AI57" s="52"/>
+      <c r="AJ57" s="53"/>
+      <c r="AK57" s="53"/>
+      <c r="AL57" s="53"/>
+      <c r="AM57" s="43"/>
+      <c r="AN57" s="47"/>
+      <c r="AO57" s="51"/>
       <c r="AP57" s="39"/>
       <c r="AQ57" s="43"/>
       <c r="AR57" s="43"/>
@@ -6447,31 +6627,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P58" s="1"/>
-      <c r="Q58" s="138"/>
-      <c r="R58" s="138"/>
-      <c r="S58" s="138"/>
-      <c r="T58" s="138"/>
-      <c r="U58" s="150"/>
-      <c r="V58" s="154"/>
-      <c r="W58" s="152"/>
-      <c r="X58" s="152"/>
-      <c r="Y58" s="152"/>
-      <c r="Z58" s="138"/>
-      <c r="AA58" s="143"/>
-      <c r="AB58" s="150"/>
-      <c r="AC58" s="137"/>
-      <c r="AD58" s="138"/>
-      <c r="AE58" s="138"/>
-      <c r="AF58" s="138"/>
-      <c r="AG58" s="138"/>
-      <c r="AH58" s="150"/>
-      <c r="AI58" s="154"/>
-      <c r="AJ58" s="152"/>
-      <c r="AK58" s="152"/>
-      <c r="AL58" s="152"/>
-      <c r="AM58" s="138"/>
-      <c r="AN58" s="143"/>
-      <c r="AO58" s="150"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="55"/>
+      <c r="V58" s="58"/>
+      <c r="W58" s="57"/>
+      <c r="X58" s="57"/>
+      <c r="Y58" s="57"/>
+      <c r="Z58" s="42"/>
+      <c r="AA58" s="44"/>
+      <c r="AB58" s="55"/>
+      <c r="AC58" s="39"/>
+      <c r="AD58" s="42"/>
+      <c r="AE58" s="42"/>
+      <c r="AF58" s="42"/>
+      <c r="AG58" s="42"/>
+      <c r="AH58" s="55"/>
+      <c r="AI58" s="58"/>
+      <c r="AJ58" s="57"/>
+      <c r="AK58" s="57"/>
+      <c r="AL58" s="57"/>
+      <c r="AM58" s="42"/>
+      <c r="AN58" s="44"/>
+      <c r="AO58" s="55"/>
       <c r="AP58" s="39"/>
       <c r="AQ58" s="42"/>
       <c r="AR58" s="42"/>
@@ -6528,31 +6708,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P59" s="1"/>
-      <c r="Q59" s="139"/>
-      <c r="R59" s="139"/>
-      <c r="S59" s="139"/>
-      <c r="T59" s="139"/>
-      <c r="U59" s="146"/>
-      <c r="V59" s="147"/>
-      <c r="W59" s="148"/>
-      <c r="X59" s="148"/>
-      <c r="Y59" s="148"/>
-      <c r="Z59" s="139"/>
-      <c r="AA59" s="142"/>
-      <c r="AB59" s="146"/>
-      <c r="AC59" s="137"/>
-      <c r="AD59" s="139"/>
-      <c r="AE59" s="139"/>
-      <c r="AF59" s="139"/>
-      <c r="AG59" s="139"/>
-      <c r="AH59" s="146"/>
-      <c r="AI59" s="147"/>
-      <c r="AJ59" s="148"/>
-      <c r="AK59" s="148"/>
-      <c r="AL59" s="148"/>
-      <c r="AM59" s="139"/>
-      <c r="AN59" s="142"/>
-      <c r="AO59" s="146"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="51"/>
+      <c r="V59" s="52"/>
+      <c r="W59" s="53"/>
+      <c r="X59" s="53"/>
+      <c r="Y59" s="53"/>
+      <c r="Z59" s="43"/>
+      <c r="AA59" s="47"/>
+      <c r="AB59" s="51"/>
+      <c r="AC59" s="39"/>
+      <c r="AD59" s="43"/>
+      <c r="AE59" s="43"/>
+      <c r="AF59" s="43"/>
+      <c r="AG59" s="43"/>
+      <c r="AH59" s="51"/>
+      <c r="AI59" s="52"/>
+      <c r="AJ59" s="53"/>
+      <c r="AK59" s="53"/>
+      <c r="AL59" s="53"/>
+      <c r="AM59" s="43"/>
+      <c r="AN59" s="47"/>
+      <c r="AO59" s="51"/>
       <c r="AP59" s="39"/>
       <c r="AQ59" s="43"/>
       <c r="AR59" s="43"/>
@@ -6609,31 +6789,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P60" s="1"/>
-      <c r="Q60" s="138"/>
-      <c r="R60" s="138"/>
-      <c r="S60" s="138"/>
-      <c r="T60" s="138"/>
-      <c r="U60" s="150"/>
-      <c r="V60" s="154"/>
-      <c r="W60" s="152"/>
-      <c r="X60" s="152"/>
-      <c r="Y60" s="152"/>
-      <c r="Z60" s="138"/>
-      <c r="AA60" s="143"/>
-      <c r="AB60" s="150"/>
-      <c r="AC60" s="137"/>
-      <c r="AD60" s="138"/>
-      <c r="AE60" s="138"/>
-      <c r="AF60" s="138"/>
-      <c r="AG60" s="138"/>
-      <c r="AH60" s="150"/>
-      <c r="AI60" s="154"/>
-      <c r="AJ60" s="152"/>
-      <c r="AK60" s="152"/>
-      <c r="AL60" s="152"/>
-      <c r="AM60" s="138"/>
-      <c r="AN60" s="143"/>
-      <c r="AO60" s="150"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="55"/>
+      <c r="V60" s="58"/>
+      <c r="W60" s="57"/>
+      <c r="X60" s="57"/>
+      <c r="Y60" s="57"/>
+      <c r="Z60" s="42"/>
+      <c r="AA60" s="44"/>
+      <c r="AB60" s="55"/>
+      <c r="AC60" s="39"/>
+      <c r="AD60" s="42"/>
+      <c r="AE60" s="42"/>
+      <c r="AF60" s="42"/>
+      <c r="AG60" s="42"/>
+      <c r="AH60" s="55"/>
+      <c r="AI60" s="58"/>
+      <c r="AJ60" s="57"/>
+      <c r="AK60" s="57"/>
+      <c r="AL60" s="57"/>
+      <c r="AM60" s="42"/>
+      <c r="AN60" s="44"/>
+      <c r="AO60" s="55"/>
       <c r="AP60" s="39"/>
       <c r="AQ60" s="42"/>
       <c r="AR60" s="42"/>
@@ -6690,31 +6870,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P61" s="1"/>
-      <c r="Q61" s="139"/>
-      <c r="R61" s="139"/>
-      <c r="S61" s="139"/>
-      <c r="T61" s="139"/>
-      <c r="U61" s="146"/>
-      <c r="V61" s="147"/>
-      <c r="W61" s="148"/>
-      <c r="X61" s="148"/>
-      <c r="Y61" s="148"/>
-      <c r="Z61" s="139"/>
-      <c r="AA61" s="142"/>
-      <c r="AB61" s="146"/>
-      <c r="AC61" s="137"/>
-      <c r="AD61" s="139"/>
-      <c r="AE61" s="139"/>
-      <c r="AF61" s="139"/>
-      <c r="AG61" s="139"/>
-      <c r="AH61" s="146"/>
-      <c r="AI61" s="147"/>
-      <c r="AJ61" s="148"/>
-      <c r="AK61" s="148"/>
-      <c r="AL61" s="148"/>
-      <c r="AM61" s="139"/>
-      <c r="AN61" s="142"/>
-      <c r="AO61" s="146"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="51"/>
+      <c r="V61" s="52"/>
+      <c r="W61" s="53"/>
+      <c r="X61" s="53"/>
+      <c r="Y61" s="53"/>
+      <c r="Z61" s="43"/>
+      <c r="AA61" s="47"/>
+      <c r="AB61" s="51"/>
+      <c r="AC61" s="39"/>
+      <c r="AD61" s="43"/>
+      <c r="AE61" s="43"/>
+      <c r="AF61" s="43"/>
+      <c r="AG61" s="43"/>
+      <c r="AH61" s="51"/>
+      <c r="AI61" s="52"/>
+      <c r="AJ61" s="53"/>
+      <c r="AK61" s="53"/>
+      <c r="AL61" s="53"/>
+      <c r="AM61" s="43"/>
+      <c r="AN61" s="47"/>
+      <c r="AO61" s="51"/>
       <c r="AP61" s="39"/>
       <c r="AQ61" s="43"/>
       <c r="AR61" s="43"/>
@@ -6771,31 +6951,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P62" s="1"/>
-      <c r="Q62" s="138"/>
-      <c r="R62" s="138"/>
-      <c r="S62" s="138"/>
-      <c r="T62" s="138"/>
-      <c r="U62" s="150"/>
-      <c r="V62" s="154"/>
-      <c r="W62" s="152"/>
-      <c r="X62" s="152"/>
-      <c r="Y62" s="152"/>
-      <c r="Z62" s="138"/>
-      <c r="AA62" s="143"/>
-      <c r="AB62" s="150"/>
-      <c r="AC62" s="137"/>
-      <c r="AD62" s="138"/>
-      <c r="AE62" s="138"/>
-      <c r="AF62" s="138"/>
-      <c r="AG62" s="138"/>
-      <c r="AH62" s="150"/>
-      <c r="AI62" s="154"/>
-      <c r="AJ62" s="152"/>
-      <c r="AK62" s="152"/>
-      <c r="AL62" s="152"/>
-      <c r="AM62" s="138"/>
-      <c r="AN62" s="143"/>
-      <c r="AO62" s="150"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="58"/>
+      <c r="W62" s="57"/>
+      <c r="X62" s="57"/>
+      <c r="Y62" s="57"/>
+      <c r="Z62" s="42"/>
+      <c r="AA62" s="44"/>
+      <c r="AB62" s="55"/>
+      <c r="AC62" s="39"/>
+      <c r="AD62" s="42"/>
+      <c r="AE62" s="42"/>
+      <c r="AF62" s="42"/>
+      <c r="AG62" s="42"/>
+      <c r="AH62" s="55"/>
+      <c r="AI62" s="58"/>
+      <c r="AJ62" s="57"/>
+      <c r="AK62" s="57"/>
+      <c r="AL62" s="57"/>
+      <c r="AM62" s="42"/>
+      <c r="AN62" s="44"/>
+      <c r="AO62" s="55"/>
       <c r="AP62" s="39"/>
       <c r="AQ62" s="42"/>
       <c r="AR62" s="42"/>
@@ -6852,31 +7032,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P63" s="1"/>
-      <c r="Q63" s="139"/>
-      <c r="R63" s="139"/>
-      <c r="S63" s="139"/>
-      <c r="T63" s="139"/>
-      <c r="U63" s="146"/>
-      <c r="V63" s="147"/>
-      <c r="W63" s="148"/>
-      <c r="X63" s="148"/>
-      <c r="Y63" s="148"/>
-      <c r="Z63" s="139"/>
-      <c r="AA63" s="142"/>
-      <c r="AB63" s="146"/>
-      <c r="AC63" s="137"/>
-      <c r="AD63" s="139"/>
-      <c r="AE63" s="139"/>
-      <c r="AF63" s="139"/>
-      <c r="AG63" s="139"/>
-      <c r="AH63" s="146"/>
-      <c r="AI63" s="147"/>
-      <c r="AJ63" s="148"/>
-      <c r="AK63" s="148"/>
-      <c r="AL63" s="148"/>
-      <c r="AM63" s="139"/>
-      <c r="AN63" s="142"/>
-      <c r="AO63" s="146"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="51"/>
+      <c r="V63" s="52"/>
+      <c r="W63" s="53"/>
+      <c r="X63" s="53"/>
+      <c r="Y63" s="53"/>
+      <c r="Z63" s="43"/>
+      <c r="AA63" s="47"/>
+      <c r="AB63" s="51"/>
+      <c r="AC63" s="39"/>
+      <c r="AD63" s="43"/>
+      <c r="AE63" s="43"/>
+      <c r="AF63" s="43"/>
+      <c r="AG63" s="43"/>
+      <c r="AH63" s="51"/>
+      <c r="AI63" s="52"/>
+      <c r="AJ63" s="53"/>
+      <c r="AK63" s="53"/>
+      <c r="AL63" s="53"/>
+      <c r="AM63" s="43"/>
+      <c r="AN63" s="47"/>
+      <c r="AO63" s="51"/>
       <c r="AP63" s="39"/>
       <c r="AQ63" s="43"/>
       <c r="AR63" s="43"/>
@@ -6933,31 +7113,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P64" s="1"/>
-      <c r="Q64" s="138"/>
-      <c r="R64" s="138"/>
-      <c r="S64" s="138"/>
-      <c r="T64" s="138"/>
-      <c r="U64" s="150"/>
-      <c r="V64" s="154"/>
-      <c r="W64" s="152"/>
-      <c r="X64" s="152"/>
-      <c r="Y64" s="152"/>
-      <c r="Z64" s="138"/>
-      <c r="AA64" s="143"/>
-      <c r="AB64" s="150"/>
-      <c r="AC64" s="137"/>
-      <c r="AD64" s="138"/>
-      <c r="AE64" s="138"/>
-      <c r="AF64" s="138"/>
-      <c r="AG64" s="138"/>
-      <c r="AH64" s="150"/>
-      <c r="AI64" s="154"/>
-      <c r="AJ64" s="152"/>
-      <c r="AK64" s="152"/>
-      <c r="AL64" s="152"/>
-      <c r="AM64" s="138"/>
-      <c r="AN64" s="143"/>
-      <c r="AO64" s="150"/>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="42"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="55"/>
+      <c r="V64" s="58"/>
+      <c r="W64" s="57"/>
+      <c r="X64" s="57"/>
+      <c r="Y64" s="57"/>
+      <c r="Z64" s="42"/>
+      <c r="AA64" s="44"/>
+      <c r="AB64" s="55"/>
+      <c r="AC64" s="39"/>
+      <c r="AD64" s="42"/>
+      <c r="AE64" s="42"/>
+      <c r="AF64" s="42"/>
+      <c r="AG64" s="42"/>
+      <c r="AH64" s="55"/>
+      <c r="AI64" s="58"/>
+      <c r="AJ64" s="57"/>
+      <c r="AK64" s="57"/>
+      <c r="AL64" s="57"/>
+      <c r="AM64" s="42"/>
+      <c r="AN64" s="44"/>
+      <c r="AO64" s="55"/>
       <c r="AP64" s="39"/>
       <c r="AQ64" s="42"/>
       <c r="AR64" s="42"/>
@@ -7014,31 +7194,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P65" s="1"/>
-      <c r="Q65" s="139"/>
-      <c r="R65" s="139"/>
-      <c r="S65" s="139"/>
-      <c r="T65" s="139"/>
-      <c r="U65" s="146"/>
-      <c r="V65" s="147"/>
-      <c r="W65" s="148"/>
-      <c r="X65" s="148"/>
-      <c r="Y65" s="148"/>
-      <c r="Z65" s="139"/>
-      <c r="AA65" s="142"/>
-      <c r="AB65" s="146"/>
-      <c r="AC65" s="137"/>
-      <c r="AD65" s="139"/>
-      <c r="AE65" s="139"/>
-      <c r="AF65" s="139"/>
-      <c r="AG65" s="139"/>
-      <c r="AH65" s="146"/>
-      <c r="AI65" s="147"/>
-      <c r="AJ65" s="148"/>
-      <c r="AK65" s="148"/>
-      <c r="AL65" s="148"/>
-      <c r="AM65" s="139"/>
-      <c r="AN65" s="142"/>
-      <c r="AO65" s="146"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="51"/>
+      <c r="V65" s="52"/>
+      <c r="W65" s="53"/>
+      <c r="X65" s="53"/>
+      <c r="Y65" s="53"/>
+      <c r="Z65" s="43"/>
+      <c r="AA65" s="47"/>
+      <c r="AB65" s="51"/>
+      <c r="AC65" s="39"/>
+      <c r="AD65" s="43"/>
+      <c r="AE65" s="43"/>
+      <c r="AF65" s="43"/>
+      <c r="AG65" s="43"/>
+      <c r="AH65" s="51"/>
+      <c r="AI65" s="52"/>
+      <c r="AJ65" s="53"/>
+      <c r="AK65" s="53"/>
+      <c r="AL65" s="53"/>
+      <c r="AM65" s="43"/>
+      <c r="AN65" s="47"/>
+      <c r="AO65" s="51"/>
       <c r="AP65" s="39"/>
       <c r="AQ65" s="43"/>
       <c r="AR65" s="43"/>
@@ -7095,31 +7275,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P66" s="1"/>
-      <c r="Q66" s="138"/>
-      <c r="R66" s="138"/>
-      <c r="S66" s="138"/>
-      <c r="T66" s="138"/>
-      <c r="U66" s="150"/>
-      <c r="V66" s="154"/>
-      <c r="W66" s="152"/>
-      <c r="X66" s="152"/>
-      <c r="Y66" s="152"/>
-      <c r="Z66" s="138"/>
-      <c r="AA66" s="143"/>
-      <c r="AB66" s="150"/>
-      <c r="AC66" s="137"/>
-      <c r="AD66" s="138"/>
-      <c r="AE66" s="138"/>
-      <c r="AF66" s="138"/>
-      <c r="AG66" s="138"/>
-      <c r="AH66" s="150"/>
-      <c r="AI66" s="154"/>
-      <c r="AJ66" s="152"/>
-      <c r="AK66" s="152"/>
-      <c r="AL66" s="152"/>
-      <c r="AM66" s="138"/>
-      <c r="AN66" s="143"/>
-      <c r="AO66" s="150"/>
+      <c r="Q66" s="42"/>
+      <c r="R66" s="42"/>
+      <c r="S66" s="42"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="55"/>
+      <c r="V66" s="58"/>
+      <c r="W66" s="57"/>
+      <c r="X66" s="57"/>
+      <c r="Y66" s="57"/>
+      <c r="Z66" s="42"/>
+      <c r="AA66" s="44"/>
+      <c r="AB66" s="55"/>
+      <c r="AC66" s="39"/>
+      <c r="AD66" s="42"/>
+      <c r="AE66" s="42"/>
+      <c r="AF66" s="42"/>
+      <c r="AG66" s="42"/>
+      <c r="AH66" s="55"/>
+      <c r="AI66" s="58"/>
+      <c r="AJ66" s="57"/>
+      <c r="AK66" s="57"/>
+      <c r="AL66" s="57"/>
+      <c r="AM66" s="42"/>
+      <c r="AN66" s="44"/>
+      <c r="AO66" s="55"/>
       <c r="AP66" s="39"/>
       <c r="AQ66" s="42"/>
       <c r="AR66" s="42"/>
@@ -7176,31 +7356,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P67" s="1"/>
-      <c r="Q67" s="139"/>
-      <c r="R67" s="139"/>
-      <c r="S67" s="139"/>
-      <c r="T67" s="139"/>
-      <c r="U67" s="146"/>
-      <c r="V67" s="147"/>
-      <c r="W67" s="148"/>
-      <c r="X67" s="148"/>
-      <c r="Y67" s="148"/>
-      <c r="Z67" s="139"/>
-      <c r="AA67" s="142"/>
-      <c r="AB67" s="146"/>
-      <c r="AC67" s="137"/>
-      <c r="AD67" s="139"/>
-      <c r="AE67" s="139"/>
-      <c r="AF67" s="139"/>
-      <c r="AG67" s="139"/>
-      <c r="AH67" s="146"/>
-      <c r="AI67" s="147"/>
-      <c r="AJ67" s="148"/>
-      <c r="AK67" s="148"/>
-      <c r="AL67" s="148"/>
-      <c r="AM67" s="139"/>
-      <c r="AN67" s="142"/>
-      <c r="AO67" s="146"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="51"/>
+      <c r="V67" s="52"/>
+      <c r="W67" s="53"/>
+      <c r="X67" s="53"/>
+      <c r="Y67" s="53"/>
+      <c r="Z67" s="43"/>
+      <c r="AA67" s="47"/>
+      <c r="AB67" s="51"/>
+      <c r="AC67" s="39"/>
+      <c r="AD67" s="43"/>
+      <c r="AE67" s="43"/>
+      <c r="AF67" s="43"/>
+      <c r="AG67" s="43"/>
+      <c r="AH67" s="51"/>
+      <c r="AI67" s="52"/>
+      <c r="AJ67" s="53"/>
+      <c r="AK67" s="53"/>
+      <c r="AL67" s="53"/>
+      <c r="AM67" s="43"/>
+      <c r="AN67" s="47"/>
+      <c r="AO67" s="51"/>
       <c r="AP67" s="39"/>
       <c r="AQ67" s="43"/>
       <c r="AR67" s="43"/>
@@ -7257,31 +7437,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P68" s="1"/>
-      <c r="Q68" s="138"/>
-      <c r="R68" s="138"/>
-      <c r="S68" s="138"/>
-      <c r="T68" s="138"/>
-      <c r="U68" s="150"/>
-      <c r="V68" s="154"/>
-      <c r="W68" s="152"/>
-      <c r="X68" s="152"/>
-      <c r="Y68" s="152"/>
-      <c r="Z68" s="138"/>
-      <c r="AA68" s="143"/>
-      <c r="AB68" s="150"/>
-      <c r="AC68" s="137"/>
-      <c r="AD68" s="138"/>
-      <c r="AE68" s="138"/>
-      <c r="AF68" s="138"/>
-      <c r="AG68" s="138"/>
-      <c r="AH68" s="150"/>
-      <c r="AI68" s="154"/>
-      <c r="AJ68" s="152"/>
-      <c r="AK68" s="152"/>
-      <c r="AL68" s="152"/>
-      <c r="AM68" s="138"/>
-      <c r="AN68" s="143"/>
-      <c r="AO68" s="150"/>
+      <c r="Q68" s="42"/>
+      <c r="R68" s="42"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="55"/>
+      <c r="V68" s="58"/>
+      <c r="W68" s="57"/>
+      <c r="X68" s="57"/>
+      <c r="Y68" s="57"/>
+      <c r="Z68" s="42"/>
+      <c r="AA68" s="44"/>
+      <c r="AB68" s="55"/>
+      <c r="AC68" s="39"/>
+      <c r="AD68" s="42"/>
+      <c r="AE68" s="42"/>
+      <c r="AF68" s="42"/>
+      <c r="AG68" s="42"/>
+      <c r="AH68" s="55"/>
+      <c r="AI68" s="58"/>
+      <c r="AJ68" s="57"/>
+      <c r="AK68" s="57"/>
+      <c r="AL68" s="57"/>
+      <c r="AM68" s="42"/>
+      <c r="AN68" s="44"/>
+      <c r="AO68" s="55"/>
       <c r="AP68" s="39"/>
       <c r="AQ68" s="42"/>
       <c r="AR68" s="42"/>
@@ -7338,31 +7518,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P69" s="1"/>
-      <c r="Q69" s="139"/>
-      <c r="R69" s="139"/>
-      <c r="S69" s="139"/>
-      <c r="T69" s="139"/>
-      <c r="U69" s="146"/>
-      <c r="V69" s="147"/>
-      <c r="W69" s="148"/>
-      <c r="X69" s="148"/>
-      <c r="Y69" s="148"/>
-      <c r="Z69" s="139"/>
-      <c r="AA69" s="142"/>
-      <c r="AB69" s="146"/>
-      <c r="AC69" s="137"/>
-      <c r="AD69" s="139"/>
-      <c r="AE69" s="139"/>
-      <c r="AF69" s="139"/>
-      <c r="AG69" s="139"/>
-      <c r="AH69" s="146"/>
-      <c r="AI69" s="147"/>
-      <c r="AJ69" s="148"/>
-      <c r="AK69" s="148"/>
-      <c r="AL69" s="148"/>
-      <c r="AM69" s="139"/>
-      <c r="AN69" s="142"/>
-      <c r="AO69" s="146"/>
+      <c r="Q69" s="43"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="51"/>
+      <c r="V69" s="52"/>
+      <c r="W69" s="53"/>
+      <c r="X69" s="53"/>
+      <c r="Y69" s="53"/>
+      <c r="Z69" s="43"/>
+      <c r="AA69" s="47"/>
+      <c r="AB69" s="51"/>
+      <c r="AC69" s="39"/>
+      <c r="AD69" s="43"/>
+      <c r="AE69" s="43"/>
+      <c r="AF69" s="43"/>
+      <c r="AG69" s="43"/>
+      <c r="AH69" s="51"/>
+      <c r="AI69" s="52"/>
+      <c r="AJ69" s="53"/>
+      <c r="AK69" s="53"/>
+      <c r="AL69" s="53"/>
+      <c r="AM69" s="43"/>
+      <c r="AN69" s="47"/>
+      <c r="AO69" s="51"/>
       <c r="AP69" s="39"/>
       <c r="AQ69" s="43"/>
       <c r="AR69" s="43"/>
@@ -7419,31 +7599,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P70" s="1"/>
-      <c r="Q70" s="138"/>
-      <c r="R70" s="138"/>
-      <c r="S70" s="138"/>
-      <c r="T70" s="138"/>
-      <c r="U70" s="150"/>
-      <c r="V70" s="154"/>
-      <c r="W70" s="152"/>
-      <c r="X70" s="152"/>
-      <c r="Y70" s="152"/>
-      <c r="Z70" s="138"/>
-      <c r="AA70" s="143"/>
-      <c r="AB70" s="150"/>
-      <c r="AC70" s="137"/>
-      <c r="AD70" s="138"/>
-      <c r="AE70" s="138"/>
-      <c r="AF70" s="138"/>
-      <c r="AG70" s="138"/>
-      <c r="AH70" s="150"/>
-      <c r="AI70" s="154"/>
-      <c r="AJ70" s="152"/>
-      <c r="AK70" s="152"/>
-      <c r="AL70" s="152"/>
-      <c r="AM70" s="138"/>
-      <c r="AN70" s="143"/>
-      <c r="AO70" s="150"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="55"/>
+      <c r="V70" s="58"/>
+      <c r="W70" s="57"/>
+      <c r="X70" s="57"/>
+      <c r="Y70" s="57"/>
+      <c r="Z70" s="42"/>
+      <c r="AA70" s="44"/>
+      <c r="AB70" s="55"/>
+      <c r="AC70" s="39"/>
+      <c r="AD70" s="42"/>
+      <c r="AE70" s="42"/>
+      <c r="AF70" s="42"/>
+      <c r="AG70" s="42"/>
+      <c r="AH70" s="55"/>
+      <c r="AI70" s="58"/>
+      <c r="AJ70" s="57"/>
+      <c r="AK70" s="57"/>
+      <c r="AL70" s="57"/>
+      <c r="AM70" s="42"/>
+      <c r="AN70" s="44"/>
+      <c r="AO70" s="55"/>
       <c r="AP70" s="39"/>
       <c r="AQ70" s="42"/>
       <c r="AR70" s="42"/>
@@ -7500,31 +7680,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P71" s="1"/>
-      <c r="Q71" s="139"/>
-      <c r="R71" s="139"/>
-      <c r="S71" s="139"/>
-      <c r="T71" s="139"/>
-      <c r="U71" s="146"/>
-      <c r="V71" s="147"/>
-      <c r="W71" s="148"/>
-      <c r="X71" s="148"/>
-      <c r="Y71" s="148"/>
-      <c r="Z71" s="139"/>
-      <c r="AA71" s="142"/>
-      <c r="AB71" s="146"/>
-      <c r="AC71" s="137"/>
-      <c r="AD71" s="139"/>
-      <c r="AE71" s="139"/>
-      <c r="AF71" s="139"/>
-      <c r="AG71" s="139"/>
-      <c r="AH71" s="146"/>
-      <c r="AI71" s="147"/>
-      <c r="AJ71" s="148"/>
-      <c r="AK71" s="148"/>
-      <c r="AL71" s="148"/>
-      <c r="AM71" s="139"/>
-      <c r="AN71" s="142"/>
-      <c r="AO71" s="146"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="43"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="51"/>
+      <c r="V71" s="52"/>
+      <c r="W71" s="53"/>
+      <c r="X71" s="53"/>
+      <c r="Y71" s="53"/>
+      <c r="Z71" s="43"/>
+      <c r="AA71" s="47"/>
+      <c r="AB71" s="51"/>
+      <c r="AC71" s="39"/>
+      <c r="AD71" s="43"/>
+      <c r="AE71" s="43"/>
+      <c r="AF71" s="43"/>
+      <c r="AG71" s="43"/>
+      <c r="AH71" s="51"/>
+      <c r="AI71" s="52"/>
+      <c r="AJ71" s="53"/>
+      <c r="AK71" s="53"/>
+      <c r="AL71" s="53"/>
+      <c r="AM71" s="43"/>
+      <c r="AN71" s="47"/>
+      <c r="AO71" s="51"/>
       <c r="AP71" s="39"/>
       <c r="AQ71" s="43"/>
       <c r="AR71" s="43"/>
@@ -7581,31 +7761,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P72" s="1"/>
-      <c r="Q72" s="138"/>
-      <c r="R72" s="138"/>
-      <c r="S72" s="138"/>
-      <c r="T72" s="138"/>
-      <c r="U72" s="150"/>
-      <c r="V72" s="154"/>
-      <c r="W72" s="152"/>
-      <c r="X72" s="152"/>
-      <c r="Y72" s="152"/>
-      <c r="Z72" s="138"/>
-      <c r="AA72" s="143"/>
-      <c r="AB72" s="150"/>
-      <c r="AC72" s="137"/>
-      <c r="AD72" s="138"/>
-      <c r="AE72" s="138"/>
-      <c r="AF72" s="138"/>
-      <c r="AG72" s="138"/>
-      <c r="AH72" s="150"/>
-      <c r="AI72" s="154"/>
-      <c r="AJ72" s="152"/>
-      <c r="AK72" s="152"/>
-      <c r="AL72" s="152"/>
-      <c r="AM72" s="138"/>
-      <c r="AN72" s="143"/>
-      <c r="AO72" s="150"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="55"/>
+      <c r="V72" s="58"/>
+      <c r="W72" s="57"/>
+      <c r="X72" s="57"/>
+      <c r="Y72" s="57"/>
+      <c r="Z72" s="42"/>
+      <c r="AA72" s="44"/>
+      <c r="AB72" s="55"/>
+      <c r="AC72" s="39"/>
+      <c r="AD72" s="42"/>
+      <c r="AE72" s="42"/>
+      <c r="AF72" s="42"/>
+      <c r="AG72" s="42"/>
+      <c r="AH72" s="55"/>
+      <c r="AI72" s="58"/>
+      <c r="AJ72" s="57"/>
+      <c r="AK72" s="57"/>
+      <c r="AL72" s="57"/>
+      <c r="AM72" s="42"/>
+      <c r="AN72" s="44"/>
+      <c r="AO72" s="55"/>
       <c r="AP72" s="39"/>
       <c r="AQ72" s="42"/>
       <c r="AR72" s="42"/>
@@ -7662,31 +7842,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P73" s="1"/>
-      <c r="Q73" s="139"/>
-      <c r="R73" s="139"/>
-      <c r="S73" s="139"/>
-      <c r="T73" s="139"/>
-      <c r="U73" s="146"/>
-      <c r="V73" s="147"/>
-      <c r="W73" s="148"/>
-      <c r="X73" s="148"/>
-      <c r="Y73" s="148"/>
-      <c r="Z73" s="139"/>
-      <c r="AA73" s="142"/>
-      <c r="AB73" s="146"/>
-      <c r="AC73" s="137"/>
-      <c r="AD73" s="139"/>
-      <c r="AE73" s="139"/>
-      <c r="AF73" s="139"/>
-      <c r="AG73" s="139"/>
-      <c r="AH73" s="146"/>
-      <c r="AI73" s="147"/>
-      <c r="AJ73" s="148"/>
-      <c r="AK73" s="148"/>
-      <c r="AL73" s="148"/>
-      <c r="AM73" s="139"/>
-      <c r="AN73" s="142"/>
-      <c r="AO73" s="146"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="51"/>
+      <c r="V73" s="52"/>
+      <c r="W73" s="53"/>
+      <c r="X73" s="53"/>
+      <c r="Y73" s="53"/>
+      <c r="Z73" s="43"/>
+      <c r="AA73" s="47"/>
+      <c r="AB73" s="51"/>
+      <c r="AC73" s="39"/>
+      <c r="AD73" s="43"/>
+      <c r="AE73" s="43"/>
+      <c r="AF73" s="43"/>
+      <c r="AG73" s="43"/>
+      <c r="AH73" s="51"/>
+      <c r="AI73" s="52"/>
+      <c r="AJ73" s="53"/>
+      <c r="AK73" s="53"/>
+      <c r="AL73" s="53"/>
+      <c r="AM73" s="43"/>
+      <c r="AN73" s="47"/>
+      <c r="AO73" s="51"/>
       <c r="AP73" s="39"/>
       <c r="AQ73" s="43"/>
       <c r="AR73" s="43"/>
@@ -7743,31 +7923,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P74" s="1"/>
-      <c r="Q74" s="138"/>
-      <c r="R74" s="138"/>
-      <c r="S74" s="138"/>
-      <c r="T74" s="138"/>
-      <c r="U74" s="150"/>
-      <c r="V74" s="154"/>
-      <c r="W74" s="152"/>
-      <c r="X74" s="152"/>
-      <c r="Y74" s="152"/>
-      <c r="Z74" s="138"/>
-      <c r="AA74" s="143"/>
-      <c r="AB74" s="150"/>
-      <c r="AC74" s="137"/>
-      <c r="AD74" s="138"/>
-      <c r="AE74" s="138"/>
-      <c r="AF74" s="138"/>
-      <c r="AG74" s="138"/>
-      <c r="AH74" s="150"/>
-      <c r="AI74" s="154"/>
-      <c r="AJ74" s="152"/>
-      <c r="AK74" s="152"/>
-      <c r="AL74" s="152"/>
-      <c r="AM74" s="138"/>
-      <c r="AN74" s="143"/>
-      <c r="AO74" s="150"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="55"/>
+      <c r="V74" s="58"/>
+      <c r="W74" s="57"/>
+      <c r="X74" s="57"/>
+      <c r="Y74" s="57"/>
+      <c r="Z74" s="42"/>
+      <c r="AA74" s="44"/>
+      <c r="AB74" s="55"/>
+      <c r="AC74" s="39"/>
+      <c r="AD74" s="42"/>
+      <c r="AE74" s="42"/>
+      <c r="AF74" s="42"/>
+      <c r="AG74" s="42"/>
+      <c r="AH74" s="55"/>
+      <c r="AI74" s="58"/>
+      <c r="AJ74" s="57"/>
+      <c r="AK74" s="57"/>
+      <c r="AL74" s="57"/>
+      <c r="AM74" s="42"/>
+      <c r="AN74" s="44"/>
+      <c r="AO74" s="55"/>
       <c r="AP74" s="39"/>
       <c r="AQ74" s="42"/>
       <c r="AR74" s="42"/>
@@ -7824,31 +8004,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P75" s="1"/>
-      <c r="Q75" s="139"/>
-      <c r="R75" s="139"/>
-      <c r="S75" s="139"/>
-      <c r="T75" s="139"/>
-      <c r="U75" s="146"/>
-      <c r="V75" s="147"/>
-      <c r="W75" s="148"/>
-      <c r="X75" s="148"/>
-      <c r="Y75" s="148"/>
-      <c r="Z75" s="139"/>
-      <c r="AA75" s="142"/>
-      <c r="AB75" s="146"/>
-      <c r="AC75" s="137"/>
-      <c r="AD75" s="139"/>
-      <c r="AE75" s="139"/>
-      <c r="AF75" s="139"/>
-      <c r="AG75" s="139"/>
-      <c r="AH75" s="146"/>
-      <c r="AI75" s="147"/>
-      <c r="AJ75" s="148"/>
-      <c r="AK75" s="148"/>
-      <c r="AL75" s="148"/>
-      <c r="AM75" s="139"/>
-      <c r="AN75" s="142"/>
-      <c r="AO75" s="146"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="51"/>
+      <c r="V75" s="52"/>
+      <c r="W75" s="53"/>
+      <c r="X75" s="53"/>
+      <c r="Y75" s="53"/>
+      <c r="Z75" s="43"/>
+      <c r="AA75" s="47"/>
+      <c r="AB75" s="51"/>
+      <c r="AC75" s="39"/>
+      <c r="AD75" s="43"/>
+      <c r="AE75" s="43"/>
+      <c r="AF75" s="43"/>
+      <c r="AG75" s="43"/>
+      <c r="AH75" s="51"/>
+      <c r="AI75" s="52"/>
+      <c r="AJ75" s="53"/>
+      <c r="AK75" s="53"/>
+      <c r="AL75" s="53"/>
+      <c r="AM75" s="43"/>
+      <c r="AN75" s="47"/>
+      <c r="AO75" s="51"/>
       <c r="AP75" s="39"/>
       <c r="AQ75" s="43"/>
       <c r="AR75" s="43"/>
@@ -7905,31 +8085,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P76" s="1"/>
-      <c r="Q76" s="138"/>
-      <c r="R76" s="138"/>
-      <c r="S76" s="138"/>
-      <c r="T76" s="138"/>
-      <c r="U76" s="150"/>
-      <c r="V76" s="154"/>
-      <c r="W76" s="152"/>
-      <c r="X76" s="152"/>
-      <c r="Y76" s="152"/>
-      <c r="Z76" s="138"/>
-      <c r="AA76" s="143"/>
-      <c r="AB76" s="150"/>
-      <c r="AC76" s="137"/>
-      <c r="AD76" s="138"/>
-      <c r="AE76" s="138"/>
-      <c r="AF76" s="138"/>
-      <c r="AG76" s="138"/>
-      <c r="AH76" s="150"/>
-      <c r="AI76" s="154"/>
-      <c r="AJ76" s="152"/>
-      <c r="AK76" s="152"/>
-      <c r="AL76" s="152"/>
-      <c r="AM76" s="138"/>
-      <c r="AN76" s="143"/>
-      <c r="AO76" s="150"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="42"/>
+      <c r="U76" s="55"/>
+      <c r="V76" s="58"/>
+      <c r="W76" s="57"/>
+      <c r="X76" s="57"/>
+      <c r="Y76" s="57"/>
+      <c r="Z76" s="42"/>
+      <c r="AA76" s="44"/>
+      <c r="AB76" s="55"/>
+      <c r="AC76" s="39"/>
+      <c r="AD76" s="42"/>
+      <c r="AE76" s="42"/>
+      <c r="AF76" s="42"/>
+      <c r="AG76" s="42"/>
+      <c r="AH76" s="55"/>
+      <c r="AI76" s="58"/>
+      <c r="AJ76" s="57"/>
+      <c r="AK76" s="57"/>
+      <c r="AL76" s="57"/>
+      <c r="AM76" s="42"/>
+      <c r="AN76" s="44"/>
+      <c r="AO76" s="55"/>
       <c r="AP76" s="39"/>
       <c r="AQ76" s="42"/>
       <c r="AR76" s="42"/>
@@ -7986,31 +8166,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P77" s="1"/>
-      <c r="Q77" s="139"/>
-      <c r="R77" s="139"/>
-      <c r="S77" s="139"/>
-      <c r="T77" s="139"/>
-      <c r="U77" s="146"/>
-      <c r="V77" s="147"/>
-      <c r="W77" s="148"/>
-      <c r="X77" s="148"/>
-      <c r="Y77" s="148"/>
-      <c r="Z77" s="139"/>
-      <c r="AA77" s="142"/>
-      <c r="AB77" s="146"/>
-      <c r="AC77" s="137"/>
-      <c r="AD77" s="139"/>
-      <c r="AE77" s="139"/>
-      <c r="AF77" s="139"/>
-      <c r="AG77" s="139"/>
-      <c r="AH77" s="146"/>
-      <c r="AI77" s="147"/>
-      <c r="AJ77" s="148"/>
-      <c r="AK77" s="148"/>
-      <c r="AL77" s="148"/>
-      <c r="AM77" s="139"/>
-      <c r="AN77" s="142"/>
-      <c r="AO77" s="146"/>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="43"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="43"/>
+      <c r="U77" s="51"/>
+      <c r="V77" s="52"/>
+      <c r="W77" s="53"/>
+      <c r="X77" s="53"/>
+      <c r="Y77" s="53"/>
+      <c r="Z77" s="43"/>
+      <c r="AA77" s="47"/>
+      <c r="AB77" s="51"/>
+      <c r="AC77" s="39"/>
+      <c r="AD77" s="43"/>
+      <c r="AE77" s="43"/>
+      <c r="AF77" s="43"/>
+      <c r="AG77" s="43"/>
+      <c r="AH77" s="51"/>
+      <c r="AI77" s="52"/>
+      <c r="AJ77" s="53"/>
+      <c r="AK77" s="53"/>
+      <c r="AL77" s="53"/>
+      <c r="AM77" s="43"/>
+      <c r="AN77" s="47"/>
+      <c r="AO77" s="51"/>
       <c r="AP77" s="39"/>
       <c r="AQ77" s="43"/>
       <c r="AR77" s="43"/>
@@ -8067,31 +8247,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P78" s="1"/>
-      <c r="Q78" s="138"/>
-      <c r="R78" s="138"/>
-      <c r="S78" s="138"/>
-      <c r="T78" s="138"/>
-      <c r="U78" s="150"/>
-      <c r="V78" s="154"/>
-      <c r="W78" s="152"/>
-      <c r="X78" s="152"/>
-      <c r="Y78" s="152"/>
-      <c r="Z78" s="138"/>
-      <c r="AA78" s="143"/>
-      <c r="AB78" s="150"/>
-      <c r="AC78" s="137"/>
-      <c r="AD78" s="138"/>
-      <c r="AE78" s="138"/>
-      <c r="AF78" s="138"/>
-      <c r="AG78" s="138"/>
-      <c r="AH78" s="150"/>
-      <c r="AI78" s="154"/>
-      <c r="AJ78" s="152"/>
-      <c r="AK78" s="152"/>
-      <c r="AL78" s="152"/>
-      <c r="AM78" s="138"/>
-      <c r="AN78" s="143"/>
-      <c r="AO78" s="150"/>
+      <c r="Q78" s="42"/>
+      <c r="R78" s="42"/>
+      <c r="S78" s="42"/>
+      <c r="T78" s="42"/>
+      <c r="U78" s="55"/>
+      <c r="V78" s="58"/>
+      <c r="W78" s="57"/>
+      <c r="X78" s="57"/>
+      <c r="Y78" s="57"/>
+      <c r="Z78" s="42"/>
+      <c r="AA78" s="44"/>
+      <c r="AB78" s="55"/>
+      <c r="AC78" s="39"/>
+      <c r="AD78" s="42"/>
+      <c r="AE78" s="42"/>
+      <c r="AF78" s="42"/>
+      <c r="AG78" s="42"/>
+      <c r="AH78" s="55"/>
+      <c r="AI78" s="58"/>
+      <c r="AJ78" s="57"/>
+      <c r="AK78" s="57"/>
+      <c r="AL78" s="57"/>
+      <c r="AM78" s="42"/>
+      <c r="AN78" s="44"/>
+      <c r="AO78" s="55"/>
       <c r="AP78" s="39"/>
       <c r="AQ78" s="42"/>
       <c r="AR78" s="42"/>
@@ -8148,31 +8328,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P79" s="1"/>
-      <c r="Q79" s="139"/>
-      <c r="R79" s="139"/>
-      <c r="S79" s="139"/>
-      <c r="T79" s="139"/>
-      <c r="U79" s="146"/>
-      <c r="V79" s="147"/>
-      <c r="W79" s="148"/>
-      <c r="X79" s="148"/>
-      <c r="Y79" s="148"/>
-      <c r="Z79" s="139"/>
-      <c r="AA79" s="142"/>
-      <c r="AB79" s="146"/>
-      <c r="AC79" s="137"/>
-      <c r="AD79" s="139"/>
-      <c r="AE79" s="139"/>
-      <c r="AF79" s="139"/>
-      <c r="AG79" s="139"/>
-      <c r="AH79" s="146"/>
-      <c r="AI79" s="147"/>
-      <c r="AJ79" s="148"/>
-      <c r="AK79" s="148"/>
-      <c r="AL79" s="148"/>
-      <c r="AM79" s="139"/>
-      <c r="AN79" s="142"/>
-      <c r="AO79" s="146"/>
+      <c r="Q79" s="43"/>
+      <c r="R79" s="43"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="43"/>
+      <c r="U79" s="51"/>
+      <c r="V79" s="52"/>
+      <c r="W79" s="53"/>
+      <c r="X79" s="53"/>
+      <c r="Y79" s="53"/>
+      <c r="Z79" s="43"/>
+      <c r="AA79" s="47"/>
+      <c r="AB79" s="51"/>
+      <c r="AC79" s="39"/>
+      <c r="AD79" s="43"/>
+      <c r="AE79" s="43"/>
+      <c r="AF79" s="43"/>
+      <c r="AG79" s="43"/>
+      <c r="AH79" s="51"/>
+      <c r="AI79" s="52"/>
+      <c r="AJ79" s="53"/>
+      <c r="AK79" s="53"/>
+      <c r="AL79" s="53"/>
+      <c r="AM79" s="43"/>
+      <c r="AN79" s="47"/>
+      <c r="AO79" s="51"/>
       <c r="AP79" s="39"/>
       <c r="AQ79" s="43"/>
       <c r="AR79" s="43"/>
@@ -8229,31 +8409,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P80" s="1"/>
-      <c r="Q80" s="138"/>
-      <c r="R80" s="138"/>
-      <c r="S80" s="138"/>
-      <c r="T80" s="138"/>
-      <c r="U80" s="150"/>
-      <c r="V80" s="154"/>
-      <c r="W80" s="152"/>
-      <c r="X80" s="152"/>
-      <c r="Y80" s="152"/>
-      <c r="Z80" s="138"/>
-      <c r="AA80" s="143"/>
-      <c r="AB80" s="150"/>
-      <c r="AC80" s="137"/>
-      <c r="AD80" s="138"/>
-      <c r="AE80" s="138"/>
-      <c r="AF80" s="138"/>
-      <c r="AG80" s="138"/>
-      <c r="AH80" s="150"/>
-      <c r="AI80" s="154"/>
-      <c r="AJ80" s="152"/>
-      <c r="AK80" s="152"/>
-      <c r="AL80" s="152"/>
-      <c r="AM80" s="138"/>
-      <c r="AN80" s="143"/>
-      <c r="AO80" s="150"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="42"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="42"/>
+      <c r="U80" s="55"/>
+      <c r="V80" s="58"/>
+      <c r="W80" s="57"/>
+      <c r="X80" s="57"/>
+      <c r="Y80" s="57"/>
+      <c r="Z80" s="42"/>
+      <c r="AA80" s="44"/>
+      <c r="AB80" s="55"/>
+      <c r="AC80" s="39"/>
+      <c r="AD80" s="42"/>
+      <c r="AE80" s="42"/>
+      <c r="AF80" s="42"/>
+      <c r="AG80" s="42"/>
+      <c r="AH80" s="55"/>
+      <c r="AI80" s="58"/>
+      <c r="AJ80" s="57"/>
+      <c r="AK80" s="57"/>
+      <c r="AL80" s="57"/>
+      <c r="AM80" s="42"/>
+      <c r="AN80" s="44"/>
+      <c r="AO80" s="55"/>
       <c r="AP80" s="39"/>
       <c r="AQ80" s="42"/>
       <c r="AR80" s="42"/>
@@ -8310,31 +8490,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P81" s="1"/>
-      <c r="Q81" s="139"/>
-      <c r="R81" s="139"/>
-      <c r="S81" s="139"/>
-      <c r="T81" s="139"/>
-      <c r="U81" s="146"/>
-      <c r="V81" s="147"/>
-      <c r="W81" s="148"/>
-      <c r="X81" s="148"/>
-      <c r="Y81" s="148"/>
-      <c r="Z81" s="139"/>
-      <c r="AA81" s="142"/>
-      <c r="AB81" s="146"/>
-      <c r="AC81" s="137"/>
-      <c r="AD81" s="139"/>
-      <c r="AE81" s="139"/>
-      <c r="AF81" s="139"/>
-      <c r="AG81" s="139"/>
-      <c r="AH81" s="146"/>
-      <c r="AI81" s="147"/>
-      <c r="AJ81" s="148"/>
-      <c r="AK81" s="148"/>
-      <c r="AL81" s="148"/>
-      <c r="AM81" s="139"/>
-      <c r="AN81" s="142"/>
-      <c r="AO81" s="146"/>
+      <c r="Q81" s="43"/>
+      <c r="R81" s="43"/>
+      <c r="S81" s="43"/>
+      <c r="T81" s="43"/>
+      <c r="U81" s="51"/>
+      <c r="V81" s="52"/>
+      <c r="W81" s="53"/>
+      <c r="X81" s="53"/>
+      <c r="Y81" s="53"/>
+      <c r="Z81" s="43"/>
+      <c r="AA81" s="47"/>
+      <c r="AB81" s="51"/>
+      <c r="AC81" s="39"/>
+      <c r="AD81" s="43"/>
+      <c r="AE81" s="43"/>
+      <c r="AF81" s="43"/>
+      <c r="AG81" s="43"/>
+      <c r="AH81" s="51"/>
+      <c r="AI81" s="52"/>
+      <c r="AJ81" s="53"/>
+      <c r="AK81" s="53"/>
+      <c r="AL81" s="53"/>
+      <c r="AM81" s="43"/>
+      <c r="AN81" s="47"/>
+      <c r="AO81" s="51"/>
       <c r="AP81" s="39"/>
       <c r="AQ81" s="43"/>
       <c r="AR81" s="43"/>
@@ -8391,31 +8571,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P82" s="1"/>
-      <c r="Q82" s="138"/>
-      <c r="R82" s="138"/>
-      <c r="S82" s="138"/>
-      <c r="T82" s="138"/>
-      <c r="U82" s="150"/>
-      <c r="V82" s="154"/>
-      <c r="W82" s="152"/>
-      <c r="X82" s="152"/>
-      <c r="Y82" s="152"/>
-      <c r="Z82" s="138"/>
-      <c r="AA82" s="143"/>
-      <c r="AB82" s="150"/>
-      <c r="AC82" s="137"/>
-      <c r="AD82" s="138"/>
-      <c r="AE82" s="138"/>
-      <c r="AF82" s="138"/>
-      <c r="AG82" s="138"/>
-      <c r="AH82" s="150"/>
-      <c r="AI82" s="154"/>
-      <c r="AJ82" s="152"/>
-      <c r="AK82" s="152"/>
-      <c r="AL82" s="152"/>
-      <c r="AM82" s="138"/>
-      <c r="AN82" s="143"/>
-      <c r="AO82" s="150"/>
+      <c r="Q82" s="42"/>
+      <c r="R82" s="42"/>
+      <c r="S82" s="42"/>
+      <c r="T82" s="42"/>
+      <c r="U82" s="55"/>
+      <c r="V82" s="58"/>
+      <c r="W82" s="57"/>
+      <c r="X82" s="57"/>
+      <c r="Y82" s="57"/>
+      <c r="Z82" s="42"/>
+      <c r="AA82" s="44"/>
+      <c r="AB82" s="55"/>
+      <c r="AC82" s="39"/>
+      <c r="AD82" s="42"/>
+      <c r="AE82" s="42"/>
+      <c r="AF82" s="42"/>
+      <c r="AG82" s="42"/>
+      <c r="AH82" s="55"/>
+      <c r="AI82" s="58"/>
+      <c r="AJ82" s="57"/>
+      <c r="AK82" s="57"/>
+      <c r="AL82" s="57"/>
+      <c r="AM82" s="42"/>
+      <c r="AN82" s="44"/>
+      <c r="AO82" s="55"/>
       <c r="AP82" s="39"/>
       <c r="AQ82" s="42"/>
       <c r="AR82" s="42"/>
@@ -8472,31 +8652,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P83" s="1"/>
-      <c r="Q83" s="139"/>
-      <c r="R83" s="139"/>
-      <c r="S83" s="139"/>
-      <c r="T83" s="139"/>
-      <c r="U83" s="146"/>
-      <c r="V83" s="147"/>
-      <c r="W83" s="148"/>
-      <c r="X83" s="148"/>
-      <c r="Y83" s="148"/>
-      <c r="Z83" s="139"/>
-      <c r="AA83" s="142"/>
-      <c r="AB83" s="146"/>
-      <c r="AC83" s="137"/>
-      <c r="AD83" s="139"/>
-      <c r="AE83" s="139"/>
-      <c r="AF83" s="139"/>
-      <c r="AG83" s="139"/>
-      <c r="AH83" s="146"/>
-      <c r="AI83" s="147"/>
-      <c r="AJ83" s="148"/>
-      <c r="AK83" s="148"/>
-      <c r="AL83" s="148"/>
-      <c r="AM83" s="139"/>
-      <c r="AN83" s="142"/>
-      <c r="AO83" s="146"/>
+      <c r="Q83" s="43"/>
+      <c r="R83" s="43"/>
+      <c r="S83" s="43"/>
+      <c r="T83" s="43"/>
+      <c r="U83" s="51"/>
+      <c r="V83" s="52"/>
+      <c r="W83" s="53"/>
+      <c r="X83" s="53"/>
+      <c r="Y83" s="53"/>
+      <c r="Z83" s="43"/>
+      <c r="AA83" s="47"/>
+      <c r="AB83" s="51"/>
+      <c r="AC83" s="39"/>
+      <c r="AD83" s="43"/>
+      <c r="AE83" s="43"/>
+      <c r="AF83" s="43"/>
+      <c r="AG83" s="43"/>
+      <c r="AH83" s="51"/>
+      <c r="AI83" s="52"/>
+      <c r="AJ83" s="53"/>
+      <c r="AK83" s="53"/>
+      <c r="AL83" s="53"/>
+      <c r="AM83" s="43"/>
+      <c r="AN83" s="47"/>
+      <c r="AO83" s="51"/>
       <c r="AP83" s="39"/>
       <c r="AQ83" s="43"/>
       <c r="AR83" s="43"/>
@@ -8553,31 +8733,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P84" s="1"/>
-      <c r="Q84" s="138"/>
-      <c r="R84" s="138"/>
-      <c r="S84" s="138"/>
-      <c r="T84" s="138"/>
-      <c r="U84" s="150"/>
-      <c r="V84" s="154"/>
-      <c r="W84" s="152"/>
-      <c r="X84" s="152"/>
-      <c r="Y84" s="152"/>
-      <c r="Z84" s="138"/>
-      <c r="AA84" s="143"/>
-      <c r="AB84" s="150"/>
-      <c r="AC84" s="137"/>
-      <c r="AD84" s="138"/>
-      <c r="AE84" s="138"/>
-      <c r="AF84" s="138"/>
-      <c r="AG84" s="138"/>
-      <c r="AH84" s="150"/>
-      <c r="AI84" s="154"/>
-      <c r="AJ84" s="152"/>
-      <c r="AK84" s="152"/>
-      <c r="AL84" s="152"/>
-      <c r="AM84" s="138"/>
-      <c r="AN84" s="143"/>
-      <c r="AO84" s="150"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="42"/>
+      <c r="S84" s="42"/>
+      <c r="T84" s="42"/>
+      <c r="U84" s="55"/>
+      <c r="V84" s="58"/>
+      <c r="W84" s="57"/>
+      <c r="X84" s="57"/>
+      <c r="Y84" s="57"/>
+      <c r="Z84" s="42"/>
+      <c r="AA84" s="44"/>
+      <c r="AB84" s="55"/>
+      <c r="AC84" s="39"/>
+      <c r="AD84" s="42"/>
+      <c r="AE84" s="42"/>
+      <c r="AF84" s="42"/>
+      <c r="AG84" s="42"/>
+      <c r="AH84" s="55"/>
+      <c r="AI84" s="58"/>
+      <c r="AJ84" s="57"/>
+      <c r="AK84" s="57"/>
+      <c r="AL84" s="57"/>
+      <c r="AM84" s="42"/>
+      <c r="AN84" s="44"/>
+      <c r="AO84" s="55"/>
       <c r="AP84" s="39"/>
       <c r="AQ84" s="42"/>
       <c r="AR84" s="42"/>
@@ -8634,31 +8814,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P85" s="1"/>
-      <c r="Q85" s="139"/>
-      <c r="R85" s="139"/>
-      <c r="S85" s="139"/>
-      <c r="T85" s="139"/>
-      <c r="U85" s="146"/>
-      <c r="V85" s="147"/>
-      <c r="W85" s="148"/>
-      <c r="X85" s="148"/>
-      <c r="Y85" s="148"/>
-      <c r="Z85" s="139"/>
-      <c r="AA85" s="142"/>
-      <c r="AB85" s="146"/>
-      <c r="AC85" s="137"/>
-      <c r="AD85" s="139"/>
-      <c r="AE85" s="139"/>
-      <c r="AF85" s="139"/>
-      <c r="AG85" s="139"/>
-      <c r="AH85" s="146"/>
-      <c r="AI85" s="147"/>
-      <c r="AJ85" s="148"/>
-      <c r="AK85" s="148"/>
-      <c r="AL85" s="148"/>
-      <c r="AM85" s="139"/>
-      <c r="AN85" s="142"/>
-      <c r="AO85" s="146"/>
+      <c r="Q85" s="43"/>
+      <c r="R85" s="43"/>
+      <c r="S85" s="43"/>
+      <c r="T85" s="43"/>
+      <c r="U85" s="51"/>
+      <c r="V85" s="52"/>
+      <c r="W85" s="53"/>
+      <c r="X85" s="53"/>
+      <c r="Y85" s="53"/>
+      <c r="Z85" s="43"/>
+      <c r="AA85" s="47"/>
+      <c r="AB85" s="51"/>
+      <c r="AC85" s="39"/>
+      <c r="AD85" s="43"/>
+      <c r="AE85" s="43"/>
+      <c r="AF85" s="43"/>
+      <c r="AG85" s="43"/>
+      <c r="AH85" s="51"/>
+      <c r="AI85" s="52"/>
+      <c r="AJ85" s="53"/>
+      <c r="AK85" s="53"/>
+      <c r="AL85" s="53"/>
+      <c r="AM85" s="43"/>
+      <c r="AN85" s="47"/>
+      <c r="AO85" s="51"/>
       <c r="AP85" s="39"/>
       <c r="AQ85" s="43"/>
       <c r="AR85" s="43"/>
@@ -8715,31 +8895,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P86" s="1"/>
-      <c r="Q86" s="138"/>
-      <c r="R86" s="138"/>
-      <c r="S86" s="138"/>
-      <c r="T86" s="138"/>
-      <c r="U86" s="150"/>
-      <c r="V86" s="154"/>
-      <c r="W86" s="152"/>
-      <c r="X86" s="152"/>
-      <c r="Y86" s="152"/>
-      <c r="Z86" s="138"/>
-      <c r="AA86" s="143"/>
-      <c r="AB86" s="150"/>
-      <c r="AC86" s="137"/>
-      <c r="AD86" s="138"/>
-      <c r="AE86" s="138"/>
-      <c r="AF86" s="138"/>
-      <c r="AG86" s="138"/>
-      <c r="AH86" s="150"/>
-      <c r="AI86" s="154"/>
-      <c r="AJ86" s="152"/>
-      <c r="AK86" s="152"/>
-      <c r="AL86" s="152"/>
-      <c r="AM86" s="138"/>
-      <c r="AN86" s="143"/>
-      <c r="AO86" s="150"/>
+      <c r="Q86" s="42"/>
+      <c r="R86" s="42"/>
+      <c r="S86" s="42"/>
+      <c r="T86" s="42"/>
+      <c r="U86" s="55"/>
+      <c r="V86" s="58"/>
+      <c r="W86" s="57"/>
+      <c r="X86" s="57"/>
+      <c r="Y86" s="57"/>
+      <c r="Z86" s="42"/>
+      <c r="AA86" s="44"/>
+      <c r="AB86" s="55"/>
+      <c r="AC86" s="39"/>
+      <c r="AD86" s="42"/>
+      <c r="AE86" s="42"/>
+      <c r="AF86" s="42"/>
+      <c r="AG86" s="42"/>
+      <c r="AH86" s="55"/>
+      <c r="AI86" s="58"/>
+      <c r="AJ86" s="57"/>
+      <c r="AK86" s="57"/>
+      <c r="AL86" s="57"/>
+      <c r="AM86" s="42"/>
+      <c r="AN86" s="44"/>
+      <c r="AO86" s="55"/>
       <c r="AP86" s="39"/>
       <c r="AQ86" s="42"/>
       <c r="AR86" s="42"/>
@@ -8796,31 +8976,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P87" s="1"/>
-      <c r="Q87" s="139"/>
-      <c r="R87" s="139"/>
-      <c r="S87" s="139"/>
-      <c r="T87" s="139"/>
-      <c r="U87" s="146"/>
-      <c r="V87" s="147"/>
-      <c r="W87" s="148"/>
-      <c r="X87" s="148"/>
-      <c r="Y87" s="148"/>
-      <c r="Z87" s="139"/>
-      <c r="AA87" s="142"/>
-      <c r="AB87" s="146"/>
-      <c r="AC87" s="137"/>
-      <c r="AD87" s="139"/>
-      <c r="AE87" s="139"/>
-      <c r="AF87" s="139"/>
-      <c r="AG87" s="139"/>
-      <c r="AH87" s="146"/>
-      <c r="AI87" s="147"/>
-      <c r="AJ87" s="148"/>
-      <c r="AK87" s="148"/>
-      <c r="AL87" s="148"/>
-      <c r="AM87" s="139"/>
-      <c r="AN87" s="142"/>
-      <c r="AO87" s="146"/>
+      <c r="Q87" s="43"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="43"/>
+      <c r="U87" s="51"/>
+      <c r="V87" s="52"/>
+      <c r="W87" s="53"/>
+      <c r="X87" s="53"/>
+      <c r="Y87" s="53"/>
+      <c r="Z87" s="43"/>
+      <c r="AA87" s="47"/>
+      <c r="AB87" s="51"/>
+      <c r="AC87" s="39"/>
+      <c r="AD87" s="43"/>
+      <c r="AE87" s="43"/>
+      <c r="AF87" s="43"/>
+      <c r="AG87" s="43"/>
+      <c r="AH87" s="51"/>
+      <c r="AI87" s="52"/>
+      <c r="AJ87" s="53"/>
+      <c r="AK87" s="53"/>
+      <c r="AL87" s="53"/>
+      <c r="AM87" s="43"/>
+      <c r="AN87" s="47"/>
+      <c r="AO87" s="51"/>
       <c r="AP87" s="39"/>
       <c r="AQ87" s="43"/>
       <c r="AR87" s="43"/>
@@ -8877,31 +9057,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P88" s="1"/>
-      <c r="Q88" s="138"/>
-      <c r="R88" s="138"/>
-      <c r="S88" s="138"/>
-      <c r="T88" s="138"/>
-      <c r="U88" s="150"/>
-      <c r="V88" s="154"/>
-      <c r="W88" s="152"/>
-      <c r="X88" s="152"/>
-      <c r="Y88" s="152"/>
-      <c r="Z88" s="138"/>
-      <c r="AA88" s="143"/>
-      <c r="AB88" s="150"/>
-      <c r="AC88" s="137"/>
-      <c r="AD88" s="138"/>
-      <c r="AE88" s="138"/>
-      <c r="AF88" s="138"/>
-      <c r="AG88" s="138"/>
-      <c r="AH88" s="150"/>
-      <c r="AI88" s="154"/>
-      <c r="AJ88" s="152"/>
-      <c r="AK88" s="152"/>
-      <c r="AL88" s="152"/>
-      <c r="AM88" s="138"/>
-      <c r="AN88" s="143"/>
-      <c r="AO88" s="150"/>
+      <c r="Q88" s="42"/>
+      <c r="R88" s="42"/>
+      <c r="S88" s="42"/>
+      <c r="T88" s="42"/>
+      <c r="U88" s="55"/>
+      <c r="V88" s="58"/>
+      <c r="W88" s="57"/>
+      <c r="X88" s="57"/>
+      <c r="Y88" s="57"/>
+      <c r="Z88" s="42"/>
+      <c r="AA88" s="44"/>
+      <c r="AB88" s="55"/>
+      <c r="AC88" s="39"/>
+      <c r="AD88" s="42"/>
+      <c r="AE88" s="42"/>
+      <c r="AF88" s="42"/>
+      <c r="AG88" s="42"/>
+      <c r="AH88" s="55"/>
+      <c r="AI88" s="58"/>
+      <c r="AJ88" s="57"/>
+      <c r="AK88" s="57"/>
+      <c r="AL88" s="57"/>
+      <c r="AM88" s="42"/>
+      <c r="AN88" s="44"/>
+      <c r="AO88" s="55"/>
       <c r="AP88" s="39"/>
       <c r="AQ88" s="42"/>
       <c r="AR88" s="42"/>
@@ -8958,31 +9138,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P89" s="1"/>
-      <c r="Q89" s="139"/>
-      <c r="R89" s="139"/>
-      <c r="S89" s="139"/>
-      <c r="T89" s="139"/>
-      <c r="U89" s="146"/>
-      <c r="V89" s="147"/>
-      <c r="W89" s="148"/>
-      <c r="X89" s="148"/>
-      <c r="Y89" s="148"/>
-      <c r="Z89" s="139"/>
-      <c r="AA89" s="142"/>
-      <c r="AB89" s="146"/>
-      <c r="AC89" s="137"/>
-      <c r="AD89" s="139"/>
-      <c r="AE89" s="139"/>
-      <c r="AF89" s="139"/>
-      <c r="AG89" s="139"/>
-      <c r="AH89" s="146"/>
-      <c r="AI89" s="147"/>
-      <c r="AJ89" s="148"/>
-      <c r="AK89" s="148"/>
-      <c r="AL89" s="148"/>
-      <c r="AM89" s="139"/>
-      <c r="AN89" s="142"/>
-      <c r="AO89" s="146"/>
+      <c r="Q89" s="43"/>
+      <c r="R89" s="43"/>
+      <c r="S89" s="43"/>
+      <c r="T89" s="43"/>
+      <c r="U89" s="51"/>
+      <c r="V89" s="52"/>
+      <c r="W89" s="53"/>
+      <c r="X89" s="53"/>
+      <c r="Y89" s="53"/>
+      <c r="Z89" s="43"/>
+      <c r="AA89" s="47"/>
+      <c r="AB89" s="51"/>
+      <c r="AC89" s="39"/>
+      <c r="AD89" s="43"/>
+      <c r="AE89" s="43"/>
+      <c r="AF89" s="43"/>
+      <c r="AG89" s="43"/>
+      <c r="AH89" s="51"/>
+      <c r="AI89" s="52"/>
+      <c r="AJ89" s="53"/>
+      <c r="AK89" s="53"/>
+      <c r="AL89" s="53"/>
+      <c r="AM89" s="43"/>
+      <c r="AN89" s="47"/>
+      <c r="AO89" s="51"/>
       <c r="AP89" s="39"/>
       <c r="AQ89" s="43"/>
       <c r="AR89" s="43"/>
@@ -9039,31 +9219,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P90" s="1"/>
-      <c r="Q90" s="138"/>
-      <c r="R90" s="138"/>
-      <c r="S90" s="138"/>
-      <c r="T90" s="138"/>
-      <c r="U90" s="150"/>
-      <c r="V90" s="154"/>
-      <c r="W90" s="152"/>
-      <c r="X90" s="152"/>
-      <c r="Y90" s="152"/>
-      <c r="Z90" s="138"/>
-      <c r="AA90" s="143"/>
-      <c r="AB90" s="150"/>
-      <c r="AC90" s="137"/>
-      <c r="AD90" s="138"/>
-      <c r="AE90" s="138"/>
-      <c r="AF90" s="138"/>
-      <c r="AG90" s="138"/>
-      <c r="AH90" s="150"/>
-      <c r="AI90" s="154"/>
-      <c r="AJ90" s="152"/>
-      <c r="AK90" s="152"/>
-      <c r="AL90" s="152"/>
-      <c r="AM90" s="138"/>
-      <c r="AN90" s="143"/>
-      <c r="AO90" s="150"/>
+      <c r="Q90" s="42"/>
+      <c r="R90" s="42"/>
+      <c r="S90" s="42"/>
+      <c r="T90" s="42"/>
+      <c r="U90" s="55"/>
+      <c r="V90" s="58"/>
+      <c r="W90" s="57"/>
+      <c r="X90" s="57"/>
+      <c r="Y90" s="57"/>
+      <c r="Z90" s="42"/>
+      <c r="AA90" s="44"/>
+      <c r="AB90" s="55"/>
+      <c r="AC90" s="39"/>
+      <c r="AD90" s="42"/>
+      <c r="AE90" s="42"/>
+      <c r="AF90" s="42"/>
+      <c r="AG90" s="42"/>
+      <c r="AH90" s="55"/>
+      <c r="AI90" s="58"/>
+      <c r="AJ90" s="57"/>
+      <c r="AK90" s="57"/>
+      <c r="AL90" s="57"/>
+      <c r="AM90" s="42"/>
+      <c r="AN90" s="44"/>
+      <c r="AO90" s="55"/>
       <c r="AP90" s="39"/>
       <c r="AQ90" s="42"/>
       <c r="AR90" s="42"/>
@@ -9120,31 +9300,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P91" s="1"/>
-      <c r="Q91" s="139"/>
-      <c r="R91" s="139"/>
-      <c r="S91" s="139"/>
-      <c r="T91" s="139"/>
-      <c r="U91" s="146"/>
-      <c r="V91" s="147"/>
-      <c r="W91" s="148"/>
-      <c r="X91" s="148"/>
-      <c r="Y91" s="148"/>
-      <c r="Z91" s="139"/>
-      <c r="AA91" s="142"/>
-      <c r="AB91" s="146"/>
-      <c r="AC91" s="137"/>
-      <c r="AD91" s="139"/>
-      <c r="AE91" s="139"/>
-      <c r="AF91" s="139"/>
-      <c r="AG91" s="139"/>
-      <c r="AH91" s="146"/>
-      <c r="AI91" s="147"/>
-      <c r="AJ91" s="148"/>
-      <c r="AK91" s="148"/>
-      <c r="AL91" s="148"/>
-      <c r="AM91" s="139"/>
-      <c r="AN91" s="142"/>
-      <c r="AO91" s="146"/>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="43"/>
+      <c r="S91" s="43"/>
+      <c r="T91" s="43"/>
+      <c r="U91" s="51"/>
+      <c r="V91" s="52"/>
+      <c r="W91" s="53"/>
+      <c r="X91" s="53"/>
+      <c r="Y91" s="53"/>
+      <c r="Z91" s="43"/>
+      <c r="AA91" s="47"/>
+      <c r="AB91" s="51"/>
+      <c r="AC91" s="39"/>
+      <c r="AD91" s="43"/>
+      <c r="AE91" s="43"/>
+      <c r="AF91" s="43"/>
+      <c r="AG91" s="43"/>
+      <c r="AH91" s="51"/>
+      <c r="AI91" s="52"/>
+      <c r="AJ91" s="53"/>
+      <c r="AK91" s="53"/>
+      <c r="AL91" s="53"/>
+      <c r="AM91" s="43"/>
+      <c r="AN91" s="47"/>
+      <c r="AO91" s="51"/>
       <c r="AP91" s="39"/>
       <c r="AQ91" s="43"/>
       <c r="AR91" s="43"/>
@@ -9201,31 +9381,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P92" s="1"/>
-      <c r="Q92" s="138"/>
-      <c r="R92" s="138"/>
-      <c r="S92" s="138"/>
-      <c r="T92" s="138"/>
-      <c r="U92" s="150"/>
-      <c r="V92" s="154"/>
-      <c r="W92" s="152"/>
-      <c r="X92" s="152"/>
-      <c r="Y92" s="152"/>
-      <c r="Z92" s="138"/>
-      <c r="AA92" s="143"/>
-      <c r="AB92" s="150"/>
-      <c r="AC92" s="137"/>
-      <c r="AD92" s="138"/>
-      <c r="AE92" s="138"/>
-      <c r="AF92" s="138"/>
-      <c r="AG92" s="138"/>
-      <c r="AH92" s="150"/>
-      <c r="AI92" s="154"/>
-      <c r="AJ92" s="152"/>
-      <c r="AK92" s="152"/>
-      <c r="AL92" s="152"/>
-      <c r="AM92" s="138"/>
-      <c r="AN92" s="143"/>
-      <c r="AO92" s="150"/>
+      <c r="Q92" s="42"/>
+      <c r="R92" s="42"/>
+      <c r="S92" s="42"/>
+      <c r="T92" s="42"/>
+      <c r="U92" s="55"/>
+      <c r="V92" s="58"/>
+      <c r="W92" s="57"/>
+      <c r="X92" s="57"/>
+      <c r="Y92" s="57"/>
+      <c r="Z92" s="42"/>
+      <c r="AA92" s="44"/>
+      <c r="AB92" s="55"/>
+      <c r="AC92" s="39"/>
+      <c r="AD92" s="42"/>
+      <c r="AE92" s="42"/>
+      <c r="AF92" s="42"/>
+      <c r="AG92" s="42"/>
+      <c r="AH92" s="55"/>
+      <c r="AI92" s="58"/>
+      <c r="AJ92" s="57"/>
+      <c r="AK92" s="57"/>
+      <c r="AL92" s="57"/>
+      <c r="AM92" s="42"/>
+      <c r="AN92" s="44"/>
+      <c r="AO92" s="55"/>
       <c r="AP92" s="39"/>
       <c r="AQ92" s="42"/>
       <c r="AR92" s="42"/>
@@ -9282,31 +9462,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P93" s="1"/>
-      <c r="Q93" s="139"/>
-      <c r="R93" s="139"/>
-      <c r="S93" s="139"/>
-      <c r="T93" s="139"/>
-      <c r="U93" s="146"/>
-      <c r="V93" s="147"/>
-      <c r="W93" s="148"/>
-      <c r="X93" s="148"/>
-      <c r="Y93" s="148"/>
-      <c r="Z93" s="139"/>
-      <c r="AA93" s="142"/>
-      <c r="AB93" s="146"/>
-      <c r="AC93" s="137"/>
-      <c r="AD93" s="139"/>
-      <c r="AE93" s="139"/>
-      <c r="AF93" s="139"/>
-      <c r="AG93" s="139"/>
-      <c r="AH93" s="146"/>
-      <c r="AI93" s="147"/>
-      <c r="AJ93" s="148"/>
-      <c r="AK93" s="148"/>
-      <c r="AL93" s="148"/>
-      <c r="AM93" s="139"/>
-      <c r="AN93" s="142"/>
-      <c r="AO93" s="146"/>
+      <c r="Q93" s="43"/>
+      <c r="R93" s="43"/>
+      <c r="S93" s="43"/>
+      <c r="T93" s="43"/>
+      <c r="U93" s="51"/>
+      <c r="V93" s="52"/>
+      <c r="W93" s="53"/>
+      <c r="X93" s="53"/>
+      <c r="Y93" s="53"/>
+      <c r="Z93" s="43"/>
+      <c r="AA93" s="47"/>
+      <c r="AB93" s="51"/>
+      <c r="AC93" s="39"/>
+      <c r="AD93" s="43"/>
+      <c r="AE93" s="43"/>
+      <c r="AF93" s="43"/>
+      <c r="AG93" s="43"/>
+      <c r="AH93" s="51"/>
+      <c r="AI93" s="52"/>
+      <c r="AJ93" s="53"/>
+      <c r="AK93" s="53"/>
+      <c r="AL93" s="53"/>
+      <c r="AM93" s="43"/>
+      <c r="AN93" s="47"/>
+      <c r="AO93" s="51"/>
       <c r="AP93" s="39"/>
       <c r="AQ93" s="43"/>
       <c r="AR93" s="43"/>
@@ -9363,31 +9543,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P94" s="1"/>
-      <c r="Q94" s="138"/>
-      <c r="R94" s="138"/>
-      <c r="S94" s="138"/>
-      <c r="T94" s="138"/>
-      <c r="U94" s="150"/>
-      <c r="V94" s="154"/>
-      <c r="W94" s="152"/>
-      <c r="X94" s="152"/>
-      <c r="Y94" s="152"/>
-      <c r="Z94" s="138"/>
-      <c r="AA94" s="143"/>
-      <c r="AB94" s="150"/>
-      <c r="AC94" s="137"/>
-      <c r="AD94" s="138"/>
-      <c r="AE94" s="138"/>
-      <c r="AF94" s="138"/>
-      <c r="AG94" s="138"/>
-      <c r="AH94" s="150"/>
-      <c r="AI94" s="154"/>
-      <c r="AJ94" s="152"/>
-      <c r="AK94" s="152"/>
-      <c r="AL94" s="152"/>
-      <c r="AM94" s="138"/>
-      <c r="AN94" s="143"/>
-      <c r="AO94" s="150"/>
+      <c r="Q94" s="42"/>
+      <c r="R94" s="42"/>
+      <c r="S94" s="42"/>
+      <c r="T94" s="42"/>
+      <c r="U94" s="55"/>
+      <c r="V94" s="58"/>
+      <c r="W94" s="57"/>
+      <c r="X94" s="57"/>
+      <c r="Y94" s="57"/>
+      <c r="Z94" s="42"/>
+      <c r="AA94" s="44"/>
+      <c r="AB94" s="55"/>
+      <c r="AC94" s="39"/>
+      <c r="AD94" s="42"/>
+      <c r="AE94" s="42"/>
+      <c r="AF94" s="42"/>
+      <c r="AG94" s="42"/>
+      <c r="AH94" s="55"/>
+      <c r="AI94" s="58"/>
+      <c r="AJ94" s="57"/>
+      <c r="AK94" s="57"/>
+      <c r="AL94" s="57"/>
+      <c r="AM94" s="42"/>
+      <c r="AN94" s="44"/>
+      <c r="AO94" s="55"/>
       <c r="AP94" s="39"/>
       <c r="AQ94" s="42"/>
       <c r="AR94" s="42"/>
@@ -9444,31 +9624,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P95" s="1"/>
-      <c r="Q95" s="139"/>
-      <c r="R95" s="139"/>
-      <c r="S95" s="139"/>
-      <c r="T95" s="139"/>
-      <c r="U95" s="146"/>
-      <c r="V95" s="147"/>
-      <c r="W95" s="148"/>
-      <c r="X95" s="148"/>
-      <c r="Y95" s="148"/>
-      <c r="Z95" s="139"/>
-      <c r="AA95" s="142"/>
-      <c r="AB95" s="146"/>
-      <c r="AC95" s="137"/>
-      <c r="AD95" s="139"/>
-      <c r="AE95" s="139"/>
-      <c r="AF95" s="139"/>
-      <c r="AG95" s="139"/>
-      <c r="AH95" s="146"/>
-      <c r="AI95" s="147"/>
-      <c r="AJ95" s="148"/>
-      <c r="AK95" s="148"/>
-      <c r="AL95" s="148"/>
-      <c r="AM95" s="139"/>
-      <c r="AN95" s="142"/>
-      <c r="AO95" s="146"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="43"/>
+      <c r="S95" s="43"/>
+      <c r="T95" s="43"/>
+      <c r="U95" s="51"/>
+      <c r="V95" s="52"/>
+      <c r="W95" s="53"/>
+      <c r="X95" s="53"/>
+      <c r="Y95" s="53"/>
+      <c r="Z95" s="43"/>
+      <c r="AA95" s="47"/>
+      <c r="AB95" s="51"/>
+      <c r="AC95" s="39"/>
+      <c r="AD95" s="43"/>
+      <c r="AE95" s="43"/>
+      <c r="AF95" s="43"/>
+      <c r="AG95" s="43"/>
+      <c r="AH95" s="51"/>
+      <c r="AI95" s="52"/>
+      <c r="AJ95" s="53"/>
+      <c r="AK95" s="53"/>
+      <c r="AL95" s="53"/>
+      <c r="AM95" s="43"/>
+      <c r="AN95" s="47"/>
+      <c r="AO95" s="51"/>
       <c r="AP95" s="39"/>
       <c r="AQ95" s="43"/>
       <c r="AR95" s="43"/>
@@ -9525,31 +9705,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P96" s="1"/>
-      <c r="Q96" s="138"/>
-      <c r="R96" s="138"/>
-      <c r="S96" s="138"/>
-      <c r="T96" s="138"/>
-      <c r="U96" s="150"/>
-      <c r="V96" s="154"/>
-      <c r="W96" s="152"/>
-      <c r="X96" s="152"/>
-      <c r="Y96" s="152"/>
-      <c r="Z96" s="138"/>
-      <c r="AA96" s="143"/>
-      <c r="AB96" s="150"/>
-      <c r="AC96" s="137"/>
-      <c r="AD96" s="138"/>
-      <c r="AE96" s="138"/>
-      <c r="AF96" s="138"/>
-      <c r="AG96" s="138"/>
-      <c r="AH96" s="150"/>
-      <c r="AI96" s="154"/>
-      <c r="AJ96" s="152"/>
-      <c r="AK96" s="152"/>
-      <c r="AL96" s="152"/>
-      <c r="AM96" s="138"/>
-      <c r="AN96" s="143"/>
-      <c r="AO96" s="150"/>
+      <c r="Q96" s="42"/>
+      <c r="R96" s="42"/>
+      <c r="S96" s="42"/>
+      <c r="T96" s="42"/>
+      <c r="U96" s="55"/>
+      <c r="V96" s="58"/>
+      <c r="W96" s="57"/>
+      <c r="X96" s="57"/>
+      <c r="Y96" s="57"/>
+      <c r="Z96" s="42"/>
+      <c r="AA96" s="44"/>
+      <c r="AB96" s="55"/>
+      <c r="AC96" s="39"/>
+      <c r="AD96" s="42"/>
+      <c r="AE96" s="42"/>
+      <c r="AF96" s="42"/>
+      <c r="AG96" s="42"/>
+      <c r="AH96" s="55"/>
+      <c r="AI96" s="58"/>
+      <c r="AJ96" s="57"/>
+      <c r="AK96" s="57"/>
+      <c r="AL96" s="57"/>
+      <c r="AM96" s="42"/>
+      <c r="AN96" s="44"/>
+      <c r="AO96" s="55"/>
       <c r="AP96" s="39"/>
       <c r="AQ96" s="42"/>
       <c r="AR96" s="42"/>
@@ -9606,31 +9786,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P97" s="1"/>
-      <c r="Q97" s="139"/>
-      <c r="R97" s="139"/>
-      <c r="S97" s="139"/>
-      <c r="T97" s="139"/>
-      <c r="U97" s="146"/>
-      <c r="V97" s="147"/>
-      <c r="W97" s="148"/>
-      <c r="X97" s="148"/>
-      <c r="Y97" s="148"/>
-      <c r="Z97" s="139"/>
-      <c r="AA97" s="142"/>
-      <c r="AB97" s="146"/>
-      <c r="AC97" s="137"/>
-      <c r="AD97" s="139"/>
-      <c r="AE97" s="139"/>
-      <c r="AF97" s="139"/>
-      <c r="AG97" s="139"/>
-      <c r="AH97" s="146"/>
-      <c r="AI97" s="147"/>
-      <c r="AJ97" s="148"/>
-      <c r="AK97" s="148"/>
-      <c r="AL97" s="148"/>
-      <c r="AM97" s="139"/>
-      <c r="AN97" s="142"/>
-      <c r="AO97" s="146"/>
+      <c r="Q97" s="43"/>
+      <c r="R97" s="43"/>
+      <c r="S97" s="43"/>
+      <c r="T97" s="43"/>
+      <c r="U97" s="51"/>
+      <c r="V97" s="52"/>
+      <c r="W97" s="53"/>
+      <c r="X97" s="53"/>
+      <c r="Y97" s="53"/>
+      <c r="Z97" s="43"/>
+      <c r="AA97" s="47"/>
+      <c r="AB97" s="51"/>
+      <c r="AC97" s="39"/>
+      <c r="AD97" s="43"/>
+      <c r="AE97" s="43"/>
+      <c r="AF97" s="43"/>
+      <c r="AG97" s="43"/>
+      <c r="AH97" s="51"/>
+      <c r="AI97" s="52"/>
+      <c r="AJ97" s="53"/>
+      <c r="AK97" s="53"/>
+      <c r="AL97" s="53"/>
+      <c r="AM97" s="43"/>
+      <c r="AN97" s="47"/>
+      <c r="AO97" s="51"/>
       <c r="AP97" s="39"/>
       <c r="AQ97" s="43"/>
       <c r="AR97" s="43"/>
@@ -9687,31 +9867,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P98" s="1"/>
-      <c r="Q98" s="138"/>
-      <c r="R98" s="138"/>
-      <c r="S98" s="138"/>
-      <c r="T98" s="138"/>
-      <c r="U98" s="150"/>
-      <c r="V98" s="154"/>
-      <c r="W98" s="152"/>
-      <c r="X98" s="152"/>
-      <c r="Y98" s="152"/>
-      <c r="Z98" s="138"/>
-      <c r="AA98" s="143"/>
-      <c r="AB98" s="150"/>
-      <c r="AC98" s="137"/>
-      <c r="AD98" s="138"/>
-      <c r="AE98" s="138"/>
-      <c r="AF98" s="138"/>
-      <c r="AG98" s="138"/>
-      <c r="AH98" s="150"/>
-      <c r="AI98" s="154"/>
-      <c r="AJ98" s="152"/>
-      <c r="AK98" s="152"/>
-      <c r="AL98" s="152"/>
-      <c r="AM98" s="138"/>
-      <c r="AN98" s="143"/>
-      <c r="AO98" s="150"/>
+      <c r="Q98" s="42"/>
+      <c r="R98" s="42"/>
+      <c r="S98" s="42"/>
+      <c r="T98" s="42"/>
+      <c r="U98" s="55"/>
+      <c r="V98" s="58"/>
+      <c r="W98" s="57"/>
+      <c r="X98" s="57"/>
+      <c r="Y98" s="57"/>
+      <c r="Z98" s="42"/>
+      <c r="AA98" s="44"/>
+      <c r="AB98" s="55"/>
+      <c r="AC98" s="39"/>
+      <c r="AD98" s="42"/>
+      <c r="AE98" s="42"/>
+      <c r="AF98" s="42"/>
+      <c r="AG98" s="42"/>
+      <c r="AH98" s="55"/>
+      <c r="AI98" s="58"/>
+      <c r="AJ98" s="57"/>
+      <c r="AK98" s="57"/>
+      <c r="AL98" s="57"/>
+      <c r="AM98" s="42"/>
+      <c r="AN98" s="44"/>
+      <c r="AO98" s="55"/>
       <c r="AP98" s="39"/>
       <c r="AQ98" s="42"/>
       <c r="AR98" s="42"/>
@@ -9768,31 +9948,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P99" s="1"/>
-      <c r="Q99" s="139"/>
-      <c r="R99" s="139"/>
-      <c r="S99" s="139"/>
-      <c r="T99" s="139"/>
-      <c r="U99" s="146"/>
-      <c r="V99" s="147"/>
-      <c r="W99" s="148"/>
-      <c r="X99" s="148"/>
-      <c r="Y99" s="148"/>
-      <c r="Z99" s="139"/>
-      <c r="AA99" s="142"/>
-      <c r="AB99" s="146"/>
-      <c r="AC99" s="137"/>
-      <c r="AD99" s="139"/>
-      <c r="AE99" s="139"/>
-      <c r="AF99" s="139"/>
-      <c r="AG99" s="139"/>
-      <c r="AH99" s="146"/>
-      <c r="AI99" s="147"/>
-      <c r="AJ99" s="148"/>
-      <c r="AK99" s="148"/>
-      <c r="AL99" s="148"/>
-      <c r="AM99" s="139"/>
-      <c r="AN99" s="142"/>
-      <c r="AO99" s="146"/>
+      <c r="Q99" s="43"/>
+      <c r="R99" s="43"/>
+      <c r="S99" s="43"/>
+      <c r="T99" s="43"/>
+      <c r="U99" s="51"/>
+      <c r="V99" s="52"/>
+      <c r="W99" s="53"/>
+      <c r="X99" s="53"/>
+      <c r="Y99" s="53"/>
+      <c r="Z99" s="43"/>
+      <c r="AA99" s="47"/>
+      <c r="AB99" s="51"/>
+      <c r="AC99" s="39"/>
+      <c r="AD99" s="43"/>
+      <c r="AE99" s="43"/>
+      <c r="AF99" s="43"/>
+      <c r="AG99" s="43"/>
+      <c r="AH99" s="51"/>
+      <c r="AI99" s="52"/>
+      <c r="AJ99" s="53"/>
+      <c r="AK99" s="53"/>
+      <c r="AL99" s="53"/>
+      <c r="AM99" s="43"/>
+      <c r="AN99" s="47"/>
+      <c r="AO99" s="51"/>
       <c r="AP99" s="39"/>
       <c r="AQ99" s="43"/>
       <c r="AR99" s="43"/>
@@ -9849,31 +10029,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P100" s="1"/>
-      <c r="Q100" s="138"/>
-      <c r="R100" s="138"/>
-      <c r="S100" s="138"/>
-      <c r="T100" s="138"/>
-      <c r="U100" s="150"/>
-      <c r="V100" s="154"/>
-      <c r="W100" s="152"/>
-      <c r="X100" s="152"/>
-      <c r="Y100" s="152"/>
-      <c r="Z100" s="138"/>
-      <c r="AA100" s="143"/>
-      <c r="AB100" s="150"/>
-      <c r="AC100" s="137"/>
-      <c r="AD100" s="138"/>
-      <c r="AE100" s="138"/>
-      <c r="AF100" s="138"/>
-      <c r="AG100" s="138"/>
-      <c r="AH100" s="150"/>
-      <c r="AI100" s="154"/>
-      <c r="AJ100" s="152"/>
-      <c r="AK100" s="152"/>
-      <c r="AL100" s="152"/>
-      <c r="AM100" s="138"/>
-      <c r="AN100" s="143"/>
-      <c r="AO100" s="150"/>
+      <c r="Q100" s="42"/>
+      <c r="R100" s="42"/>
+      <c r="S100" s="42"/>
+      <c r="T100" s="42"/>
+      <c r="U100" s="55"/>
+      <c r="V100" s="58"/>
+      <c r="W100" s="57"/>
+      <c r="X100" s="57"/>
+      <c r="Y100" s="57"/>
+      <c r="Z100" s="42"/>
+      <c r="AA100" s="44"/>
+      <c r="AB100" s="55"/>
+      <c r="AC100" s="39"/>
+      <c r="AD100" s="42"/>
+      <c r="AE100" s="42"/>
+      <c r="AF100" s="42"/>
+      <c r="AG100" s="42"/>
+      <c r="AH100" s="55"/>
+      <c r="AI100" s="58"/>
+      <c r="AJ100" s="57"/>
+      <c r="AK100" s="57"/>
+      <c r="AL100" s="57"/>
+      <c r="AM100" s="42"/>
+      <c r="AN100" s="44"/>
+      <c r="AO100" s="55"/>
       <c r="AP100" s="39"/>
       <c r="AQ100" s="42"/>
       <c r="AR100" s="42"/>
@@ -9930,31 +10110,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P101" s="1"/>
-      <c r="Q101" s="139"/>
-      <c r="R101" s="139"/>
-      <c r="S101" s="139"/>
-      <c r="T101" s="139"/>
-      <c r="U101" s="146"/>
-      <c r="V101" s="147"/>
-      <c r="W101" s="148"/>
-      <c r="X101" s="148"/>
-      <c r="Y101" s="148"/>
-      <c r="Z101" s="139"/>
-      <c r="AA101" s="142"/>
-      <c r="AB101" s="146"/>
-      <c r="AC101" s="137"/>
-      <c r="AD101" s="139"/>
-      <c r="AE101" s="139"/>
-      <c r="AF101" s="139"/>
-      <c r="AG101" s="139"/>
-      <c r="AH101" s="146"/>
-      <c r="AI101" s="147"/>
-      <c r="AJ101" s="148"/>
-      <c r="AK101" s="148"/>
-      <c r="AL101" s="148"/>
-      <c r="AM101" s="139"/>
-      <c r="AN101" s="142"/>
-      <c r="AO101" s="146"/>
+      <c r="Q101" s="43"/>
+      <c r="R101" s="43"/>
+      <c r="S101" s="43"/>
+      <c r="T101" s="43"/>
+      <c r="U101" s="51"/>
+      <c r="V101" s="52"/>
+      <c r="W101" s="53"/>
+      <c r="X101" s="53"/>
+      <c r="Y101" s="53"/>
+      <c r="Z101" s="43"/>
+      <c r="AA101" s="47"/>
+      <c r="AB101" s="51"/>
+      <c r="AC101" s="39"/>
+      <c r="AD101" s="43"/>
+      <c r="AE101" s="43"/>
+      <c r="AF101" s="43"/>
+      <c r="AG101" s="43"/>
+      <c r="AH101" s="51"/>
+      <c r="AI101" s="52"/>
+      <c r="AJ101" s="53"/>
+      <c r="AK101" s="53"/>
+      <c r="AL101" s="53"/>
+      <c r="AM101" s="43"/>
+      <c r="AN101" s="47"/>
+      <c r="AO101" s="51"/>
       <c r="AP101" s="39"/>
       <c r="AQ101" s="43"/>
       <c r="AR101" s="43"/>
@@ -10011,31 +10191,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P102" s="1"/>
-      <c r="Q102" s="138"/>
-      <c r="R102" s="138"/>
-      <c r="S102" s="138"/>
-      <c r="T102" s="138"/>
-      <c r="U102" s="150"/>
-      <c r="V102" s="154"/>
-      <c r="W102" s="152"/>
-      <c r="X102" s="152"/>
-      <c r="Y102" s="152"/>
-      <c r="Z102" s="138"/>
-      <c r="AA102" s="143"/>
-      <c r="AB102" s="150"/>
-      <c r="AC102" s="137"/>
-      <c r="AD102" s="138"/>
-      <c r="AE102" s="138"/>
-      <c r="AF102" s="138"/>
-      <c r="AG102" s="138"/>
-      <c r="AH102" s="150"/>
-      <c r="AI102" s="154"/>
-      <c r="AJ102" s="152"/>
-      <c r="AK102" s="152"/>
-      <c r="AL102" s="152"/>
-      <c r="AM102" s="138"/>
-      <c r="AN102" s="143"/>
-      <c r="AO102" s="150"/>
+      <c r="Q102" s="42"/>
+      <c r="R102" s="42"/>
+      <c r="S102" s="42"/>
+      <c r="T102" s="42"/>
+      <c r="U102" s="55"/>
+      <c r="V102" s="58"/>
+      <c r="W102" s="57"/>
+      <c r="X102" s="57"/>
+      <c r="Y102" s="57"/>
+      <c r="Z102" s="42"/>
+      <c r="AA102" s="44"/>
+      <c r="AB102" s="55"/>
+      <c r="AC102" s="39"/>
+      <c r="AD102" s="42"/>
+      <c r="AE102" s="42"/>
+      <c r="AF102" s="42"/>
+      <c r="AG102" s="42"/>
+      <c r="AH102" s="55"/>
+      <c r="AI102" s="58"/>
+      <c r="AJ102" s="57"/>
+      <c r="AK102" s="57"/>
+      <c r="AL102" s="57"/>
+      <c r="AM102" s="42"/>
+      <c r="AN102" s="44"/>
+      <c r="AO102" s="55"/>
       <c r="AP102" s="39"/>
       <c r="AQ102" s="42"/>
       <c r="AR102" s="42"/>
@@ -10092,31 +10272,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P103" s="1"/>
-      <c r="Q103" s="139"/>
-      <c r="R103" s="139"/>
-      <c r="S103" s="139"/>
-      <c r="T103" s="139"/>
-      <c r="U103" s="146"/>
-      <c r="V103" s="147"/>
-      <c r="W103" s="148"/>
-      <c r="X103" s="148"/>
-      <c r="Y103" s="148"/>
-      <c r="Z103" s="139"/>
-      <c r="AA103" s="142"/>
-      <c r="AB103" s="146"/>
-      <c r="AC103" s="137"/>
-      <c r="AD103" s="139"/>
-      <c r="AE103" s="139"/>
-      <c r="AF103" s="139"/>
-      <c r="AG103" s="139"/>
-      <c r="AH103" s="146"/>
-      <c r="AI103" s="147"/>
-      <c r="AJ103" s="148"/>
-      <c r="AK103" s="148"/>
-      <c r="AL103" s="148"/>
-      <c r="AM103" s="139"/>
-      <c r="AN103" s="142"/>
-      <c r="AO103" s="146"/>
+      <c r="Q103" s="43"/>
+      <c r="R103" s="43"/>
+      <c r="S103" s="43"/>
+      <c r="T103" s="43"/>
+      <c r="U103" s="51"/>
+      <c r="V103" s="52"/>
+      <c r="W103" s="53"/>
+      <c r="X103" s="53"/>
+      <c r="Y103" s="53"/>
+      <c r="Z103" s="43"/>
+      <c r="AA103" s="47"/>
+      <c r="AB103" s="51"/>
+      <c r="AC103" s="39"/>
+      <c r="AD103" s="43"/>
+      <c r="AE103" s="43"/>
+      <c r="AF103" s="43"/>
+      <c r="AG103" s="43"/>
+      <c r="AH103" s="51"/>
+      <c r="AI103" s="52"/>
+      <c r="AJ103" s="53"/>
+      <c r="AK103" s="53"/>
+      <c r="AL103" s="53"/>
+      <c r="AM103" s="43"/>
+      <c r="AN103" s="47"/>
+      <c r="AO103" s="51"/>
       <c r="AP103" s="39"/>
       <c r="AQ103" s="43"/>
       <c r="AR103" s="43"/>
@@ -10173,31 +10353,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P104" s="1"/>
-      <c r="Q104" s="138"/>
-      <c r="R104" s="138"/>
-      <c r="S104" s="138"/>
-      <c r="T104" s="138"/>
-      <c r="U104" s="150"/>
-      <c r="V104" s="154"/>
-      <c r="W104" s="152"/>
-      <c r="X104" s="152"/>
-      <c r="Y104" s="152"/>
-      <c r="Z104" s="138"/>
-      <c r="AA104" s="143"/>
-      <c r="AB104" s="150"/>
-      <c r="AC104" s="137"/>
-      <c r="AD104" s="138"/>
-      <c r="AE104" s="138"/>
-      <c r="AF104" s="138"/>
-      <c r="AG104" s="138"/>
-      <c r="AH104" s="150"/>
-      <c r="AI104" s="154"/>
-      <c r="AJ104" s="152"/>
-      <c r="AK104" s="152"/>
-      <c r="AL104" s="152"/>
-      <c r="AM104" s="138"/>
-      <c r="AN104" s="143"/>
-      <c r="AO104" s="150"/>
+      <c r="Q104" s="42"/>
+      <c r="R104" s="42"/>
+      <c r="S104" s="42"/>
+      <c r="T104" s="42"/>
+      <c r="U104" s="55"/>
+      <c r="V104" s="58"/>
+      <c r="W104" s="57"/>
+      <c r="X104" s="57"/>
+      <c r="Y104" s="57"/>
+      <c r="Z104" s="42"/>
+      <c r="AA104" s="44"/>
+      <c r="AB104" s="55"/>
+      <c r="AC104" s="39"/>
+      <c r="AD104" s="42"/>
+      <c r="AE104" s="42"/>
+      <c r="AF104" s="42"/>
+      <c r="AG104" s="42"/>
+      <c r="AH104" s="55"/>
+      <c r="AI104" s="58"/>
+      <c r="AJ104" s="57"/>
+      <c r="AK104" s="57"/>
+      <c r="AL104" s="57"/>
+      <c r="AM104" s="42"/>
+      <c r="AN104" s="44"/>
+      <c r="AO104" s="55"/>
       <c r="AP104" s="39"/>
       <c r="AQ104" s="42"/>
       <c r="AR104" s="42"/>
@@ -10254,31 +10434,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P105" s="1"/>
-      <c r="Q105" s="139"/>
-      <c r="R105" s="139"/>
-      <c r="S105" s="139"/>
-      <c r="T105" s="139"/>
-      <c r="U105" s="146"/>
-      <c r="V105" s="147"/>
-      <c r="W105" s="148"/>
-      <c r="X105" s="148"/>
-      <c r="Y105" s="148"/>
-      <c r="Z105" s="139"/>
-      <c r="AA105" s="142"/>
-      <c r="AB105" s="146"/>
-      <c r="AC105" s="137"/>
-      <c r="AD105" s="139"/>
-      <c r="AE105" s="139"/>
-      <c r="AF105" s="139"/>
-      <c r="AG105" s="139"/>
-      <c r="AH105" s="146"/>
-      <c r="AI105" s="147"/>
-      <c r="AJ105" s="148"/>
-      <c r="AK105" s="148"/>
-      <c r="AL105" s="148"/>
-      <c r="AM105" s="139"/>
-      <c r="AN105" s="142"/>
-      <c r="AO105" s="146"/>
+      <c r="Q105" s="43"/>
+      <c r="R105" s="43"/>
+      <c r="S105" s="43"/>
+      <c r="T105" s="43"/>
+      <c r="U105" s="51"/>
+      <c r="V105" s="52"/>
+      <c r="W105" s="53"/>
+      <c r="X105" s="53"/>
+      <c r="Y105" s="53"/>
+      <c r="Z105" s="43"/>
+      <c r="AA105" s="47"/>
+      <c r="AB105" s="51"/>
+      <c r="AC105" s="39"/>
+      <c r="AD105" s="43"/>
+      <c r="AE105" s="43"/>
+      <c r="AF105" s="43"/>
+      <c r="AG105" s="43"/>
+      <c r="AH105" s="51"/>
+      <c r="AI105" s="52"/>
+      <c r="AJ105" s="53"/>
+      <c r="AK105" s="53"/>
+      <c r="AL105" s="53"/>
+      <c r="AM105" s="43"/>
+      <c r="AN105" s="47"/>
+      <c r="AO105" s="51"/>
       <c r="AP105" s="39"/>
       <c r="AQ105" s="43"/>
       <c r="AR105" s="43"/>
@@ -10335,31 +10515,31 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="P106" s="1"/>
-      <c r="Q106" s="138"/>
-      <c r="R106" s="138"/>
-      <c r="S106" s="138"/>
-      <c r="T106" s="138"/>
-      <c r="U106" s="150"/>
-      <c r="V106" s="154"/>
-      <c r="W106" s="152"/>
-      <c r="X106" s="152"/>
-      <c r="Y106" s="152"/>
-      <c r="Z106" s="138"/>
-      <c r="AA106" s="143"/>
-      <c r="AB106" s="150"/>
-      <c r="AC106" s="137"/>
-      <c r="AD106" s="138"/>
-      <c r="AE106" s="138"/>
-      <c r="AF106" s="138"/>
-      <c r="AG106" s="138"/>
-      <c r="AH106" s="150"/>
-      <c r="AI106" s="154"/>
-      <c r="AJ106" s="152"/>
-      <c r="AK106" s="152"/>
-      <c r="AL106" s="152"/>
-      <c r="AM106" s="138"/>
-      <c r="AN106" s="143"/>
-      <c r="AO106" s="150"/>
+      <c r="Q106" s="42"/>
+      <c r="R106" s="42"/>
+      <c r="S106" s="42"/>
+      <c r="T106" s="42"/>
+      <c r="U106" s="55"/>
+      <c r="V106" s="58"/>
+      <c r="W106" s="57"/>
+      <c r="X106" s="57"/>
+      <c r="Y106" s="57"/>
+      <c r="Z106" s="42"/>
+      <c r="AA106" s="44"/>
+      <c r="AB106" s="55"/>
+      <c r="AC106" s="39"/>
+      <c r="AD106" s="42"/>
+      <c r="AE106" s="42"/>
+      <c r="AF106" s="42"/>
+      <c r="AG106" s="42"/>
+      <c r="AH106" s="55"/>
+      <c r="AI106" s="58"/>
+      <c r="AJ106" s="57"/>
+      <c r="AK106" s="57"/>
+      <c r="AL106" s="57"/>
+      <c r="AM106" s="42"/>
+      <c r="AN106" s="44"/>
+      <c r="AO106" s="55"/>
       <c r="AP106" s="39"/>
       <c r="AQ106" s="42"/>
       <c r="AR106" s="42"/>
@@ -10393,31 +10573,31 @@
       <c r="N107" s="1"/>
       <c r="O107" s="36"/>
       <c r="P107" s="1"/>
-      <c r="Q107" s="137"/>
-      <c r="R107" s="137"/>
-      <c r="S107" s="137"/>
-      <c r="T107" s="137"/>
-      <c r="U107" s="137"/>
-      <c r="V107" s="137"/>
-      <c r="W107" s="137"/>
-      <c r="X107" s="137"/>
-      <c r="Y107" s="137"/>
-      <c r="Z107" s="137"/>
-      <c r="AA107" s="137"/>
-      <c r="AB107" s="137"/>
-      <c r="AC107" s="137"/>
-      <c r="AD107" s="137"/>
-      <c r="AE107" s="137"/>
-      <c r="AF107" s="137"/>
-      <c r="AG107" s="137"/>
-      <c r="AH107" s="137"/>
-      <c r="AI107" s="137"/>
-      <c r="AJ107" s="137"/>
-      <c r="AK107" s="137"/>
-      <c r="AL107" s="137"/>
-      <c r="AM107" s="137"/>
-      <c r="AN107" s="137"/>
-      <c r="AO107" s="137"/>
+      <c r="Q107" s="39"/>
+      <c r="R107" s="39"/>
+      <c r="S107" s="39"/>
+      <c r="T107" s="39"/>
+      <c r="U107" s="39"/>
+      <c r="V107" s="39"/>
+      <c r="W107" s="39"/>
+      <c r="X107" s="39"/>
+      <c r="Y107" s="39"/>
+      <c r="Z107" s="39"/>
+      <c r="AA107" s="39"/>
+      <c r="AB107" s="39"/>
+      <c r="AC107" s="39"/>
+      <c r="AD107" s="39"/>
+      <c r="AE107" s="39"/>
+      <c r="AF107" s="39"/>
+      <c r="AG107" s="39"/>
+      <c r="AH107" s="39"/>
+      <c r="AI107" s="39"/>
+      <c r="AJ107" s="39"/>
+      <c r="AK107" s="39"/>
+      <c r="AL107" s="39"/>
+      <c r="AM107" s="39"/>
+      <c r="AN107" s="39"/>
+      <c r="AO107" s="39"/>
       <c r="AP107" s="39"/>
       <c r="AQ107" s="39"/>
       <c r="AR107" s="39"/>
@@ -10451,31 +10631,31 @@
       <c r="N108" s="37"/>
       <c r="O108" s="38"/>
       <c r="P108" s="1"/>
-      <c r="Q108" s="138"/>
-      <c r="R108" s="138"/>
-      <c r="S108" s="138"/>
-      <c r="T108" s="138"/>
-      <c r="U108" s="138"/>
-      <c r="V108" s="138"/>
-      <c r="W108" s="138"/>
-      <c r="X108" s="138"/>
-      <c r="Y108" s="138"/>
-      <c r="Z108" s="138"/>
-      <c r="AA108" s="138"/>
-      <c r="AB108" s="141"/>
-      <c r="AC108" s="138"/>
-      <c r="AD108" s="138"/>
-      <c r="AE108" s="138"/>
-      <c r="AF108" s="138"/>
-      <c r="AG108" s="138"/>
-      <c r="AH108" s="138"/>
-      <c r="AI108" s="138"/>
-      <c r="AJ108" s="138"/>
-      <c r="AK108" s="138"/>
-      <c r="AL108" s="138"/>
-      <c r="AM108" s="138"/>
-      <c r="AN108" s="138"/>
-      <c r="AO108" s="138"/>
+      <c r="Q108" s="42"/>
+      <c r="R108" s="42"/>
+      <c r="S108" s="42"/>
+      <c r="T108" s="42"/>
+      <c r="U108" s="42"/>
+      <c r="V108" s="42"/>
+      <c r="W108" s="42"/>
+      <c r="X108" s="42"/>
+      <c r="Y108" s="42"/>
+      <c r="Z108" s="42"/>
+      <c r="AA108" s="42"/>
+      <c r="AB108" s="46"/>
+      <c r="AC108" s="42"/>
+      <c r="AD108" s="42"/>
+      <c r="AE108" s="42"/>
+      <c r="AF108" s="42"/>
+      <c r="AG108" s="42"/>
+      <c r="AH108" s="42"/>
+      <c r="AI108" s="42"/>
+      <c r="AJ108" s="42"/>
+      <c r="AK108" s="42"/>
+      <c r="AL108" s="42"/>
+      <c r="AM108" s="42"/>
+      <c r="AN108" s="42"/>
+      <c r="AO108" s="42"/>
       <c r="AP108" s="39"/>
       <c r="AQ108" s="46"/>
       <c r="AR108" s="46"/>
@@ -10492,78 +10672,44 @@
       <c r="BC108" s="1"/>
       <c r="BD108" s="2"/>
     </row>
-    <row r="109" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q109" s="162"/>
-      <c r="R109" s="162"/>
-      <c r="S109" s="162"/>
-      <c r="T109" s="162"/>
-      <c r="U109" s="162"/>
-      <c r="V109" s="162"/>
-      <c r="W109" s="162"/>
-      <c r="X109" s="162"/>
-      <c r="Y109" s="162"/>
-      <c r="Z109" s="162"/>
-      <c r="AA109" s="162"/>
-      <c r="AB109" s="162"/>
-      <c r="AC109" s="162"/>
-      <c r="AD109" s="162"/>
-      <c r="AE109" s="162"/>
-      <c r="AF109" s="162"/>
-      <c r="AG109" s="162"/>
-      <c r="AH109" s="162"/>
-      <c r="AI109" s="162"/>
-      <c r="AJ109" s="162"/>
-      <c r="AK109" s="162"/>
-      <c r="AL109" s="162"/>
-      <c r="AM109" s="162"/>
-      <c r="AN109" s="162"/>
-      <c r="AO109" s="162"/>
-    </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="B13:I17"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AW9:AY9"/>
-    <mergeCell ref="AZ9:BB9"/>
-    <mergeCell ref="AR8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M3:O5"/>
-    <mergeCell ref="C3:F5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="AT15:AV15"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="AT16:AV16"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="AR13:AV13"/>
-    <mergeCell ref="AW13:BB13"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="AU11:AV12"/>
-    <mergeCell ref="AW11:AW12"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="AQ3:AQ5"/>
+    <mergeCell ref="AR3:AS5"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M6:O7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="AS21:AT21"/>
+    <mergeCell ref="AU21:AV21"/>
+    <mergeCell ref="AW21:AY21"/>
+    <mergeCell ref="AQ1:BB1"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="AT5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AT6:AV6"/>
+    <mergeCell ref="AW6:AY6"/>
+    <mergeCell ref="AZ6:BB7"/>
+    <mergeCell ref="AT7:AV7"/>
+    <mergeCell ref="AW7:AY7"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB5"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AR6:AS7"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="AZ21:BB21"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="M21:O21"/>
@@ -10588,42 +10734,49 @@
     <mergeCell ref="B20:O20"/>
     <mergeCell ref="AQ21:AQ22"/>
     <mergeCell ref="AR21:AR22"/>
-    <mergeCell ref="AS21:AT21"/>
-    <mergeCell ref="AU21:AV21"/>
-    <mergeCell ref="AW21:AY21"/>
-    <mergeCell ref="AQ1:BB1"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="AT5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AT6:AV6"/>
-    <mergeCell ref="AW6:AY6"/>
-    <mergeCell ref="AZ6:BB7"/>
-    <mergeCell ref="AT7:AV7"/>
-    <mergeCell ref="AW7:AY7"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB5"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AR6:AS7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="AQ3:AQ5"/>
-    <mergeCell ref="AR3:AS5"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M6:O7"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="AT15:AV15"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="AT16:AV16"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="AR13:AV13"/>
+    <mergeCell ref="AW13:BB13"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="AU11:AV12"/>
+    <mergeCell ref="AW11:AW12"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M3:O5"/>
+    <mergeCell ref="C3:F5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="AW9:AY9"/>
+    <mergeCell ref="AZ9:BB9"/>
+    <mergeCell ref="AR8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="B13:I17"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="H11:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10633,7 +10786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7FF0C2-9FE0-6F4B-BEAB-1EF8C1A390AD}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+    <sheetView zoomScale="137" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -10649,186 +10802,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="167"/>
-    </row>
-    <row r="2" spans="1:7" ht="31" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="180" t="s">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="164"/>
+    </row>
+    <row r="2" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="180" t="s">
+      <c r="D2" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="170" t="s">
+      <c r="E2" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="171"/>
-      <c r="G2" s="172"/>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A3" s="165" t="s">
+      <c r="F2" s="166"/>
+      <c r="G2" s="167"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="136">
+      <c r="B3" s="67">
         <f>'Штурманский журнал'!L106</f>
         <v>0</v>
       </c>
-      <c r="C3" s="136">
-        <f>$F$3</f>
+      <c r="C3" s="67">
+        <f t="shared" ref="C3:C8" si="0">$F$3</f>
         <v>10.6</v>
       </c>
-      <c r="D3" s="181">
-        <f>B3*C3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="178" t="s">
+      <c r="D3" s="87">
+        <f t="shared" ref="D3:D8" si="1">B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="135">
+      <c r="F3" s="66">
         <v>10.6</v>
       </c>
-      <c r="G3" s="179" t="s">
+      <c r="G3" s="85" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.15">
-      <c r="A4" s="165" t="s">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A4" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="136">
+      <c r="B4" s="67">
         <f>20/60</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C4" s="136">
-        <f>$F$3</f>
+      <c r="C4" s="67">
+        <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
-      <c r="D4" s="181">
-        <f>B4*C4</f>
+      <c r="D4" s="87">
+        <f t="shared" si="1"/>
         <v>3.5333333333333332</v>
       </c>
-      <c r="E4" s="178" t="s">
+      <c r="E4" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="133">
+      <c r="F4" s="64">
         <v>2500</v>
       </c>
-      <c r="G4" s="182" t="s">
+      <c r="G4" s="88" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.15">
-      <c r="A5" s="165" t="s">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="136">
-        <v>0</v>
-      </c>
-      <c r="C5" s="136">
-        <f>$F$3</f>
+      <c r="B5" s="67">
+        <v>0</v>
+      </c>
+      <c r="C5" s="67">
+        <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
-      <c r="D5" s="181">
-        <f>B5*C5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="178" t="s">
+      <c r="D5" s="87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="134">
+      <c r="F5" s="65">
         <v>120</v>
       </c>
-      <c r="G5" s="179" t="s">
+      <c r="G5" s="85" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.15">
-      <c r="A6" s="165" t="s">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="136">
-        <v>0</v>
-      </c>
-      <c r="C6" s="136">
-        <f>$F$3</f>
+      <c r="B6" s="67">
+        <v>0</v>
+      </c>
+      <c r="C6" s="67">
+        <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
-      <c r="D6" s="181">
-        <f>B6*C6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="173"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="174"/>
-    </row>
-    <row r="7" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="165" t="s">
+      <c r="D6" s="87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="79"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="80"/>
+    </row>
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="136">
+      <c r="B7" s="67">
         <f>30/60</f>
         <v>0.5</v>
       </c>
-      <c r="C7" s="136">
-        <f>$F$3</f>
+      <c r="C7" s="67">
+        <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
-      <c r="D7" s="181">
-        <f>B7*C7</f>
+      <c r="D7" s="87">
+        <f t="shared" si="1"/>
         <v>5.3</v>
       </c>
-      <c r="E7" s="175"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="177"/>
-    </row>
-    <row r="8" spans="1:7" ht="31" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="165" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
+    </row>
+    <row r="8" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="136">
-        <v>0</v>
-      </c>
-      <c r="C8" s="136">
-        <f>$F$3</f>
+      <c r="B8" s="67">
+        <v>0</v>
+      </c>
+      <c r="C8" s="67">
+        <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
-      <c r="D8" s="181">
-        <f>B8*C8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="168"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
+      <c r="D8" s="87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="164" t="s">
+      <c r="A9" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="136">
+      <c r="B9" s="67">
         <f>SUM(B3:B8)</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="C9" s="136">
+      <c r="C9" s="67">
         <f>SUM(C3:C8)</f>
         <v>63.6</v>
       </c>
-      <c r="D9" s="136">
+      <c r="D9" s="67">
         <f>SUM(D3:D8)</f>
         <v>8.8333333333333321</v>
       </c>
-      <c r="E9" s="133"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10840,6 +10993,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE0F03E-98F9-0144-9B27-624EE177B45A}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="182" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="168" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="169"/>
+      <c r="C1" s="170"/>
+    </row>
+    <row r="2" spans="1:3" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="171" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="172">
+        <v>270</v>
+      </c>
+      <c r="C2" s="173" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="174" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="175">
+        <v>20</v>
+      </c>
+      <c r="C3" s="176" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="174" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="177">
+        <v>0</v>
+      </c>
+      <c r="C4" s="173" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="174" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="177">
+        <v>150</v>
+      </c>
+      <c r="C5" s="173" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="178" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="179">
+        <f>DEGREES(ASIN((B3*SIN(RADIANS(B2-B4)))/B5))</f>
+        <v>-7.662255660766065</v>
+      </c>
+      <c r="C6" s="180" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A01ADF6-873A-4B31-8D48-B223D34D2627}">
   <dimension ref="A1:K21"/>
   <sheetViews>
